--- a/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/showcase/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D042D48F-6693-8A40-9B93-27A9462D9D56}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A090BDF-779B-904B-B374-BD282AF2768D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9140" yWindow="-13700" windowWidth="33600" windowHeight="13700" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9140" yWindow="-13700" windowWidth="33600" windowHeight="13700" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
     <sheet name="showcase" sheetId="2" r:id="rId2"/>
+    <sheet name="gmail" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="428">
   <si>
     <t>description</t>
   </si>
@@ -1331,6 +1332,18 @@
   </si>
   <si>
     <t>mail1@host.com</t>
+  </si>
+  <si>
+    <t>Send to Gmail</t>
+  </si>
+  <si>
+    <t>send email to gmail</t>
+  </si>
+  <si>
+    <t>Gmail</t>
+  </si>
+  <si>
+    <t>mi_n_myself@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1676,7 +1689,37 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -3490,7 +3533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O998"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -4682,13 +4725,13 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="5" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="7" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="4" priority="7" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="3" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4703,4 +4746,1206 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB0C0FE-B3C7-4645-88A3-C358B406D8F6}">
+  <dimension ref="A1:O998"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="30.6640625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.1640625" style="4" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.5" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="36.83203125" style="4" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="13.6640625" style="4" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="1.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12" style="7" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.5" style="5" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="25.83203125" style="7" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="49.83203125" style="2" customWidth="1" collapsed="1"/>
+    <col min="16" max="16384" width="10.83203125" style="12" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="7"/>
+      <c r="L1" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="26"/>
+    </row>
+    <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="29"/>
+    </row>
+    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="5"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="1:15" s="13" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="14"/>
+    </row>
+    <row r="20" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="49" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="49" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="1:15" s="16" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="2"/>
+    </row>
+    <row r="71" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <sheetProtection formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="L2:O2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="N1 N3:N1048576">
+    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+      <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+      <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+      <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C698" xr:uid="{34922535-5C9A-7043-94A6-6088BF6225AD}">
+      <formula1>target</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D696" xr:uid="{EB7BB921-5E35-2447-AA38-FE908A62B300}">
+      <formula1>INDIRECT(C5)</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10422"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/showcase/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A090BDF-779B-904B-B374-BD282AF2768D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{9A090BDF-779B-904B-B374-BD282AF2768D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33"/>
   <bookViews>
-    <workbookView xWindow="9140" yWindow="-13700" windowWidth="33600" windowHeight="13700" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="13700" windowWidth="33600" xWindow="9140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-13700"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="showcase" sheetId="2" r:id="rId2"/>
-    <sheet name="gmail" sheetId="5" r:id="rId3"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="showcase" r:id="rId2" sheetId="2"/>
+    <sheet name="gmail" r:id="rId3" sheetId="5"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -36,16 +36,17 @@
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$M$2:$M$14</definedName>
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
-    <definedName name="rdbms">'#system'!$O$2:$O$6</definedName>
+    <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
     <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="ssh">'#system'!$Q$2:$Q$9</definedName>
-    <definedName name="step">'#system'!$R$2:$R$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$23</definedName>
-    <definedName name="web">'#system'!$S$2:$S$108</definedName>
-    <definedName name="webalert">'#system'!$T$2:$T$6</definedName>
-    <definedName name="webcookie">'#system'!$U$2:$U$8</definedName>
-    <definedName name="ws">'#system'!$V$2:$V$16</definedName>
-    <definedName name="xml">'#system'!$W$2:$W$11</definedName>
+    <definedName name="ssh">'#system'!$R$2:$R$9</definedName>
+    <definedName name="step">'#system'!$S$2:$S$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$24</definedName>
+    <definedName name="web">'#system'!$T$2:$T$108</definedName>
+    <definedName name="webalert">'#system'!$U$2:$U$6</definedName>
+    <definedName name="webcookie">'#system'!$V$2:$V$8</definedName>
+    <definedName name="ws">'#system'!$W$2:$W$16</definedName>
+    <definedName name="xml">'#system'!$X$2:$X$11</definedName>
+    <definedName name="sound">'#system'!$Q$2:$Q$6</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="436">
   <si>
     <t>description</t>
   </si>
@@ -1344,13 +1345,38 @@
   </si>
   <si>
     <t>mi_n_myself@gmail.com</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>saveResults(db,sqls,outputDir)</t>
+  </si>
+  <si>
+    <t>lazer(repeats)</t>
+  </si>
+  <si>
+    <t>play(audio)</t>
+  </si>
+  <si>
+    <t>speak(profile,text)</t>
+  </si>
+  <si>
+    <t>warp(repeats)</t>
+  </si>
+  <si>
+    <t>speak(text)</t>
+  </si>
+  <si>
+    <t>speakNoWait(text)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1427,8 +1453,236 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="67">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1447,8 +1701,365 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="69">
     <border>
       <left/>
       <right/>
@@ -1548,146 +2159,836 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="66">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="4" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="5" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="8" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="8" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="16" fillId="6" fontId="11" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="9" fontId="13" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="20" fillId="12" fontId="15" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="24" fillId="15" fontId="16" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="28" fillId="18" fontId="17" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="28" fillId="18" fontId="18" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="19" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="20" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="21" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="36" fillId="27" fontId="23" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="25" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="40" fillId="33" fontId="27" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="44" fillId="36" fontId="28" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="48" fillId="39" fontId="29" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="48" fillId="39" fontId="30" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="31" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="32" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="33" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="48" borderId="56" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="51" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="54" borderId="60" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="57" borderId="64" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="60" borderId="68" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="60" borderId="68" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="66" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="4"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="5"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="6"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="7"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="8"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="9"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -1751,7 +3052,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -1776,10 +3077,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1814,7 +3115,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1849,7 +3150,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1943,21 +3244,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1974,7 +3275,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2026,26 +3327,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W108"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y108"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2095,28 +3396,31 @@
         <v>405</v>
       </c>
       <c r="Q1" t="s">
+        <v>428</v>
+      </c>
+      <c r="R1" t="s">
         <v>362</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>401</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>29</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>30</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>31</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>131</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>376</v>
       </c>
@@ -2166,28 +3470,31 @@
         <v>406</v>
       </c>
       <c r="Q2" t="s">
+        <v>430</v>
+      </c>
+      <c r="R2" t="s">
         <v>386</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>402</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>40</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>117</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>122</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>132</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2234,28 +3541,31 @@
         <v>407</v>
       </c>
       <c r="Q3" t="s">
+        <v>431</v>
+      </c>
+      <c r="R3" t="s">
         <v>387</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>403</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>41</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>118</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>123</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>369</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>174</v>
       </c>
@@ -2299,28 +3609,31 @@
         <v>408</v>
       </c>
       <c r="Q4" t="s">
+        <v>434</v>
+      </c>
+      <c r="R4" t="s">
         <v>363</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>404</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>359</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>119</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>124</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>133</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2358,25 +3671,28 @@
         <v>409</v>
       </c>
       <c r="Q5" t="s">
+        <v>435</v>
+      </c>
+      <c r="R5" t="s">
         <v>364</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>360</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>120</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>125</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>134</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>175</v>
       </c>
@@ -2411,25 +3727,28 @@
         <v>410</v>
       </c>
       <c r="Q6" t="s">
+        <v>433</v>
+      </c>
+      <c r="R6" t="s">
         <v>366</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>42</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>121</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>126</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>135</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>143</v>
       </c>
@@ -2457,26 +3776,29 @@
       <c r="N7" t="s">
         <v>249</v>
       </c>
+      <c r="O7" t="s">
+        <v>429</v>
+      </c>
       <c r="P7" t="s">
         <v>411</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>365</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>43</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>130</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>136</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>352</v>
       </c>
@@ -2507,23 +3829,23 @@
       <c r="P8" t="s">
         <v>412</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>367</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>44</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>127</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>137</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>144</v>
       </c>
@@ -2551,20 +3873,20 @@
       <c r="P9" t="s">
         <v>413</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>368</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>214</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>182</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>338</v>
       </c>
@@ -2589,17 +3911,17 @@
       <c r="P10" t="s">
         <v>414</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>262</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>183</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>185</v>
       </c>
@@ -2621,17 +3943,17 @@
       <c r="N11" t="s">
         <v>253</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>263</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>264</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>196</v>
       </c>
@@ -2650,14 +3972,14 @@
       <c r="N12" t="s">
         <v>254</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>45</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>128</v>
       </c>
@@ -2676,14 +3998,14 @@
       <c r="N13" t="s">
         <v>259</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>331</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>244</v>
       </c>
@@ -2702,14 +4024,14 @@
       <c r="N14" t="s">
         <v>255</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>46</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>184</v>
       </c>
@@ -2725,14 +4047,14 @@
       <c r="N15" t="s">
         <v>256</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>47</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>405</v>
       </c>
@@ -2748,16 +4070,16 @@
       <c r="N16" t="s">
         <v>257</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>48</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
-        <v>362</v>
+        <v>428</v>
       </c>
       <c r="C17" t="s">
         <v>34</v>
@@ -2768,13 +4090,13 @@
       <c r="I17" t="s">
         <v>151</v>
       </c>
-      <c r="S17" t="s">
+      <c r="T17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="C18" t="s">
         <v>35</v>
@@ -2785,13 +4107,13 @@
       <c r="I18" t="s">
         <v>397</v>
       </c>
-      <c r="S18" t="s">
+      <c r="T18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>401</v>
       </c>
       <c r="C19" t="s">
         <v>261</v>
@@ -2802,13 +4124,13 @@
       <c r="I19" t="s">
         <v>152</v>
       </c>
-      <c r="S19" t="s">
+      <c r="T19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
         <v>36</v>
@@ -2819,13 +4141,13 @@
       <c r="I20" t="s">
         <v>153</v>
       </c>
-      <c r="S20" t="s">
+      <c r="T20" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
         <v>326</v>
@@ -2836,13 +4158,13 @@
       <c r="I21" t="s">
         <v>154</v>
       </c>
-      <c r="S21" t="s">
+      <c r="T21" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
         <v>129</v>
@@ -2850,13 +4172,13 @@
       <c r="E22" t="s">
         <v>304</v>
       </c>
-      <c r="S22" t="s">
+      <c r="T22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
-        <v>232</v>
+        <v>131</v>
       </c>
       <c r="C23" t="s">
         <v>230</v>
@@ -2864,699 +4186,702 @@
       <c r="E23" t="s">
         <v>295</v>
       </c>
-      <c r="S23" t="s">
+      <c r="T23" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24">
+      <c r="A24" t="s">
+        <v>232</v>
+      </c>
       <c r="C24" t="s">
         <v>231</v>
       </c>
       <c r="E24" t="s">
         <v>284</v>
       </c>
-      <c r="S24" t="s">
+      <c r="T24" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="C25" t="s">
         <v>159</v>
       </c>
       <c r="E25" t="s">
         <v>156</v>
       </c>
-      <c r="S25" t="s">
+      <c r="T25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="C26" t="s">
         <v>37</v>
       </c>
       <c r="E26" t="s">
         <v>287</v>
       </c>
-      <c r="S26" t="s">
+      <c r="T26" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="C27" t="s">
         <v>38</v>
       </c>
       <c r="E27" t="s">
         <v>271</v>
       </c>
-      <c r="S27" t="s">
+      <c r="T27" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="C28" t="s">
         <v>160</v>
       </c>
       <c r="E28" t="s">
         <v>288</v>
       </c>
-      <c r="S28" t="s">
+      <c r="T28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="C29" t="s">
         <v>161</v>
       </c>
       <c r="E29" t="s">
         <v>289</v>
       </c>
-      <c r="S29" t="s">
+      <c r="T29" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="C30" t="s">
         <v>162</v>
       </c>
       <c r="E30" t="s">
         <v>221</v>
       </c>
-      <c r="S30" t="s">
+      <c r="T30" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="C31" t="s">
         <v>39</v>
       </c>
       <c r="E31" t="s">
         <v>280</v>
       </c>
-      <c r="S31" t="s">
+      <c r="T31" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="C32" t="s">
         <v>155</v>
       </c>
       <c r="E32" t="s">
         <v>290</v>
       </c>
-      <c r="S32" t="s">
+      <c r="T32" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="E33" t="s">
         <v>265</v>
       </c>
-      <c r="S33" t="s">
+      <c r="T33" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="E34" t="s">
         <v>335</v>
       </c>
-      <c r="S34" t="s">
+      <c r="T34" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="35" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="E35" t="s">
         <v>313</v>
       </c>
-      <c r="S35" t="s">
+      <c r="T35" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="E36" t="s">
         <v>266</v>
       </c>
-      <c r="S36" t="s">
+      <c r="T36" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="37" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="E37" t="s">
         <v>314</v>
       </c>
-      <c r="S37" t="s">
+      <c r="T37" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="38" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="E38" t="s">
         <v>272</v>
       </c>
-      <c r="S38" t="s">
+      <c r="T38" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="E39" t="s">
         <v>158</v>
       </c>
-      <c r="S39" t="s">
+      <c r="T39" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="E40" t="s">
         <v>217</v>
       </c>
-      <c r="S40" t="s">
+      <c r="T40" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="E41" t="s">
         <v>294</v>
       </c>
-      <c r="S41" t="s">
+      <c r="T41" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="E42" t="s">
         <v>305</v>
       </c>
-      <c r="S42" t="s">
+      <c r="T42" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="E43" t="s">
         <v>306</v>
       </c>
-      <c r="S43" t="s">
+      <c r="T43" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="E44" t="s">
         <v>348</v>
       </c>
-      <c r="S44" t="s">
+      <c r="T44" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="45" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="E45" t="s">
         <v>347</v>
       </c>
-      <c r="S45" t="s">
+      <c r="T45" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="E46" t="s">
         <v>216</v>
       </c>
-      <c r="S46" t="s">
+      <c r="T46" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="E47" t="s">
         <v>307</v>
       </c>
-      <c r="S47" t="s">
+      <c r="T47" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="E48" t="s">
         <v>344</v>
       </c>
-      <c r="S48" t="s">
+      <c r="T48" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="E49" t="s">
         <v>373</v>
       </c>
-      <c r="S49" t="s">
+      <c r="T49" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="E50" t="s">
         <v>308</v>
       </c>
-      <c r="S50" t="s">
+      <c r="T50" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="51" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="E51" t="s">
         <v>361</v>
       </c>
-      <c r="S51" t="s">
+      <c r="T51" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="E52" t="s">
         <v>336</v>
       </c>
-      <c r="S52" t="s">
+      <c r="T52" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="E53" t="s">
         <v>273</v>
       </c>
-      <c r="S53" t="s">
+      <c r="T53" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="E54" t="s">
         <v>297</v>
       </c>
-      <c r="S54" t="s">
+      <c r="T54" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="E55" t="s">
         <v>298</v>
       </c>
-      <c r="S55" t="s">
+      <c r="T55" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="E56" t="s">
         <v>299</v>
       </c>
-      <c r="S56" t="s">
+      <c r="T56" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="E57" t="s">
         <v>309</v>
       </c>
-      <c r="S57" t="s">
+      <c r="T57" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="E58" t="s">
         <v>318</v>
       </c>
-      <c r="S58" t="s">
+      <c r="T58" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="59" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="E59" t="s">
         <v>342</v>
       </c>
-      <c r="S59" t="s">
+      <c r="T59" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="60" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="E60" t="s">
         <v>315</v>
       </c>
-      <c r="S60" t="s">
+      <c r="T60" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="E61" t="s">
         <v>316</v>
       </c>
-      <c r="S61" t="s">
+      <c r="T61" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="E62" t="s">
         <v>374</v>
       </c>
-      <c r="S62" t="s">
+      <c r="T62" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="E63" t="s">
         <v>375</v>
       </c>
-      <c r="S63" t="s">
+      <c r="T63" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="E64" t="s">
         <v>350</v>
       </c>
-      <c r="S64" t="s">
+      <c r="T64" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="65" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="E65" t="s">
         <v>319</v>
       </c>
-      <c r="S65" t="s">
+      <c r="T65" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="66" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="E66" t="s">
         <v>274</v>
       </c>
-      <c r="S66" t="s">
+      <c r="T66" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="67" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="E67" t="s">
         <v>358</v>
       </c>
-      <c r="S67" t="s">
+      <c r="T67" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="E68" t="s">
         <v>320</v>
       </c>
-      <c r="S68" t="s">
+      <c r="T68" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="E69" t="s">
         <v>415</v>
       </c>
-      <c r="S69" t="s">
+      <c r="T69" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="70" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="E70" t="s">
         <v>310</v>
       </c>
-      <c r="S70" t="s">
+      <c r="T70" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="71" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="E71" t="s">
         <v>416</v>
       </c>
-      <c r="S71" t="s">
+      <c r="T71" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="72" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="E72" t="s">
         <v>267</v>
       </c>
-      <c r="S72" t="s">
+      <c r="T72" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="73" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="E73" t="s">
         <v>349</v>
       </c>
-      <c r="S73" t="s">
+      <c r="T73" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="74" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="E74" t="s">
         <v>285</v>
       </c>
-      <c r="S74" t="s">
+      <c r="T74" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="75" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="E75" t="s">
         <v>291</v>
       </c>
-      <c r="S75" t="s">
+      <c r="T75" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="76" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="E76" t="s">
         <v>296</v>
       </c>
-      <c r="S76" t="s">
+      <c r="T76" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="77" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="E77" t="s">
         <v>337</v>
       </c>
-      <c r="S77" t="s">
+      <c r="T77" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="78" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="E78" t="s">
         <v>275</v>
       </c>
-      <c r="S78" t="s">
+      <c r="T78" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="E79" t="s">
         <v>286</v>
       </c>
-      <c r="S79" t="s">
+      <c r="T79" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="80" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="E80" t="s">
         <v>292</v>
       </c>
-      <c r="S80" t="s">
+      <c r="T80" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="81" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="E81" t="s">
         <v>281</v>
       </c>
-      <c r="S81" t="s">
+      <c r="T81" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="82" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="E82" t="s">
         <v>276</v>
       </c>
-      <c r="S82" t="s">
+      <c r="T82" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="83" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="E83" t="s">
         <v>293</v>
       </c>
-      <c r="S83" t="s">
+      <c r="T83" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="84" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="E84" t="s">
         <v>277</v>
       </c>
-      <c r="S84" t="s">
+      <c r="T84" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="85" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="E85" t="s">
         <v>278</v>
       </c>
-      <c r="S85" t="s">
+      <c r="T85" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="86" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="E86" t="s">
         <v>311</v>
       </c>
-      <c r="S86" t="s">
+      <c r="T86" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="87" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="E87" t="s">
         <v>317</v>
       </c>
-      <c r="S87" t="s">
+      <c r="T87" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="E88" t="s">
         <v>300</v>
       </c>
-      <c r="S88" t="s">
+      <c r="T88" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="89" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="E89" t="s">
         <v>345</v>
       </c>
-      <c r="S89" t="s">
+      <c r="T89" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="90" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="E90" t="s">
         <v>282</v>
       </c>
-      <c r="S90" t="s">
+      <c r="T90" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="E91" t="s">
         <v>283</v>
       </c>
-      <c r="S91" t="s">
+      <c r="T91" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="S92" t="s">
+    <row r="92">
+      <c r="T92" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="S93" t="s">
+    <row r="93">
+      <c r="T93" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="94" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="S94" t="s">
+    <row r="94">
+      <c r="T94" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="95" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="S95" t="s">
+    <row r="95">
+      <c r="T95" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="96" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="S96" t="s">
+    <row r="96">
+      <c r="T96" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="97" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S97" t="s">
+    <row r="97">
+      <c r="T97" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="98" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S98" t="s">
+    <row r="98">
+      <c r="T98" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="99" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S99" t="s">
+    <row r="99">
+      <c r="T99" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="100" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S100" t="s">
+    <row r="100">
+      <c r="T100" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="101" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S101" t="s">
+    <row r="101">
+      <c r="T101" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="102" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S102" t="s">
+    <row r="102">
+      <c r="T102" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="103" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S103" t="s">
+    <row r="103">
+      <c r="T103" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="104" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S104" t="s">
+    <row r="104">
+      <c r="T104" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S105" t="s">
+    <row r="105">
+      <c r="T105" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="106" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S106" t="s">
+    <row r="106">
+      <c r="T106" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="107" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S107" t="s">
+    <row r="107">
+      <c r="T107" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="108" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S108" t="s">
+    <row r="108">
+      <c r="T108" t="s">
         <v>116</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O998"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P998"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100" zoomScaleNormal="125" zoomScalePageLayoutView="125">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="30.6640625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.1640625" style="4" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.83203125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.83203125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="36.83203125" style="4" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="13.6640625" style="4" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="7" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="5" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="25.83203125" style="7" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="2" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="12" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="13.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="11.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="9.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="30.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="11.1640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="4" width="20.83203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="4" width="28.83203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="4" width="36.83203125" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" style="4" width="13.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="2" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="7" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="5" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="7" width="25.83203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="2" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="12" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -3586,7 +4911,7 @@
       <c r="N1" s="25"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="140" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>198</v>
       </c>
@@ -3606,7 +4931,7 @@
       <c r="N2" s="28"/>
       <c r="O2" s="29"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C3" s="5"/>
       <c r="D3" s="2"/>
       <c r="E3" s="7"/>
@@ -3616,7 +4941,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:15" s="13" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="20" r="4" s="13" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>226</v>
       </c>
@@ -3661,7 +4986,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>197</v>
       </c>
@@ -3684,8 +5009,12 @@
       <c r="H5" s="4" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+    </row>
+    <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6" s="6" t="s">
@@ -3706,72 +5035,76 @@
       <c r="H6" s="4" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+    </row>
+    <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="8" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="9" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="10" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="11" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="12" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="13" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="14" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="15" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="16" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="17" spans="2:2" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="18" spans="2:2" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="14"/>
     </row>
-    <row r="20" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="49" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="49" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="1:15" s="16" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="20" spans="2:2" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="21" spans="2:2" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="22" spans="2:2" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="23" spans="2:2" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="24" spans="2:2" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="25" spans="2:2" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="26" spans="2:2" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="27" spans="2:2" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="28" spans="2:2" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="29" spans="2:2" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="30" spans="2:2" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="31" spans="2:2" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="32" spans="2:2" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="33" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="34" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="35" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="36" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="38" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="39" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="40" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="41" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="42" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="43" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="44" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="49" r="45" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="49" r="46" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="47" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="48" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="49" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="50" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="51" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="52" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="53" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="54" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="55" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="56" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="57" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="58" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="59" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="60" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="61" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="62" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="63" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="64" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="65" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="66" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="67" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="68" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="69" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customFormat="1" customHeight="1" ht="48" r="70" s="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="6"/>
@@ -3788,936 +5121,936 @@
       <c r="N70" s="7"/>
       <c r="O70" s="2"/>
     </row>
-    <row r="71" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="71" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="72" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="73" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="74" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="75" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="76" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="77" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="78" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="79" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="80" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="81" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="82" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="83" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="84" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="85" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="86" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="87" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="88" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="89" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="90" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="91" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="92" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="93" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="94" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="95" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="96" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="97" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="98" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="99" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="100" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="101" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="102" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="103" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="104" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="105" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="106" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="107" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="108" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="109" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="110" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="111" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="112" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="113" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="114" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="115" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="116" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="117" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="118" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="119" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="120" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="121" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="122" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="123" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="124" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="125" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="126" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="127" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="128" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="129" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="130" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="131" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="132" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="133" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="134" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="135" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="136" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="137" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="138" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="139" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="140" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="141" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="142" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="143" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="144" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="145" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="146" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="147" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="148" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="149" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="150" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="151" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="152" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="153" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="154" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="155" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="156" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="157" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="158" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="159" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="160" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="161" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="162" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="163" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="164" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="165" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="166" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="167" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="168" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="169" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="170" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="171" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="172" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="173" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="174" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="175" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="176" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="177" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="178" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="179" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="180" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="181" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="182" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="183" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="184" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="185" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="186" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="187" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="188" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="189" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="190" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="191" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="192" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="193" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="194" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="195" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="196" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="197" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="198" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="199" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="200" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="201" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="202" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="203" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="204" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="205" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="206" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="207" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="208" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="209" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="210" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="211" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="212" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="213" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="214" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="215" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="216" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="217" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="218" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="219" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="220" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="221" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="222" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="223" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="224" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="225" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="226" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="227" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="228" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="229" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="230" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="231" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="232" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="233" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="234" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="235" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="236" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="237" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="238" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="239" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="240" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="241" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="242" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="243" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="244" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="245" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="246" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="247" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="248" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="249" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="250" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="251" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="252" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="253" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="254" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="255" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="256" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="257" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="258" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="259" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="260" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="261" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="262" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="263" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="264" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="265" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="266" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="267" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="268" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="269" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="270" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="271" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="272" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="273" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="274" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="275" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="276" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="277" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="278" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="279" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="280" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="281" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="282" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="283" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="284" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="285" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="286" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="287" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="288" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="289" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="290" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="291" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="292" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="293" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="294" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="295" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="296" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="297" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="298" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="299" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="300" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="301" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="302" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="303" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="304" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="305" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="306" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="307" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="308" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="309" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="310" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="311" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="312" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="313" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="314" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="315" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="316" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="317" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="318" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="319" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="320" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="321" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="322" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="323" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="324" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="325" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="326" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="327" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="328" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="329" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="330" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="331" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="332" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="333" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="334" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="335" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="336" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="337" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="338" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="339" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="340" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="341" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="342" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="343" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="344" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="345" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="346" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="347" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="348" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="349" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="350" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="351" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="352" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="353" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="354" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="355" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="356" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="357" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="358" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="359" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="360" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="361" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="362" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="363" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="364" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="365" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="366" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="367" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="368" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="369" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="370" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="371" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="372" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="373" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="374" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="375" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="376" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="377" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="378" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="379" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="380" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="381" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="382" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="383" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="384" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="385" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="386" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="387" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="388" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="389" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="390" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="391" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="392" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="393" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="394" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="395" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="396" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="397" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="398" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="399" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="400" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="401" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="402" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="403" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="404" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="405" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="406" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="407" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="408" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="409" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="410" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="411" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="412" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="413" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="414" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="415" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="416" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="417" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="418" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="419" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="420" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="421" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="422" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="423" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="424" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="425" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="426" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="427" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="428" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="429" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="430" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="431" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="432" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="433" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="434" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="435" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="436" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="437" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="438" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="439" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="440" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="441" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="442" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="443" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="444" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="445" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="446" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="447" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="448" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="449" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="450" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="451" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="452" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="453" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="454" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="455" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="456" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="457" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="458" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="459" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="460" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="461" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="462" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="463" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="464" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="465" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="466" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="467" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="468" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="469" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="470" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="471" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="472" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="473" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="474" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="475" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="476" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="477" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="478" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="479" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="480" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="481" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="482" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="483" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="484" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="485" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="486" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="487" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="488" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="489" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="490" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="491" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="492" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="493" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="494" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="495" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="496" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="497" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="498" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="499" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="500" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="501" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="502" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="503" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="504" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="505" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="506" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="507" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="508" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="509" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="510" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="511" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="512" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="513" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="514" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="515" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="516" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="517" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="518" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="519" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="520" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="521" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="522" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="523" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="524" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="525" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="526" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="527" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="528" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="529" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="530" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="531" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="532" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="533" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="534" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="535" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="536" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="537" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="538" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="539" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="540" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="541" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="542" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="543" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="544" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="545" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="546" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="547" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="548" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="549" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="550" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="551" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="552" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="553" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="554" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="555" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="556" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="557" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="558" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="559" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="560" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="561" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="562" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="563" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="564" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="565" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="566" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="567" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="568" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="569" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="570" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="571" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="572" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="573" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="574" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="575" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="576" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="577" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="578" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="579" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="580" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="581" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="582" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="583" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="584" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="585" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="586" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="587" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="588" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="589" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="590" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="591" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="592" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="593" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="594" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="595" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="596" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="597" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="598" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="599" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="600" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="601" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="602" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="603" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="604" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="605" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="606" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="607" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="608" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="609" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="610" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="611" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="612" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="613" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="614" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="615" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="616" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="617" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="618" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="619" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="620" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="621" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="622" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="623" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="624" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="625" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="626" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="627" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="628" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="629" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="630" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="631" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="632" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="633" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="634" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="635" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="636" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="637" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="638" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="639" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="640" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="641" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="642" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="643" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="644" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="645" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="646" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="647" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="648" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="649" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="650" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="651" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="652" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="653" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="654" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="655" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="656" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="657" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="658" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="659" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="660" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="661" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="662" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="663" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="664" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="665" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="666" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="667" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="668" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="669" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="670" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="671" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="672" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="673" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="674" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="675" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="676" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="677" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="678" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="679" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="680" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="681" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="682" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="683" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="684" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="685" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="686" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="687" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="688" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="689" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="690" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="691" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="692" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="693" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="694" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="695" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="696" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="697" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="698" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="699" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="700" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="701" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="702" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="703" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="704" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="705" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="706" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="707" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="708" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="709" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="710" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="711" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="712" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="713" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="714" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="715" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="716" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="717" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="718" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="719" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="720" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="721" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="722" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="723" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="724" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="725" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="726" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="727" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="728" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="729" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="730" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="731" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="732" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="733" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="734" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="735" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="736" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="737" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="738" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="739" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="740" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="741" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="742" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="743" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="744" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="745" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="746" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="747" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="748" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="749" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="750" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="751" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="752" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="753" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="754" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="755" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="756" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="757" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="758" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="759" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="760" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="761" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="762" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="763" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="764" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="765" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="766" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="767" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="768" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="769" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="770" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="771" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="772" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="773" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="774" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="775" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="776" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="777" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="778" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="779" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="780" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="781" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="782" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="783" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="784" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="785" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="786" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="787" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="788" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="789" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="790" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="791" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="792" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="793" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="794" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="795" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="796" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="797" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="798" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="799" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="800" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="801" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="802" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="803" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="804" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="805" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="806" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="807" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="808" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="809" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="810" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="811" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="812" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="813" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="814" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="815" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="816" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="817" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="818" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="819" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="820" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="821" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="822" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="823" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="824" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="825" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="826" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="827" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="828" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="829" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="830" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="831" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="832" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="833" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="834" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="835" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="836" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="837" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="838" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="839" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="840" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="841" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="842" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="843" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="844" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="845" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="846" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="847" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="848" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="849" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="850" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="851" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="852" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="853" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="854" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="855" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="856" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="857" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="858" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="859" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="860" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="861" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="862" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="863" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="864" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="865" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="866" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="867" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="868" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="869" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="870" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="871" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="872" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="873" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="874" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="875" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="876" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="877" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="878" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="879" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="880" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="881" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="882" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="883" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="884" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="885" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="886" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="887" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="888" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="889" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="890" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="891" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="892" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="893" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="894" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="895" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="896" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="897" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="898" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="899" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="900" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="901" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="902" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="903" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="904" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="905" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="906" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="907" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="908" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="909" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="910" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="911" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="912" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="913" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="914" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="915" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="916" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="917" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="918" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="919" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="920" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="921" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="922" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="923" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="924" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="925" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="926" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="927" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="928" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="929" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="930" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="931" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="932" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="933" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="934" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="935" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="936" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="937" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="938" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="939" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="940" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="941" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="942" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="943" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="944" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="945" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="946" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="947" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="948" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="949" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="950" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="951" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="952" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="953" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="954" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="955" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="956" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="957" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="958" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="959" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="960" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="961" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="962" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="963" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="964" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="965" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="966" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="967" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="968" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="969" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="970" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="971" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="972" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="973" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="974" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="975" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="976" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="977" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="978" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="979" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="980" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="981" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="982" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="983" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="984" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="985" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="986" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="987" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="988" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="989" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="990" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="991" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="992" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="993" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="994" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="995" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="996" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="997" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="998" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection deleteColumns="0" deleteRows="0" formatColumns="0" formatRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -4725,57 +6058,57 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="5" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="5" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="7" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="4" operator="beginsWith" priority="7" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="3" operator="beginsWith" priority="9" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D696" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D696" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C698" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C698" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB0C0FE-B3C7-4645-88A3-C358B406D8F6}">
-  <dimension ref="A1:O998"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB0C0FE-B3C7-4645-88A3-C358B406D8F6}">
+  <dimension ref="A1:P998"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="125" zoomScalePageLayoutView="125">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="30.6640625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.1640625" style="4" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.5" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="36.83203125" style="4" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="13.6640625" style="4" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="7" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="5" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="25.83203125" style="7" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="2" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="12" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="13.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="11.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="9.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="30.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="11.1640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="4" width="22.5" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="4" width="15.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="4" width="36.83203125" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" style="4" width="13.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="2" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="7" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="5" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="7" width="25.83203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="2" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="12" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -4805,7 +6138,7 @@
       <c r="N1" s="25"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="140" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>425</v>
       </c>
@@ -4825,7 +6158,7 @@
       <c r="N2" s="28"/>
       <c r="O2" s="29"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C3" s="5"/>
       <c r="D3" s="2"/>
       <c r="E3" s="7"/>
@@ -4835,7 +6168,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:15" s="13" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="20" r="4" s="13" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>226</v>
       </c>
@@ -4880,7 +6213,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>424</v>
       </c>
@@ -4903,77 +6236,81 @@
       <c r="H5" s="4" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+    </row>
+    <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6"/>
       <c r="B6"/>
       <c r="E6" s="12"/>
     </row>
-    <row r="7" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="8" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="9" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="10" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="11" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="12" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="13" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="14" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="15" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="16" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="17" spans="2:2" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="18" spans="2:2" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="14"/>
     </row>
-    <row r="20" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="49" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="49" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="1:15" s="16" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="20" spans="2:2" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="21" spans="2:2" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="22" spans="2:2" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="23" spans="2:2" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="24" spans="2:2" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="25" spans="2:2" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="26" spans="2:2" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="27" spans="2:2" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="28" spans="2:2" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="29" spans="2:2" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="30" spans="2:2" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="31" spans="2:2" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="32" spans="2:2" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="33" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="34" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="35" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="36" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="38" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="39" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="40" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="41" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="42" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="43" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="44" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="49" r="45" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="49" r="46" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="47" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="48" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="49" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="50" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="51" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="52" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="53" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="54" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="55" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="56" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="57" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="58" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="59" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="60" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="61" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="62" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="63" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="64" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="65" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="66" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="67" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="68" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="69" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customFormat="1" customHeight="1" ht="48" r="70" s="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="6"/>
@@ -4990,936 +6327,936 @@
       <c r="N70" s="7"/>
       <c r="O70" s="2"/>
     </row>
-    <row r="71" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="71" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="72" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="73" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="74" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="75" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="76" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="77" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="78" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="79" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="80" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="81" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="82" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="83" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="84" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="85" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="86" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="87" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="88" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="89" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="90" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="91" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="92" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="93" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="94" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="95" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="96" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="97" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="98" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="99" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="100" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="101" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="102" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="103" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="104" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="105" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="106" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="107" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="108" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="109" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="110" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="111" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="112" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="113" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="114" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="115" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="116" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="117" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="118" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="119" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="120" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="121" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="122" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="123" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="124" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="125" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="126" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="127" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="128" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="129" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="130" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="131" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="132" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="133" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="134" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="135" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="136" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="137" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="138" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="139" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="140" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="141" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="142" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="143" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="144" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="145" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="146" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="147" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="148" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="149" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="150" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="151" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="152" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="153" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="154" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="155" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="156" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="157" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="158" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="159" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="160" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="161" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="162" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="163" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="164" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="165" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="166" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="167" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="168" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="169" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="170" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="171" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="172" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="173" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="174" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="175" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="176" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="177" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="178" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="179" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="180" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="181" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="182" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="183" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="184" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="185" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="186" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="187" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="188" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="189" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="190" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="191" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="192" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="193" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="194" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="195" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="196" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="197" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="198" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="199" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="200" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="201" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="202" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="203" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="204" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="205" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="206" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="207" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="208" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="209" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="210" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="211" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="212" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="213" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="214" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="215" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="216" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="217" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="218" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="219" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="220" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="221" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="222" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="223" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="224" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="225" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="226" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="227" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="228" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="229" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="230" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="231" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="232" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="233" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="234" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="235" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="236" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="237" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="238" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="239" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="240" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="241" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="242" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="243" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="244" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="245" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="246" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="247" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="248" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="249" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="250" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="251" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="252" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="253" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="254" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="255" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="256" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="257" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="258" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="259" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="260" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="261" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="262" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="263" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="264" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="265" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="266" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="267" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="268" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="269" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="270" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="271" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="272" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="273" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="274" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="275" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="276" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="277" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="278" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="279" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="280" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="281" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="282" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="283" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="284" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="285" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="286" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="287" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="288" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="289" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="290" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="291" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="292" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="293" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="294" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="295" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="296" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="297" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="298" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="299" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="300" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="301" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="302" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="303" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="304" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="305" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="306" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="307" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="308" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="309" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="310" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="311" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="312" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="313" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="314" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="315" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="316" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="317" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="318" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="319" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="320" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="321" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="322" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="323" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="324" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="325" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="326" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="327" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="328" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="329" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="330" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="331" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="332" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="333" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="334" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="335" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="336" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="337" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="338" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="339" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="340" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="341" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="342" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="343" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="344" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="345" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="346" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="347" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="348" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="349" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="350" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="351" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="352" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="353" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="354" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="355" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="356" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="357" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="358" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="359" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="360" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="361" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="362" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="363" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="364" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="365" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="366" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="367" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="368" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="369" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="370" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="371" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="372" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="373" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="374" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="375" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="376" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="377" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="378" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="379" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="380" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="381" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="382" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="383" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="384" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="385" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="386" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="387" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="388" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="389" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="390" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="391" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="392" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="393" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="394" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="395" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="396" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="397" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="398" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="399" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="400" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="401" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="402" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="403" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="404" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="405" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="406" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="407" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="408" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="409" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="410" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="411" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="412" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="413" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="414" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="415" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="416" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="417" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="418" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="419" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="420" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="421" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="422" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="423" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="424" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="425" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="426" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="427" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="428" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="429" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="430" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="431" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="432" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="433" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="434" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="435" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="436" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="437" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="438" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="439" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="440" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="441" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="442" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="443" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="444" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="445" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="446" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="447" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="448" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="449" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="450" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="451" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="452" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="453" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="454" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="455" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="456" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="457" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="458" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="459" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="460" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="461" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="462" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="463" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="464" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="465" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="466" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="467" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="468" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="469" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="470" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="471" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="472" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="473" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="474" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="475" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="476" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="477" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="478" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="479" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="480" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="481" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="482" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="483" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="484" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="485" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="486" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="487" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="488" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="489" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="490" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="491" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="492" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="493" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="494" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="495" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="496" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="497" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="498" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="499" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="500" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="501" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="502" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="503" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="504" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="505" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="506" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="507" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="508" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="509" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="510" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="511" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="512" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="513" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="514" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="515" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="516" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="517" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="518" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="519" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="520" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="521" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="522" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="523" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="524" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="525" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="526" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="527" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="528" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="529" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="530" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="531" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="532" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="533" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="534" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="535" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="536" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="537" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="538" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="539" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="540" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="541" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="542" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="543" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="544" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="545" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="546" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="547" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="548" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="549" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="550" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="551" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="552" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="553" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="554" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="555" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="556" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="557" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="558" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="559" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="560" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="561" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="562" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="563" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="564" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="565" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="566" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="567" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="568" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="569" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="570" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="571" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="572" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="573" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="574" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="575" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="576" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="577" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="578" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="579" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="580" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="581" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="582" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="583" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="584" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="585" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="586" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="587" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="588" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="589" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="590" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="591" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="592" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="593" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="594" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="595" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="596" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="597" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="598" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="599" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="600" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="601" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="602" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="603" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="604" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="605" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="606" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="607" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="608" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="609" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="610" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="611" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="612" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="613" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="614" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="615" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="616" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="617" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="618" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="619" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="620" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="621" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="622" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="623" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="624" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="625" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="626" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="627" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="628" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="629" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="630" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="631" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="632" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="633" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="634" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="635" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="636" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="637" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="638" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="639" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="640" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="641" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="642" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="643" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="644" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="645" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="646" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="647" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="648" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="649" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="650" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="651" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="652" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="653" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="654" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="655" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="656" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="657" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="658" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="659" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="660" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="661" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="662" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="663" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="664" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="665" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="666" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="667" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="668" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="669" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="670" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="671" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="672" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="673" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="674" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="675" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="676" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="677" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="678" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="679" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="680" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="681" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="682" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="683" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="684" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="685" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="686" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="687" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="688" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="689" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="690" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="691" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="692" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="693" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="694" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="695" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="696" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="697" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="698" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="699" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="700" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="701" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="702" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="703" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="704" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="705" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="706" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="707" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="708" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="709" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="710" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="711" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="712" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="713" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="714" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="715" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="716" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="717" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="718" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="719" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="720" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="721" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="722" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="723" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="724" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="725" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="726" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="727" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="728" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="729" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="730" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="731" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="732" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="733" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="734" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="735" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="736" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="737" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="738" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="739" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="740" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="741" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="742" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="743" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="744" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="745" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="746" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="747" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="748" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="749" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="750" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="751" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="752" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="753" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="754" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="755" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="756" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="757" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="758" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="759" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="760" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="761" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="762" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="763" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="764" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="765" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="766" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="767" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="768" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="769" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="770" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="771" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="772" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="773" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="774" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="775" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="776" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="777" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="778" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="779" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="780" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="781" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="782" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="783" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="784" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="785" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="786" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="787" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="788" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="789" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="790" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="791" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="792" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="793" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="794" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="795" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="796" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="797" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="798" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="799" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="800" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="801" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="802" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="803" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="804" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="805" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="806" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="807" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="808" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="809" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="810" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="811" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="812" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="813" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="814" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="815" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="816" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="817" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="818" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="819" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="820" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="821" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="822" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="823" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="824" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="825" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="826" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="827" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="828" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="829" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="830" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="831" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="832" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="833" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="834" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="835" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="836" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="837" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="838" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="839" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="840" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="841" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="842" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="843" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="844" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="845" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="846" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="847" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="848" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="849" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="850" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="851" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="852" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="853" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="854" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="855" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="856" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="857" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="858" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="859" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="860" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="861" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="862" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="863" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="864" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="865" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="866" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="867" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="868" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="869" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="870" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="871" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="872" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="873" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="874" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="875" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="876" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="877" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="878" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="879" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="880" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="881" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="882" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="883" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="884" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="885" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="886" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="887" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="888" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="889" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="890" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="891" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="892" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="893" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="894" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="895" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="896" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="897" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="898" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="899" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="900" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="901" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="902" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="903" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="904" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="905" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="906" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="907" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="908" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="909" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="910" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="911" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="912" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="913" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="914" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="915" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="916" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="917" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="918" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="919" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="920" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="921" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="922" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="923" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="924" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="925" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="926" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="927" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="928" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="929" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="930" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="931" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="932" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="933" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="934" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="935" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="936" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="937" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="938" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="939" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="940" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="941" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="942" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="943" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="944" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="945" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="946" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="947" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="948" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="949" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="950" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="951" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="952" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="953" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="954" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="955" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="956" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="957" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="958" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="959" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="960" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="961" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="962" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="963" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="964" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="965" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="966" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="967" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="968" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="969" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="970" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="971" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="972" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="973" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="974" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="975" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="976" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="977" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="978" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="979" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="980" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="981" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="982" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="983" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="984" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="985" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="986" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="987" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="988" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="989" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="990" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="991" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="992" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="993" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="994" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="995" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="996" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="997" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="998" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection deleteColumns="0" deleteRows="0" formatColumns="0" formatRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -5927,25 +7264,25 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C698" xr:uid="{34922535-5C9A-7043-94A6-6088BF6225AD}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C698" type="list" xr:uid="{34922535-5C9A-7043-94A6-6088BF6225AD}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D696" xr:uid="{EB7BB921-5E35-2447-AA38-FE908A62B300}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D696" type="list" xr:uid="{EB7BB921-5E35-2447-AA38-FE908A62B300}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$32</definedName>
+    <definedName name="base">'#system'!$C$2:$C$33</definedName>
     <definedName name="csv">'#system'!$D$2:$D$4</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -46,7 +46,7 @@
     <definedName name="webcookie">'#system'!$V$2:$V$8</definedName>
     <definedName name="ws">'#system'!$W$2:$W$16</definedName>
     <definedName name="xml">'#system'!$X$2:$X$11</definedName>
-    <definedName name="sound">'#system'!$Q$2:$Q$6</definedName>
+    <definedName name="sound">'#system'!$Q$2:$Q$5</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2201" uniqueCount="438">
   <si>
     <t>description</t>
   </si>
@@ -1369,6 +1369,12 @@
   </si>
   <si>
     <t>speakNoWait(text)</t>
+  </si>
+  <si>
+    <t>section(steps)</t>
+  </si>
+  <si>
+    <t>laser(repeats)</t>
   </si>
 </sst>
 </file>
@@ -1376,7 +1382,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="47" x14ac:knownFonts="1">
+  <fonts count="62" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1681,8 +1687,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="67">
+  <fills count="94">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2058,8 +2158,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="69">
+  <borders count="97">
     <border>
       <left/>
       <right/>
@@ -2741,6 +2994,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2754,7 +3289,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="81">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2941,40 +3476,85 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="48" borderId="56" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="56" fillId="48" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="51" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="51" fontId="37" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="54" borderId="60" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="60" fillId="54" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="57" borderId="64" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="64" fillId="57" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="60" borderId="68" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="68" fillId="60" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="60" borderId="68" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="68" fillId="60" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="66" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="66" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="45" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="69" borderId="76" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="72" borderId="80" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="75" borderId="84" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="78" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="81" borderId="88" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="84" borderId="92" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="87" borderId="96" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="87" borderId="96" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="90" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="93" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="90" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3470,7 +4050,7 @@
         <v>406</v>
       </c>
       <c r="Q2" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="R2" t="s">
         <v>386</v>
@@ -3726,9 +4306,6 @@
       <c r="P6" t="s">
         <v>410</v>
       </c>
-      <c r="Q6" t="s">
-        <v>433</v>
-      </c>
       <c r="R6" t="s">
         <v>366</v>
       </c>
@@ -4206,7 +4783,7 @@
     </row>
     <row r="25">
       <c r="C25" t="s">
-        <v>159</v>
+        <v>436</v>
       </c>
       <c r="E25" t="s">
         <v>156</v>
@@ -4217,7 +4794,7 @@
     </row>
     <row r="26">
       <c r="C26" t="s">
-        <v>37</v>
+        <v>159</v>
       </c>
       <c r="E26" t="s">
         <v>287</v>
@@ -4228,7 +4805,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E27" t="s">
         <v>271</v>
@@ -4239,7 +4816,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>160</v>
+        <v>38</v>
       </c>
       <c r="E28" t="s">
         <v>288</v>
@@ -4250,7 +4827,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E29" t="s">
         <v>289</v>
@@ -4261,7 +4838,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E30" t="s">
         <v>221</v>
@@ -4272,7 +4849,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="E31" t="s">
         <v>280</v>
@@ -4283,7 +4860,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>155</v>
+        <v>39</v>
       </c>
       <c r="E32" t="s">
         <v>290</v>
@@ -4293,6 +4870,9 @@
       </c>
     </row>
     <row r="33">
+      <c r="C33" t="s">
+        <v>155</v>
+      </c>
       <c r="E33" t="s">
         <v>265</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
@@ -38,15 +38,17 @@
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
     <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
     <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="ssh">'#system'!$R$2:$R$9</definedName>
-    <definedName name="step">'#system'!$S$2:$S$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$24</definedName>
-    <definedName name="web">'#system'!$T$2:$T$108</definedName>
-    <definedName name="webalert">'#system'!$U$2:$U$6</definedName>
-    <definedName name="webcookie">'#system'!$V$2:$V$8</definedName>
-    <definedName name="ws">'#system'!$W$2:$W$16</definedName>
-    <definedName name="xml">'#system'!$X$2:$X$11</definedName>
-    <definedName name="sound">'#system'!$Q$2:$Q$5</definedName>
+    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
+    <definedName name="step">'#system'!$T$2:$T$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$26</definedName>
+    <definedName name="web">'#system'!$U$2:$U$108</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
+    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
+    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
+    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
+    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
+    <definedName name="ws.async">'#system'!$Y$2:$Y$7</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -61,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2201" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3073" uniqueCount="446">
   <si>
     <t>description</t>
   </si>
@@ -1375,6 +1377,30 @@
   </si>
   <si>
     <t>laser(repeats)</t>
+  </si>
+  <si>
+    <t>sms</t>
+  </si>
+  <si>
+    <t>sendText(phones,text)</t>
+  </si>
+  <si>
+    <t>ws.async</t>
+  </si>
+  <si>
+    <t>get(url,queryString,output)</t>
+  </si>
+  <si>
+    <t>head(url,output)</t>
+  </si>
+  <si>
+    <t>patch(url,body,output)</t>
+  </si>
+  <si>
+    <t>post(url,body,output)</t>
+  </si>
+  <si>
+    <t>put(url,body,output)</t>
   </si>
 </sst>
 </file>
@@ -1382,7 +1408,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="62" x14ac:knownFonts="1">
+  <fonts count="92" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1781,8 +1807,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="94">
+  <fills count="148">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2311,8 +2525,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="97">
+  <borders count="153">
     <border>
       <left/>
       <right/>
@@ -2860,6 +3380,570 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -3289,7 +4373,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="111">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3512,49 +4596,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="69" borderId="76" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="76" fillId="69" fontId="47" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="72" borderId="80" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="80" fillId="72" fontId="49" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="75" borderId="84" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="84" fillId="75" fontId="50" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="78" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="78" fontId="52" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="81" borderId="88" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="88" fillId="81" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="84" borderId="92" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="92" fillId="84" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="87" borderId="96" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="96" fillId="87" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="87" borderId="96" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="96" fillId="87" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="90" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="90" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="93" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="93" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="90" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="90" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="61" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="104" fillId="96" fontId="62" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="63" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="108" fillId="99" fontId="64" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="112" fillId="102" fontId="65" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="105" fontId="67" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="68" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="116" fillId="108" fontId="69" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="120" fillId="111" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="124" fillId="114" fontId="71" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="124" fillId="114" fontId="72" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="117" fontId="73" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="120" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="117" fontId="75" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="76" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="123" borderId="132" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="126" borderId="136" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="129" borderId="140" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="132" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="135" borderId="144" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="138" borderId="148" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="141" borderId="152" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="141" borderId="152" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="144" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="147" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="144" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3915,7 +5089,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y108"/>
+  <dimension ref="A1:AA108"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -3976,27 +5150,33 @@
         <v>405</v>
       </c>
       <c r="Q1" t="s">
+        <v>438</v>
+      </c>
+      <c r="R1" t="s">
         <v>428</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>362</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>401</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>29</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>30</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>31</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>131</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
+        <v>440</v>
+      </c>
+      <c r="Z1" t="s">
         <v>232</v>
       </c>
     </row>
@@ -4050,27 +5230,33 @@
         <v>406</v>
       </c>
       <c r="Q2" t="s">
+        <v>439</v>
+      </c>
+      <c r="R2" t="s">
         <v>437</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>386</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>402</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>40</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>117</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>122</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>132</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z2" t="s">
         <v>233</v>
       </c>
     </row>
@@ -4120,28 +5306,31 @@
       <c r="P3" t="s">
         <v>407</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>431</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>387</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>403</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>41</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>118</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>123</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>369</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
+        <v>441</v>
+      </c>
+      <c r="Z3" t="s">
         <v>234</v>
       </c>
     </row>
@@ -4188,28 +5377,31 @@
       <c r="P4" t="s">
         <v>408</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>434</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>363</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>404</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>359</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>119</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>124</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>133</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
+        <v>442</v>
+      </c>
+      <c r="Z4" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4250,25 +5442,28 @@
       <c r="P5" t="s">
         <v>409</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>435</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>364</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>360</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>120</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>125</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>134</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
+        <v>443</v>
+      </c>
+      <c r="Z5" t="s">
         <v>236</v>
       </c>
     </row>
@@ -4306,22 +5501,25 @@
       <c r="P6" t="s">
         <v>410</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>366</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>42</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>121</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>126</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>135</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
+        <v>444</v>
+      </c>
+      <c r="Z6" t="s">
         <v>237</v>
       </c>
     </row>
@@ -4359,19 +5557,22 @@
       <c r="P7" t="s">
         <v>411</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>365</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>43</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>130</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>136</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
+        <v>445</v>
+      </c>
+      <c r="Z7" t="s">
         <v>238</v>
       </c>
     </row>
@@ -4406,19 +5607,19 @@
       <c r="P8" t="s">
         <v>412</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>367</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>44</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>127</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>137</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Z8" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4450,16 +5651,16 @@
       <c r="P9" t="s">
         <v>413</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>368</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>214</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>182</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Z9" t="s">
         <v>240</v>
       </c>
     </row>
@@ -4488,13 +5689,13 @@
       <c r="P10" t="s">
         <v>414</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>262</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>183</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Z10" t="s">
         <v>241</v>
       </c>
     </row>
@@ -4520,13 +5721,13 @@
       <c r="N11" t="s">
         <v>253</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>263</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>264</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Z11" t="s">
         <v>242</v>
       </c>
     </row>
@@ -4549,10 +5750,10 @@
       <c r="N12" t="s">
         <v>254</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>45</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4575,10 +5776,10 @@
       <c r="N13" t="s">
         <v>259</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>331</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>139</v>
       </c>
     </row>
@@ -4601,10 +5802,10 @@
       <c r="N14" t="s">
         <v>255</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>46</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>140</v>
       </c>
     </row>
@@ -4624,10 +5825,10 @@
       <c r="N15" t="s">
         <v>256</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>47</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4647,16 +5848,16 @@
       <c r="N16" t="s">
         <v>257</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>48</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="C17" t="s">
         <v>34</v>
@@ -4667,13 +5868,13 @@
       <c r="I17" t="s">
         <v>151</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>362</v>
+        <v>428</v>
       </c>
       <c r="C18" t="s">
         <v>35</v>
@@ -4684,13 +5885,13 @@
       <c r="I18" t="s">
         <v>397</v>
       </c>
-      <c r="T18" t="s">
+      <c r="U18" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="C19" t="s">
         <v>261</v>
@@ -4701,13 +5902,13 @@
       <c r="I19" t="s">
         <v>152</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>401</v>
       </c>
       <c r="C20" t="s">
         <v>36</v>
@@ -4718,13 +5919,13 @@
       <c r="I20" t="s">
         <v>153</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
         <v>326</v>
@@ -4735,13 +5936,13 @@
       <c r="I21" t="s">
         <v>154</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
         <v>129</v>
@@ -4749,13 +5950,13 @@
       <c r="E22" t="s">
         <v>304</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
         <v>230</v>
@@ -4763,13 +5964,13 @@
       <c r="E23" t="s">
         <v>295</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>232</v>
+        <v>131</v>
       </c>
       <c r="C24" t="s">
         <v>231</v>
@@ -4777,29 +5978,35 @@
       <c r="E24" t="s">
         <v>284</v>
       </c>
-      <c r="T24" t="s">
+      <c r="U24" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="s">
+        <v>440</v>
+      </c>
       <c r="C25" t="s">
         <v>436</v>
       </c>
       <c r="E25" t="s">
         <v>156</v>
       </c>
-      <c r="T25" t="s">
+      <c r="U25" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="s">
+        <v>232</v>
+      </c>
       <c r="C26" t="s">
         <v>159</v>
       </c>
       <c r="E26" t="s">
         <v>287</v>
       </c>
-      <c r="T26" t="s">
+      <c r="U26" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4810,7 +6017,7 @@
       <c r="E27" t="s">
         <v>271</v>
       </c>
-      <c r="T27" t="s">
+      <c r="U27" t="s">
         <v>332</v>
       </c>
     </row>
@@ -4821,7 +6028,7 @@
       <c r="E28" t="s">
         <v>288</v>
       </c>
-      <c r="T28" t="s">
+      <c r="U28" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4832,7 +6039,7 @@
       <c r="E29" t="s">
         <v>289</v>
       </c>
-      <c r="T29" t="s">
+      <c r="U29" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4843,7 +6050,7 @@
       <c r="E30" t="s">
         <v>221</v>
       </c>
-      <c r="T30" t="s">
+      <c r="U30" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4854,7 +6061,7 @@
       <c r="E31" t="s">
         <v>280</v>
       </c>
-      <c r="T31" t="s">
+      <c r="U31" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4865,7 +6072,7 @@
       <c r="E32" t="s">
         <v>290</v>
       </c>
-      <c r="T32" t="s">
+      <c r="U32" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4876,7 +6083,7 @@
       <c r="E33" t="s">
         <v>265</v>
       </c>
-      <c r="T33" t="s">
+      <c r="U33" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4884,7 +6091,7 @@
       <c r="E34" t="s">
         <v>335</v>
       </c>
-      <c r="T34" t="s">
+      <c r="U34" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4892,7 +6099,7 @@
       <c r="E35" t="s">
         <v>313</v>
       </c>
-      <c r="T35" t="s">
+      <c r="U35" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4900,7 +6107,7 @@
       <c r="E36" t="s">
         <v>266</v>
       </c>
-      <c r="T36" t="s">
+      <c r="U36" t="s">
         <v>343</v>
       </c>
     </row>
@@ -4908,7 +6115,7 @@
       <c r="E37" t="s">
         <v>314</v>
       </c>
-      <c r="T37" t="s">
+      <c r="U37" t="s">
         <v>398</v>
       </c>
     </row>
@@ -4916,7 +6123,7 @@
       <c r="E38" t="s">
         <v>272</v>
       </c>
-      <c r="T38" t="s">
+      <c r="U38" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4924,7 +6131,7 @@
       <c r="E39" t="s">
         <v>158</v>
       </c>
-      <c r="T39" t="s">
+      <c r="U39" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4932,7 +6139,7 @@
       <c r="E40" t="s">
         <v>217</v>
       </c>
-      <c r="T40" t="s">
+      <c r="U40" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4940,7 +6147,7 @@
       <c r="E41" t="s">
         <v>294</v>
       </c>
-      <c r="T41" t="s">
+      <c r="U41" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4948,7 +6155,7 @@
       <c r="E42" t="s">
         <v>305</v>
       </c>
-      <c r="T42" t="s">
+      <c r="U42" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4956,7 +6163,7 @@
       <c r="E43" t="s">
         <v>306</v>
       </c>
-      <c r="T43" t="s">
+      <c r="U43" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4964,7 +6171,7 @@
       <c r="E44" t="s">
         <v>348</v>
       </c>
-      <c r="T44" t="s">
+      <c r="U44" t="s">
         <v>218</v>
       </c>
     </row>
@@ -4972,7 +6179,7 @@
       <c r="E45" t="s">
         <v>347</v>
       </c>
-      <c r="T45" t="s">
+      <c r="U45" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4980,7 +6187,7 @@
       <c r="E46" t="s">
         <v>216</v>
       </c>
-      <c r="T46" t="s">
+      <c r="U46" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4988,7 +6195,7 @@
       <c r="E47" t="s">
         <v>307</v>
       </c>
-      <c r="T47" t="s">
+      <c r="U47" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4996,7 +6203,7 @@
       <c r="E48" t="s">
         <v>344</v>
       </c>
-      <c r="T48" t="s">
+      <c r="U48" t="s">
         <v>75</v>
       </c>
     </row>
@@ -5004,7 +6211,7 @@
       <c r="E49" t="s">
         <v>373</v>
       </c>
-      <c r="T49" t="s">
+      <c r="U49" t="s">
         <v>76</v>
       </c>
     </row>
@@ -5012,7 +6219,7 @@
       <c r="E50" t="s">
         <v>308</v>
       </c>
-      <c r="T50" t="s">
+      <c r="U50" t="s">
         <v>351</v>
       </c>
     </row>
@@ -5020,7 +6227,7 @@
       <c r="E51" t="s">
         <v>361</v>
       </c>
-      <c r="T51" t="s">
+      <c r="U51" t="s">
         <v>77</v>
       </c>
     </row>
@@ -5028,7 +6235,7 @@
       <c r="E52" t="s">
         <v>336</v>
       </c>
-      <c r="T52" t="s">
+      <c r="U52" t="s">
         <v>78</v>
       </c>
     </row>
@@ -5036,7 +6243,7 @@
       <c r="E53" t="s">
         <v>273</v>
       </c>
-      <c r="T53" t="s">
+      <c r="U53" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5044,7 +6251,7 @@
       <c r="E54" t="s">
         <v>297</v>
       </c>
-      <c r="T54" t="s">
+      <c r="U54" t="s">
         <v>80</v>
       </c>
     </row>
@@ -5052,7 +6259,7 @@
       <c r="E55" t="s">
         <v>298</v>
       </c>
-      <c r="T55" t="s">
+      <c r="U55" t="s">
         <v>81</v>
       </c>
     </row>
@@ -5060,7 +6267,7 @@
       <c r="E56" t="s">
         <v>299</v>
       </c>
-      <c r="T56" t="s">
+      <c r="U56" t="s">
         <v>82</v>
       </c>
     </row>
@@ -5068,7 +6275,7 @@
       <c r="E57" t="s">
         <v>309</v>
       </c>
-      <c r="T57" t="s">
+      <c r="U57" t="s">
         <v>83</v>
       </c>
     </row>
@@ -5076,7 +6283,7 @@
       <c r="E58" t="s">
         <v>318</v>
       </c>
-      <c r="T58" t="s">
+      <c r="U58" t="s">
         <v>219</v>
       </c>
     </row>
@@ -5084,7 +6291,7 @@
       <c r="E59" t="s">
         <v>342</v>
       </c>
-      <c r="T59" t="s">
+      <c r="U59" t="s">
         <v>394</v>
       </c>
     </row>
@@ -5092,7 +6299,7 @@
       <c r="E60" t="s">
         <v>315</v>
       </c>
-      <c r="T60" t="s">
+      <c r="U60" t="s">
         <v>84</v>
       </c>
     </row>
@@ -5100,7 +6307,7 @@
       <c r="E61" t="s">
         <v>316</v>
       </c>
-      <c r="T61" t="s">
+      <c r="U61" t="s">
         <v>85</v>
       </c>
     </row>
@@ -5108,7 +6315,7 @@
       <c r="E62" t="s">
         <v>374</v>
       </c>
-      <c r="T62" t="s">
+      <c r="U62" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5116,7 +6323,7 @@
       <c r="E63" t="s">
         <v>375</v>
       </c>
-      <c r="T63" t="s">
+      <c r="U63" t="s">
         <v>87</v>
       </c>
     </row>
@@ -5124,7 +6331,7 @@
       <c r="E64" t="s">
         <v>350</v>
       </c>
-      <c r="T64" t="s">
+      <c r="U64" t="s">
         <v>202</v>
       </c>
     </row>
@@ -5132,7 +6339,7 @@
       <c r="E65" t="s">
         <v>319</v>
       </c>
-      <c r="T65" t="s">
+      <c r="U65" t="s">
         <v>203</v>
       </c>
     </row>
@@ -5140,7 +6347,7 @@
       <c r="E66" t="s">
         <v>274</v>
       </c>
-      <c r="T66" t="s">
+      <c r="U66" t="s">
         <v>88</v>
       </c>
     </row>
@@ -5148,7 +6355,7 @@
       <c r="E67" t="s">
         <v>358</v>
       </c>
-      <c r="T67" t="s">
+      <c r="U67" t="s">
         <v>89</v>
       </c>
     </row>
@@ -5156,7 +6363,7 @@
       <c r="E68" t="s">
         <v>320</v>
       </c>
-      <c r="T68" t="s">
+      <c r="U68" t="s">
         <v>90</v>
       </c>
     </row>
@@ -5164,7 +6371,7 @@
       <c r="E69" t="s">
         <v>415</v>
       </c>
-      <c r="T69" t="s">
+      <c r="U69" t="s">
         <v>91</v>
       </c>
     </row>
@@ -5172,7 +6379,7 @@
       <c r="E70" t="s">
         <v>310</v>
       </c>
-      <c r="T70" t="s">
+      <c r="U70" t="s">
         <v>92</v>
       </c>
     </row>
@@ -5180,7 +6387,7 @@
       <c r="E71" t="s">
         <v>416</v>
       </c>
-      <c r="T71" t="s">
+      <c r="U71" t="s">
         <v>204</v>
       </c>
     </row>
@@ -5188,7 +6395,7 @@
       <c r="E72" t="s">
         <v>267</v>
       </c>
-      <c r="T72" t="s">
+      <c r="U72" t="s">
         <v>205</v>
       </c>
     </row>
@@ -5196,7 +6403,7 @@
       <c r="E73" t="s">
         <v>349</v>
       </c>
-      <c r="T73" t="s">
+      <c r="U73" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5204,7 +6411,7 @@
       <c r="E74" t="s">
         <v>285</v>
       </c>
-      <c r="T74" t="s">
+      <c r="U74" t="s">
         <v>207</v>
       </c>
     </row>
@@ -5212,7 +6419,7 @@
       <c r="E75" t="s">
         <v>291</v>
       </c>
-      <c r="T75" t="s">
+      <c r="U75" t="s">
         <v>220</v>
       </c>
     </row>
@@ -5220,7 +6427,7 @@
       <c r="E76" t="s">
         <v>296</v>
       </c>
-      <c r="T76" t="s">
+      <c r="U76" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5228,7 +6435,7 @@
       <c r="E77" t="s">
         <v>337</v>
       </c>
-      <c r="T77" t="s">
+      <c r="U77" t="s">
         <v>208</v>
       </c>
     </row>
@@ -5236,7 +6443,7 @@
       <c r="E78" t="s">
         <v>275</v>
       </c>
-      <c r="T78" t="s">
+      <c r="U78" t="s">
         <v>94</v>
       </c>
     </row>
@@ -5244,7 +6451,7 @@
       <c r="E79" t="s">
         <v>286</v>
       </c>
-      <c r="T79" t="s">
+      <c r="U79" t="s">
         <v>209</v>
       </c>
     </row>
@@ -5252,7 +6459,7 @@
       <c r="E80" t="s">
         <v>292</v>
       </c>
-      <c r="T80" t="s">
+      <c r="U80" t="s">
         <v>210</v>
       </c>
     </row>
@@ -5260,7 +6467,7 @@
       <c r="E81" t="s">
         <v>281</v>
       </c>
-      <c r="T81" t="s">
+      <c r="U81" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5268,7 +6475,7 @@
       <c r="E82" t="s">
         <v>276</v>
       </c>
-      <c r="T82" t="s">
+      <c r="U82" t="s">
         <v>212</v>
       </c>
     </row>
@@ -5276,7 +6483,7 @@
       <c r="E83" t="s">
         <v>293</v>
       </c>
-      <c r="T83" t="s">
+      <c r="U83" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5284,7 +6491,7 @@
       <c r="E84" t="s">
         <v>277</v>
       </c>
-      <c r="T84" t="s">
+      <c r="U84" t="s">
         <v>213</v>
       </c>
     </row>
@@ -5292,7 +6499,7 @@
       <c r="E85" t="s">
         <v>278</v>
       </c>
-      <c r="T85" t="s">
+      <c r="U85" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5300,7 +6507,7 @@
       <c r="E86" t="s">
         <v>311</v>
       </c>
-      <c r="T86" t="s">
+      <c r="U86" t="s">
         <v>388</v>
       </c>
     </row>
@@ -5308,7 +6515,7 @@
       <c r="E87" t="s">
         <v>317</v>
       </c>
-      <c r="T87" t="s">
+      <c r="U87" t="s">
         <v>96</v>
       </c>
     </row>
@@ -5316,7 +6523,7 @@
       <c r="E88" t="s">
         <v>300</v>
       </c>
-      <c r="T88" t="s">
+      <c r="U88" t="s">
         <v>97</v>
       </c>
     </row>
@@ -5324,7 +6531,7 @@
       <c r="E89" t="s">
         <v>345</v>
       </c>
-      <c r="T89" t="s">
+      <c r="U89" t="s">
         <v>98</v>
       </c>
     </row>
@@ -5332,7 +6539,7 @@
       <c r="E90" t="s">
         <v>282</v>
       </c>
-      <c r="T90" t="s">
+      <c r="U90" t="s">
         <v>99</v>
       </c>
     </row>
@@ -5340,92 +6547,92 @@
       <c r="E91" t="s">
         <v>283</v>
       </c>
-      <c r="T91" t="s">
+      <c r="U91" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="92">
-      <c r="T92" t="s">
+      <c r="U92" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="93">
-      <c r="T93" t="s">
+      <c r="U93" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="94">
-      <c r="T94" t="s">
+      <c r="U94" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="95">
-      <c r="T95" t="s">
+      <c r="U95" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="96">
-      <c r="T96" t="s">
+      <c r="U96" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="97">
-      <c r="T97" t="s">
+      <c r="U97" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="98">
-      <c r="T98" t="s">
+      <c r="U98" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="99">
-      <c r="T99" t="s">
+      <c r="U99" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="100">
-      <c r="T100" t="s">
+      <c r="U100" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="101">
-      <c r="T101" t="s">
+      <c r="U101" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="102">
-      <c r="T102" t="s">
+      <c r="U102" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="103">
-      <c r="T103" t="s">
+      <c r="U103" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="104">
-      <c r="T104" t="s">
+      <c r="U104" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="105">
-      <c r="T105" t="s">
+      <c r="U105" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="106">
-      <c r="T106" t="s">
+      <c r="U106" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="107">
-      <c r="T107" t="s">
+      <c r="U107" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="108">
-      <c r="T108" t="s">
+      <c r="U108" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
@@ -23,18 +23,18 @@
     <definedName name="csv">'#system'!$D$2:$D$4</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$91</definedName>
+    <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$21</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$11</definedName>
+    <definedName name="json">'#system'!$K$2:$K$12</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$14</definedName>
+    <definedName name="number">'#system'!$M$2:$M$15</definedName>
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
     <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
     <definedName name="redis">'#system'!$P$2:$P$10</definedName>
@@ -48,7 +48,7 @@
     <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
     <definedName name="sound">'#system'!$R$2:$R$5</definedName>
     <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
-    <definedName name="ws.async">'#system'!$Y$2:$Y$7</definedName>
+    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3073" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4849" uniqueCount="460">
   <si>
     <t>description</t>
   </si>
@@ -1401,6 +1401,48 @@
   </si>
   <si>
     <t>put(url,body,output)</t>
+  </si>
+  <si>
+    <t>sendKeysToTextBox(name,text1,text2,text3,text4)</t>
+  </si>
+  <si>
+    <t>addOrReplace(json,jsonpath,input,var)</t>
+  </si>
+  <si>
+    <t>assertBetween(num,minNum,maxNum)</t>
+  </si>
+  <si>
+    <t>assertEqual(num1,num2)</t>
+  </si>
+  <si>
+    <t>average(variableName,array)</t>
+  </si>
+  <si>
+    <t>ceiling(variableName)</t>
+  </si>
+  <si>
+    <t>decrement(variableName,amount)</t>
+  </si>
+  <si>
+    <t>floor(variableName)</t>
+  </si>
+  <si>
+    <t>increment(variableName,amount)</t>
+  </si>
+  <si>
+    <t>max(variableName,array)</t>
+  </si>
+  <si>
+    <t>min(variableName,array)</t>
+  </si>
+  <si>
+    <t>round(variableName,closestDigit)</t>
+  </si>
+  <si>
+    <t>delete(url,body,output)</t>
+  </si>
+  <si>
+    <t>decrement(var,amount)</t>
   </si>
 </sst>
 </file>
@@ -1408,7 +1450,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="92" x14ac:knownFonts="1">
+  <fonts count="152" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1995,8 +2037,384 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="148">
+  <fills count="256">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2831,8 +3249,620 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="153">
+  <borders count="265">
     <border>
       <left/>
       <right/>
@@ -3380,6 +4410,1134 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -4373,7 +6531,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="171">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4686,49 +6844,229 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="76" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="123" borderId="132" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="132" fillId="123" fontId="77" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="78" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="126" borderId="136" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="136" fillId="126" fontId="79" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="129" borderId="140" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="140" fillId="129" fontId="80" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="81" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="132" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="132" fontId="82" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="135" borderId="144" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="144" fillId="135" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="138" borderId="148" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="148" fillId="138" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="141" borderId="152" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="152" fillId="141" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="141" borderId="152" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="152" fillId="141" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="144" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="144" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="147" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="147" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="144" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="144" fontId="90" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="91" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="160" fillId="150" fontId="92" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="93" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="164" fillId="153" fontId="94" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="168" fillId="156" fontId="95" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="96" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="159" fontId="97" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="98" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="172" fillId="162" fontId="99" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="176" fillId="165" fontId="100" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="180" fillId="168" fontId="101" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="180" fillId="168" fontId="102" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="171" fontId="103" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="174" fontId="104" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="171" fontId="105" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="188" fillId="177" fontId="107" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="192" fillId="180" fontId="109" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="196" fillId="183" fontId="110" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="111" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="186" fontId="112" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="113" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="200" fillId="189" fontId="114" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="204" fillId="192" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="208" fillId="195" fontId="116" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="208" fillId="195" fontId="117" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="198" fontId="118" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="201" fontId="119" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="198" fontId="120" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="121" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="216" fillId="204" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="123" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="220" fillId="207" fontId="124" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="224" fillId="210" fontId="125" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="126" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="213" fontId="127" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="128" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="228" fillId="216" fontId="129" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="232" fillId="219" fontId="130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="236" fillId="222" fontId="131" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="236" fillId="222" fontId="132" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="225" fontId="133" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="228" fontId="134" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="225" fontId="135" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="136" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="231" borderId="244" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="234" borderId="248" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="237" borderId="252" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="240" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="243" borderId="256" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="246" borderId="260" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="249" borderId="264" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="249" borderId="264" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="252" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="255" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="252" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5212,13 +7550,13 @@
         <v>389</v>
       </c>
       <c r="K2" t="s">
-        <v>186</v>
+        <v>447</v>
       </c>
       <c r="L2" t="s">
         <v>421</v>
       </c>
       <c r="M2" t="s">
-        <v>417</v>
+        <v>448</v>
       </c>
       <c r="N2" t="s">
         <v>258</v>
@@ -5254,7 +7592,7 @@
         <v>132</v>
       </c>
       <c r="Y2" t="s">
-        <v>133</v>
+        <v>458</v>
       </c>
       <c r="Z2" t="s">
         <v>233</v>
@@ -5292,10 +7630,10 @@
         <v>339</v>
       </c>
       <c r="K3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M3" t="s">
-        <v>321</v>
+        <v>449</v>
       </c>
       <c r="N3" t="s">
         <v>245</v>
@@ -5328,7 +7666,7 @@
         <v>369</v>
       </c>
       <c r="Y3" t="s">
-        <v>441</v>
+        <v>133</v>
       </c>
       <c r="Z3" t="s">
         <v>234</v>
@@ -5363,7 +7701,7 @@
         <v>340</v>
       </c>
       <c r="K4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M4" t="s">
         <v>19</v>
@@ -5399,7 +7737,7 @@
         <v>133</v>
       </c>
       <c r="Y4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Z4" t="s">
         <v>235</v>
@@ -5428,7 +7766,7 @@
         <v>176</v>
       </c>
       <c r="K5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M5" t="s">
         <v>21</v>
@@ -5461,7 +7799,7 @@
         <v>134</v>
       </c>
       <c r="Y5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="Z5" t="s">
         <v>236</v>
@@ -5487,7 +7825,7 @@
         <v>147</v>
       </c>
       <c r="K6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M6" t="s">
         <v>22</v>
@@ -5517,7 +7855,7 @@
         <v>135</v>
       </c>
       <c r="Y6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="Z6" t="s">
         <v>237</v>
@@ -5543,7 +7881,7 @@
         <v>169</v>
       </c>
       <c r="K7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M7" t="s">
         <v>24</v>
@@ -5570,7 +7908,7 @@
         <v>136</v>
       </c>
       <c r="Y7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="Z7" t="s">
         <v>238</v>
@@ -5596,7 +7934,7 @@
         <v>148</v>
       </c>
       <c r="K8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M8" t="s">
         <v>163</v>
@@ -5618,6 +7956,9 @@
       </c>
       <c r="X8" t="s">
         <v>137</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>445</v>
       </c>
       <c r="Z8" t="s">
         <v>239</v>
@@ -5640,7 +7981,7 @@
         <v>395</v>
       </c>
       <c r="K9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M9" t="s">
         <v>164</v>
@@ -5678,10 +8019,10 @@
         <v>149</v>
       </c>
       <c r="K10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M10" t="s">
-        <v>165</v>
+        <v>459</v>
       </c>
       <c r="N10" t="s">
         <v>252</v>
@@ -5713,10 +8054,10 @@
         <v>150</v>
       </c>
       <c r="K11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M11" t="s">
-        <v>26</v>
+        <v>165</v>
       </c>
       <c r="N11" t="s">
         <v>253</v>
@@ -5744,8 +8085,11 @@
       <c r="I12" t="s">
         <v>170</v>
       </c>
+      <c r="K12" t="s">
+        <v>195</v>
+      </c>
       <c r="M12" t="s">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="N12" t="s">
         <v>254</v>
@@ -5771,7 +8115,7 @@
         <v>171</v>
       </c>
       <c r="M13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N13" t="s">
         <v>259</v>
@@ -5797,7 +8141,7 @@
         <v>172</v>
       </c>
       <c r="M14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N14" t="s">
         <v>255</v>
@@ -5822,6 +8166,9 @@
       <c r="I15" t="s">
         <v>173</v>
       </c>
+      <c r="M15" t="s">
+        <v>168</v>
+      </c>
       <c r="N15" t="s">
         <v>256</v>
       </c>
@@ -6433,7 +8780,7 @@
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>337</v>
+        <v>446</v>
       </c>
       <c r="U77" t="s">
         <v>208</v>
@@ -6441,7 +8788,7 @@
     </row>
     <row r="78">
       <c r="E78" t="s">
-        <v>275</v>
+        <v>337</v>
       </c>
       <c r="U78" t="s">
         <v>94</v>
@@ -6449,7 +8796,7 @@
     </row>
     <row r="79">
       <c r="E79" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="U79" t="s">
         <v>209</v>
@@ -6457,7 +8804,7 @@
     </row>
     <row r="80">
       <c r="E80" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="U80" t="s">
         <v>210</v>
@@ -6465,7 +8812,7 @@
     </row>
     <row r="81">
       <c r="E81" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="U81" t="s">
         <v>211</v>
@@ -6473,7 +8820,7 @@
     </row>
     <row r="82">
       <c r="E82" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="U82" t="s">
         <v>212</v>
@@ -6481,7 +8828,7 @@
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="U83" t="s">
         <v>228</v>
@@ -6489,7 +8836,7 @@
     </row>
     <row r="84">
       <c r="E84" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="U84" t="s">
         <v>213</v>
@@ -6497,7 +8844,7 @@
     </row>
     <row r="85">
       <c r="E85" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="U85" t="s">
         <v>95</v>
@@ -6505,7 +8852,7 @@
     </row>
     <row r="86">
       <c r="E86" t="s">
-        <v>311</v>
+        <v>278</v>
       </c>
       <c r="U86" t="s">
         <v>388</v>
@@ -6513,7 +8860,7 @@
     </row>
     <row r="87">
       <c r="E87" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="U87" t="s">
         <v>96</v>
@@ -6521,7 +8868,7 @@
     </row>
     <row r="88">
       <c r="E88" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="U88" t="s">
         <v>97</v>
@@ -6529,7 +8876,7 @@
     </row>
     <row r="89">
       <c r="E89" t="s">
-        <v>345</v>
+        <v>300</v>
       </c>
       <c r="U89" t="s">
         <v>98</v>
@@ -6537,7 +8884,7 @@
     </row>
     <row r="90">
       <c r="E90" t="s">
-        <v>282</v>
+        <v>345</v>
       </c>
       <c r="U90" t="s">
         <v>99</v>
@@ -6545,13 +8892,16 @@
     </row>
     <row r="91">
       <c r="E91" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U91" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="92">
+      <c r="E92" t="s">
+        <v>283</v>
+      </c>
       <c r="U92" t="s">
         <v>101</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
@@ -41,7 +41,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$108</definedName>
+    <definedName name="web">'#system'!$U$2:$U$111</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4849" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6637" uniqueCount="465">
   <si>
     <t>description</t>
   </si>
@@ -1443,6 +1443,21 @@
   </si>
   <si>
     <t>decrement(var,amount)</t>
+  </si>
+  <si>
+    <t>assertTextMatches(text,minMatch,scrollTo)</t>
+  </si>
+  <si>
+    <t>jsSelect(locator,text)</t>
+  </si>
+  <si>
+    <t>savePageAsFile(sessionIdName,url,file)</t>
+  </si>
+  <si>
+    <t>saveTableAsCsv(locator,file)</t>
+  </si>
+  <si>
+    <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
   </si>
 </sst>
 </file>
@@ -1450,7 +1465,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="152" x14ac:knownFonts="1">
+  <fonts count="212" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2413,8 +2428,384 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="256">
+  <fills count="364">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3861,8 +4252,620 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="265">
+  <borders count="377">
     <border>
       <left/>
       <right/>
@@ -4410,6 +5413,1134 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -6531,7 +8662,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="231">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7024,49 +9155,229 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="136" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="231" borderId="244" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="244" fillId="231" fontId="137" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="234" borderId="248" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="248" fillId="234" fontId="139" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="237" borderId="252" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="252" fillId="237" fontId="140" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="141" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="240" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="240" fontId="142" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="144" fillId="243" borderId="256" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="145" fillId="246" borderId="260" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="146" fillId="249" borderId="264" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="147" fillId="249" borderId="264" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="148" fillId="252" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="149" fillId="255" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="150" fillId="252" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="143" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="256" fillId="243" fontId="144" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="260" fillId="246" fontId="145" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="264" fillId="249" fontId="146" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="264" fillId="249" fontId="147" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="252" fontId="148" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="255" fontId="149" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="252" fontId="150" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="151" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="272" fillId="258" fontId="152" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="153" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="276" fillId="261" fontId="154" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="280" fillId="264" fontId="155" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="156" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="267" fontId="157" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="158" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="284" fillId="270" fontId="159" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="288" fillId="273" fontId="160" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="292" fillId="276" fontId="161" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="292" fillId="276" fontId="162" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="279" fontId="163" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="282" fontId="164" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="279" fontId="165" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="166" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="300" fillId="285" fontId="167" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="168" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="304" fillId="288" fontId="169" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="308" fillId="291" fontId="170" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="171" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="294" fontId="172" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="173" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="312" fillId="297" fontId="174" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="316" fillId="300" fontId="175" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="320" fillId="303" fontId="176" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="320" fillId="303" fontId="177" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="306" fontId="178" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="309" fontId="179" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="306" fontId="180" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="181" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="328" fillId="312" fontId="182" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="183" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="332" fillId="315" fontId="184" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="336" fillId="318" fontId="185" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="186" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="321" fontId="187" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="188" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="340" fillId="324" fontId="189" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="344" fillId="327" fontId="190" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="348" fillId="330" fontId="191" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="348" fillId="330" fontId="192" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="333" fontId="193" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="336" fontId="194" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="333" fontId="195" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="196" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="339" borderId="356" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="342" borderId="360" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="345" borderId="364" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="348" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="351" borderId="368" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="354" borderId="372" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="357" borderId="376" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="357" borderId="376" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="360" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="363" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="360" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7427,7 +9738,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA108"/>
+  <dimension ref="A1:AA111"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -8463,7 +10774,7 @@
         <v>314</v>
       </c>
       <c r="U37" t="s">
-        <v>398</v>
+        <v>460</v>
       </c>
     </row>
     <row r="38">
@@ -8471,7 +10782,7 @@
         <v>272</v>
       </c>
       <c r="U38" t="s">
-        <v>66</v>
+        <v>398</v>
       </c>
     </row>
     <row r="39">
@@ -8479,7 +10790,7 @@
         <v>158</v>
       </c>
       <c r="U39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40">
@@ -8487,7 +10798,7 @@
         <v>217</v>
       </c>
       <c r="U40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41">
@@ -8495,7 +10806,7 @@
         <v>294</v>
       </c>
       <c r="U41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42">
@@ -8503,7 +10814,7 @@
         <v>305</v>
       </c>
       <c r="U42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43">
@@ -8511,7 +10822,7 @@
         <v>306</v>
       </c>
       <c r="U43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44">
@@ -8519,7 +10830,7 @@
         <v>348</v>
       </c>
       <c r="U44" t="s">
-        <v>218</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45">
@@ -8527,7 +10838,7 @@
         <v>347</v>
       </c>
       <c r="U45" t="s">
-        <v>72</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46">
@@ -8535,7 +10846,7 @@
         <v>216</v>
       </c>
       <c r="U46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47">
@@ -8543,7 +10854,7 @@
         <v>307</v>
       </c>
       <c r="U47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48">
@@ -8551,7 +10862,7 @@
         <v>344</v>
       </c>
       <c r="U48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49">
@@ -8559,7 +10870,7 @@
         <v>373</v>
       </c>
       <c r="U49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50">
@@ -8567,7 +10878,7 @@
         <v>308</v>
       </c>
       <c r="U50" t="s">
-        <v>351</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51">
@@ -8575,7 +10886,7 @@
         <v>361</v>
       </c>
       <c r="U51" t="s">
-        <v>77</v>
+        <v>351</v>
       </c>
     </row>
     <row r="52">
@@ -8583,7 +10894,7 @@
         <v>336</v>
       </c>
       <c r="U52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53">
@@ -8591,7 +10902,7 @@
         <v>273</v>
       </c>
       <c r="U53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54">
@@ -8599,7 +10910,7 @@
         <v>297</v>
       </c>
       <c r="U54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55">
@@ -8607,7 +10918,7 @@
         <v>298</v>
       </c>
       <c r="U55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56">
@@ -8615,7 +10926,7 @@
         <v>299</v>
       </c>
       <c r="U56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57">
@@ -8623,7 +10934,7 @@
         <v>309</v>
       </c>
       <c r="U57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58">
@@ -8631,7 +10942,7 @@
         <v>318</v>
       </c>
       <c r="U58" t="s">
-        <v>219</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59">
@@ -8639,7 +10950,7 @@
         <v>342</v>
       </c>
       <c r="U59" t="s">
-        <v>394</v>
+        <v>219</v>
       </c>
     </row>
     <row r="60">
@@ -8647,7 +10958,7 @@
         <v>315</v>
       </c>
       <c r="U60" t="s">
-        <v>84</v>
+        <v>394</v>
       </c>
     </row>
     <row r="61">
@@ -8655,7 +10966,7 @@
         <v>316</v>
       </c>
       <c r="U61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62">
@@ -8663,7 +10974,7 @@
         <v>374</v>
       </c>
       <c r="U62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63">
@@ -8671,7 +10982,7 @@
         <v>375</v>
       </c>
       <c r="U63" t="s">
-        <v>87</v>
+        <v>461</v>
       </c>
     </row>
     <row r="64">
@@ -8679,7 +10990,7 @@
         <v>350</v>
       </c>
       <c r="U64" t="s">
-        <v>202</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65">
@@ -8687,7 +10998,7 @@
         <v>319</v>
       </c>
       <c r="U65" t="s">
-        <v>203</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66">
@@ -8695,7 +11006,7 @@
         <v>274</v>
       </c>
       <c r="U66" t="s">
-        <v>88</v>
+        <v>202</v>
       </c>
     </row>
     <row r="67">
@@ -8703,7 +11014,7 @@
         <v>358</v>
       </c>
       <c r="U67" t="s">
-        <v>89</v>
+        <v>203</v>
       </c>
     </row>
     <row r="68">
@@ -8711,7 +11022,7 @@
         <v>320</v>
       </c>
       <c r="U68" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69">
@@ -8719,7 +11030,7 @@
         <v>415</v>
       </c>
       <c r="U69" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70">
@@ -8727,7 +11038,7 @@
         <v>310</v>
       </c>
       <c r="U70" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71">
@@ -8735,7 +11046,7 @@
         <v>416</v>
       </c>
       <c r="U71" t="s">
-        <v>204</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72">
@@ -8743,7 +11054,7 @@
         <v>267</v>
       </c>
       <c r="U72" t="s">
-        <v>205</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73">
@@ -8751,7 +11062,7 @@
         <v>349</v>
       </c>
       <c r="U73" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="74">
@@ -8759,7 +11070,7 @@
         <v>285</v>
       </c>
       <c r="U74" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="75">
@@ -8767,7 +11078,7 @@
         <v>291</v>
       </c>
       <c r="U75" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="76">
@@ -8775,7 +11086,7 @@
         <v>296</v>
       </c>
       <c r="U76" t="s">
-        <v>93</v>
+        <v>207</v>
       </c>
     </row>
     <row r="77">
@@ -8783,7 +11094,7 @@
         <v>446</v>
       </c>
       <c r="U77" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
     </row>
     <row r="78">
@@ -8791,7 +11102,7 @@
         <v>337</v>
       </c>
       <c r="U78" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79">
@@ -8799,7 +11110,7 @@
         <v>275</v>
       </c>
       <c r="U79" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="80">
@@ -8807,7 +11118,7 @@
         <v>286</v>
       </c>
       <c r="U80" t="s">
-        <v>210</v>
+        <v>462</v>
       </c>
     </row>
     <row r="81">
@@ -8815,7 +11126,7 @@
         <v>292</v>
       </c>
       <c r="U81" t="s">
-        <v>211</v>
+        <v>464</v>
       </c>
     </row>
     <row r="82">
@@ -8823,7 +11134,7 @@
         <v>281</v>
       </c>
       <c r="U82" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="83">
@@ -8831,7 +11142,7 @@
         <v>276</v>
       </c>
       <c r="U83" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="84">
@@ -8839,7 +11150,7 @@
         <v>293</v>
       </c>
       <c r="U84" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="85">
@@ -8847,7 +11158,7 @@
         <v>277</v>
       </c>
       <c r="U85" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
     </row>
     <row r="86">
@@ -8855,7 +11166,7 @@
         <v>278</v>
       </c>
       <c r="U86" t="s">
-        <v>388</v>
+        <v>228</v>
       </c>
     </row>
     <row r="87">
@@ -8863,7 +11174,7 @@
         <v>311</v>
       </c>
       <c r="U87" t="s">
-        <v>96</v>
+        <v>213</v>
       </c>
     </row>
     <row r="88">
@@ -8871,7 +11182,7 @@
         <v>317</v>
       </c>
       <c r="U88" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="89">
@@ -8879,7 +11190,7 @@
         <v>300</v>
       </c>
       <c r="U89" t="s">
-        <v>98</v>
+        <v>388</v>
       </c>
     </row>
     <row r="90">
@@ -8887,7 +11198,7 @@
         <v>345</v>
       </c>
       <c r="U90" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="91">
@@ -8895,7 +11206,7 @@
         <v>282</v>
       </c>
       <c r="U91" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="92">
@@ -8903,86 +11214,101 @@
         <v>283</v>
       </c>
       <c r="U92" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="U109" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="U110" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="U111" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
@@ -41,7 +41,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$111</definedName>
+    <definedName name="web">'#system'!$U$2:$U$112</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6637" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7085" uniqueCount="466">
   <si>
     <t>description</t>
   </si>
@@ -1458,6 +1458,9 @@
   </si>
   <si>
     <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>dragAndDrop(fromLocator,toLocator)</t>
   </si>
 </sst>
 </file>
@@ -1465,7 +1468,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="212" x14ac:knownFonts="1">
+  <fonts count="227" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2804,8 +2807,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="364">
+  <fills count="391">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4864,8 +4961,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="377">
+  <borders count="405">
     <border>
       <left/>
       <right/>
@@ -5413,6 +5663,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -8662,7 +9194,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="231">
+  <cellXfs count="246">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9335,49 +9867,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="196" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="339" borderId="356" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="356" fillId="339" fontId="197" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="198" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="342" borderId="360" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="360" fillId="342" fontId="199" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="345" borderId="364" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="364" fillId="345" fontId="200" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="201" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="202" fillId="348" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="348" fontId="202" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="204" fillId="351" borderId="368" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="205" fillId="354" borderId="372" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="206" fillId="357" borderId="376" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="207" fillId="357" borderId="376" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="208" fillId="360" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="209" fillId="363" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="210" fillId="360" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="203" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="368" fillId="351" fontId="204" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="372" fillId="354" fontId="205" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="376" fillId="357" fontId="206" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="376" fillId="357" fontId="207" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="360" fontId="208" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="363" fontId="209" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="360" fontId="210" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="211" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="366" borderId="384" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="369" borderId="388" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="372" borderId="392" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="375" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="378" borderId="396" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="381" borderId="400" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="384" borderId="404" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="384" borderId="404" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="387" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="390" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="387" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9738,7 +10315,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA111"/>
+  <dimension ref="A1:AA112"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -10950,7 +11527,7 @@
         <v>342</v>
       </c>
       <c r="U59" t="s">
-        <v>219</v>
+        <v>465</v>
       </c>
     </row>
     <row r="60">
@@ -10958,7 +11535,7 @@
         <v>315</v>
       </c>
       <c r="U60" t="s">
-        <v>394</v>
+        <v>219</v>
       </c>
     </row>
     <row r="61">
@@ -10966,7 +11543,7 @@
         <v>316</v>
       </c>
       <c r="U61" t="s">
-        <v>84</v>
+        <v>394</v>
       </c>
     </row>
     <row r="62">
@@ -10974,7 +11551,7 @@
         <v>374</v>
       </c>
       <c r="U62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63">
@@ -10982,7 +11559,7 @@
         <v>375</v>
       </c>
       <c r="U63" t="s">
-        <v>461</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64">
@@ -10990,7 +11567,7 @@
         <v>350</v>
       </c>
       <c r="U64" t="s">
-        <v>86</v>
+        <v>461</v>
       </c>
     </row>
     <row r="65">
@@ -10998,7 +11575,7 @@
         <v>319</v>
       </c>
       <c r="U65" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66">
@@ -11006,7 +11583,7 @@
         <v>274</v>
       </c>
       <c r="U66" t="s">
-        <v>202</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67">
@@ -11014,7 +11591,7 @@
         <v>358</v>
       </c>
       <c r="U67" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="68">
@@ -11022,7 +11599,7 @@
         <v>320</v>
       </c>
       <c r="U68" t="s">
-        <v>88</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69">
@@ -11030,7 +11607,7 @@
         <v>415</v>
       </c>
       <c r="U69" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70">
@@ -11038,7 +11615,7 @@
         <v>310</v>
       </c>
       <c r="U70" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71">
@@ -11046,7 +11623,7 @@
         <v>416</v>
       </c>
       <c r="U71" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72">
@@ -11054,7 +11631,7 @@
         <v>267</v>
       </c>
       <c r="U72" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73">
@@ -11062,7 +11639,7 @@
         <v>349</v>
       </c>
       <c r="U73" t="s">
-        <v>204</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74">
@@ -11070,7 +11647,7 @@
         <v>285</v>
       </c>
       <c r="U74" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="75">
@@ -11078,7 +11655,7 @@
         <v>291</v>
       </c>
       <c r="U75" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="76">
@@ -11086,7 +11663,7 @@
         <v>296</v>
       </c>
       <c r="U76" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="77">
@@ -11094,7 +11671,7 @@
         <v>446</v>
       </c>
       <c r="U77" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="78">
@@ -11102,7 +11679,7 @@
         <v>337</v>
       </c>
       <c r="U78" t="s">
-        <v>93</v>
+        <v>220</v>
       </c>
     </row>
     <row r="79">
@@ -11110,7 +11687,7 @@
         <v>275</v>
       </c>
       <c r="U79" t="s">
-        <v>208</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80">
@@ -11118,7 +11695,7 @@
         <v>286</v>
       </c>
       <c r="U80" t="s">
-        <v>462</v>
+        <v>208</v>
       </c>
     </row>
     <row r="81">
@@ -11126,7 +11703,7 @@
         <v>292</v>
       </c>
       <c r="U81" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="82">
@@ -11134,7 +11711,7 @@
         <v>281</v>
       </c>
       <c r="U82" t="s">
-        <v>209</v>
+        <v>464</v>
       </c>
     </row>
     <row r="83">
@@ -11142,7 +11719,7 @@
         <v>276</v>
       </c>
       <c r="U83" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="84">
@@ -11150,7 +11727,7 @@
         <v>293</v>
       </c>
       <c r="U84" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="85">
@@ -11158,7 +11735,7 @@
         <v>277</v>
       </c>
       <c r="U85" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="86">
@@ -11166,7 +11743,7 @@
         <v>278</v>
       </c>
       <c r="U86" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="87">
@@ -11174,7 +11751,7 @@
         <v>311</v>
       </c>
       <c r="U87" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
     </row>
     <row r="88">
@@ -11182,7 +11759,7 @@
         <v>317</v>
       </c>
       <c r="U88" t="s">
-        <v>95</v>
+        <v>213</v>
       </c>
     </row>
     <row r="89">
@@ -11190,7 +11767,7 @@
         <v>300</v>
       </c>
       <c r="U89" t="s">
-        <v>388</v>
+        <v>95</v>
       </c>
     </row>
     <row r="90">
@@ -11198,7 +11775,7 @@
         <v>345</v>
       </c>
       <c r="U90" t="s">
-        <v>96</v>
+        <v>388</v>
       </c>
     </row>
     <row r="91">
@@ -11206,7 +11783,7 @@
         <v>282</v>
       </c>
       <c r="U91" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92">
@@ -11214,101 +11791,106 @@
         <v>283</v>
       </c>
       <c r="U92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="U112" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
@@ -20,16 +20,16 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$C$2:$C$33</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$4</definedName>
+    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$21</definedName>
+    <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$12</definedName>
+    <definedName name="json">'#system'!$K$2:$K$13</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -41,8 +41,8 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$112</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
     <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7085" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7540" uniqueCount="474">
   <si>
     <t>description</t>
   </si>
@@ -1461,6 +1461,30 @@
   </si>
   <si>
     <t>dragAndDrop(fromLocator,toLocator)</t>
+  </si>
+  <si>
+    <t>fromExcel(excel,worksheet,csvFile)</t>
+  </si>
+  <si>
+    <t>writeFileAsIs(file,content,append)</t>
+  </si>
+  <si>
+    <t>fromCsv(csv,header,jsonFile)</t>
+  </si>
+  <si>
+    <t>checkAll(locator)</t>
+  </si>
+  <si>
+    <t>focus(locator)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator)</t>
+  </si>
+  <si>
+    <t>replyCancel(text)</t>
+  </si>
+  <si>
+    <t>replyOK(text)</t>
   </si>
 </sst>
 </file>
@@ -1468,7 +1492,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="227" x14ac:knownFonts="1">
+  <fonts count="242" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2901,8 +2925,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="391">
+  <fills count="418">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5114,8 +5232,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="405">
+  <borders count="433">
     <border>
       <left/>
       <right/>
@@ -5663,6 +5934,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -9194,7 +9747,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="246">
+  <cellXfs count="261">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9912,49 +10465,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="211" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="366" borderId="384" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="213" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="384" fillId="366" fontId="212" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="213" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="214" fillId="369" borderId="388" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="388" fillId="369" fontId="214" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="215" fillId="372" borderId="392" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="392" fillId="372" fontId="215" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="216" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="216" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="217" fillId="375" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="375" fontId="217" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="218" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="219" fillId="378" borderId="396" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="220" fillId="381" borderId="400" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="221" fillId="384" borderId="404" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="222" fillId="384" borderId="404" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="223" fillId="387" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="224" fillId="390" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="225" fillId="387" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="218" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="396" fillId="378" fontId="219" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="400" fillId="381" fontId="220" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="404" fillId="384" fontId="221" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="404" fillId="384" fontId="222" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="387" fontId="223" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="390" fontId="224" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="387" fontId="225" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="226" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="393" borderId="412" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="396" borderId="416" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="399" borderId="420" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="402" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="405" borderId="424" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="408" borderId="428" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="411" borderId="432" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="411" borderId="432" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="414" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="417" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="414" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10315,7 +10913,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA112"/>
+  <dimension ref="A1:AA114"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -10641,6 +11239,9 @@
       <c r="C5" t="s">
         <v>229</v>
       </c>
+      <c r="D5" t="s">
+        <v>466</v>
+      </c>
       <c r="E5" t="s">
         <v>341</v>
       </c>
@@ -10734,7 +11335,7 @@
         <v>42</v>
       </c>
       <c r="V6" t="s">
-        <v>121</v>
+        <v>472</v>
       </c>
       <c r="W6" t="s">
         <v>126</v>
@@ -10789,6 +11390,9 @@
       <c r="U7" t="s">
         <v>43</v>
       </c>
+      <c r="V7" t="s">
+        <v>473</v>
+      </c>
       <c r="W7" t="s">
         <v>130</v>
       </c>
@@ -10839,6 +11443,9 @@
       <c r="U8" t="s">
         <v>44</v>
       </c>
+      <c r="V8" t="s">
+        <v>121</v>
+      </c>
       <c r="W8" t="s">
         <v>127</v>
       </c>
@@ -10907,7 +11514,7 @@
         <v>149</v>
       </c>
       <c r="K10" t="s">
-        <v>193</v>
+        <v>468</v>
       </c>
       <c r="M10" t="s">
         <v>459</v>
@@ -10942,7 +11549,7 @@
         <v>150</v>
       </c>
       <c r="K11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M11" t="s">
         <v>165</v>
@@ -10974,7 +11581,7 @@
         <v>170</v>
       </c>
       <c r="K12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M12" t="s">
         <v>26</v>
@@ -11002,6 +11609,9 @@
       <c r="I13" t="s">
         <v>171</v>
       </c>
+      <c r="K13" t="s">
+        <v>195</v>
+      </c>
       <c r="M13" t="s">
         <v>166</v>
       </c>
@@ -11152,7 +11762,7 @@
         <v>302</v>
       </c>
       <c r="I20" t="s">
-        <v>153</v>
+        <v>467</v>
       </c>
       <c r="U20" t="s">
         <v>52</v>
@@ -11169,7 +11779,7 @@
         <v>303</v>
       </c>
       <c r="I21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="U21" t="s">
         <v>53</v>
@@ -11185,6 +11795,9 @@
       <c r="E22" t="s">
         <v>304</v>
       </c>
+      <c r="I22" t="s">
+        <v>154</v>
+      </c>
       <c r="U22" t="s">
         <v>54</v>
       </c>
@@ -11415,7 +12028,7 @@
         <v>347</v>
       </c>
       <c r="U45" t="s">
-        <v>218</v>
+        <v>469</v>
       </c>
     </row>
     <row r="46">
@@ -11423,7 +12036,7 @@
         <v>216</v>
       </c>
       <c r="U46" t="s">
-        <v>72</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47">
@@ -11431,7 +12044,7 @@
         <v>307</v>
       </c>
       <c r="U47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48">
@@ -11439,7 +12052,7 @@
         <v>344</v>
       </c>
       <c r="U48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49">
@@ -11447,7 +12060,7 @@
         <v>373</v>
       </c>
       <c r="U49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50">
@@ -11455,7 +12068,7 @@
         <v>308</v>
       </c>
       <c r="U50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51">
@@ -11463,7 +12076,7 @@
         <v>361</v>
       </c>
       <c r="U51" t="s">
-        <v>351</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52">
@@ -11471,7 +12084,7 @@
         <v>336</v>
       </c>
       <c r="U52" t="s">
-        <v>77</v>
+        <v>351</v>
       </c>
     </row>
     <row r="53">
@@ -11479,7 +12092,7 @@
         <v>273</v>
       </c>
       <c r="U53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54">
@@ -11487,7 +12100,7 @@
         <v>297</v>
       </c>
       <c r="U54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55">
@@ -11495,7 +12108,7 @@
         <v>298</v>
       </c>
       <c r="U55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56">
@@ -11503,7 +12116,7 @@
         <v>299</v>
       </c>
       <c r="U56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57">
@@ -11511,7 +12124,7 @@
         <v>309</v>
       </c>
       <c r="U57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58">
@@ -11519,7 +12132,7 @@
         <v>318</v>
       </c>
       <c r="U58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59">
@@ -11527,7 +12140,7 @@
         <v>342</v>
       </c>
       <c r="U59" t="s">
-        <v>465</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60">
@@ -11535,7 +12148,7 @@
         <v>315</v>
       </c>
       <c r="U60" t="s">
-        <v>219</v>
+        <v>465</v>
       </c>
     </row>
     <row r="61">
@@ -11543,7 +12156,7 @@
         <v>316</v>
       </c>
       <c r="U61" t="s">
-        <v>394</v>
+        <v>219</v>
       </c>
     </row>
     <row r="62">
@@ -11551,7 +12164,7 @@
         <v>374</v>
       </c>
       <c r="U62" t="s">
-        <v>84</v>
+        <v>394</v>
       </c>
     </row>
     <row r="63">
@@ -11559,7 +12172,7 @@
         <v>375</v>
       </c>
       <c r="U63" t="s">
-        <v>85</v>
+        <v>470</v>
       </c>
     </row>
     <row r="64">
@@ -11567,7 +12180,7 @@
         <v>350</v>
       </c>
       <c r="U64" t="s">
-        <v>461</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65">
@@ -11575,7 +12188,7 @@
         <v>319</v>
       </c>
       <c r="U65" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66">
@@ -11583,7 +12196,7 @@
         <v>274</v>
       </c>
       <c r="U66" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67">
@@ -11591,7 +12204,7 @@
         <v>358</v>
       </c>
       <c r="U67" t="s">
-        <v>202</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68">
@@ -11599,7 +12212,7 @@
         <v>320</v>
       </c>
       <c r="U68" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69">
@@ -11607,7 +12220,7 @@
         <v>415</v>
       </c>
       <c r="U69" t="s">
-        <v>88</v>
+        <v>203</v>
       </c>
     </row>
     <row r="70">
@@ -11615,7 +12228,7 @@
         <v>310</v>
       </c>
       <c r="U70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71">
@@ -11623,7 +12236,7 @@
         <v>416</v>
       </c>
       <c r="U71" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72">
@@ -11631,7 +12244,7 @@
         <v>267</v>
       </c>
       <c r="U72" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73">
@@ -11639,7 +12252,7 @@
         <v>349</v>
       </c>
       <c r="U73" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74">
@@ -11647,7 +12260,7 @@
         <v>285</v>
       </c>
       <c r="U74" t="s">
-        <v>204</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75">
@@ -11655,7 +12268,7 @@
         <v>291</v>
       </c>
       <c r="U75" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="76">
@@ -11663,7 +12276,7 @@
         <v>296</v>
       </c>
       <c r="U76" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="77">
@@ -11671,7 +12284,7 @@
         <v>446</v>
       </c>
       <c r="U77" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="78">
@@ -11679,7 +12292,7 @@
         <v>337</v>
       </c>
       <c r="U78" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="79">
@@ -11687,7 +12300,7 @@
         <v>275</v>
       </c>
       <c r="U79" t="s">
-        <v>93</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80">
@@ -11695,7 +12308,7 @@
         <v>286</v>
       </c>
       <c r="U80" t="s">
-        <v>208</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81">
@@ -11703,7 +12316,7 @@
         <v>292</v>
       </c>
       <c r="U81" t="s">
-        <v>462</v>
+        <v>208</v>
       </c>
     </row>
     <row r="82">
@@ -11711,7 +12324,7 @@
         <v>281</v>
       </c>
       <c r="U82" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="83">
@@ -11719,7 +12332,7 @@
         <v>276</v>
       </c>
       <c r="U83" t="s">
-        <v>209</v>
+        <v>464</v>
       </c>
     </row>
     <row r="84">
@@ -11727,7 +12340,7 @@
         <v>293</v>
       </c>
       <c r="U84" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="85">
@@ -11735,7 +12348,7 @@
         <v>277</v>
       </c>
       <c r="U85" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="86">
@@ -11743,7 +12356,7 @@
         <v>278</v>
       </c>
       <c r="U86" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="87">
@@ -11751,7 +12364,7 @@
         <v>311</v>
       </c>
       <c r="U87" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="88">
@@ -11759,7 +12372,7 @@
         <v>317</v>
       </c>
       <c r="U88" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
     </row>
     <row r="89">
@@ -11767,7 +12380,7 @@
         <v>300</v>
       </c>
       <c r="U89" t="s">
-        <v>95</v>
+        <v>213</v>
       </c>
     </row>
     <row r="90">
@@ -11775,7 +12388,7 @@
         <v>345</v>
       </c>
       <c r="U90" t="s">
-        <v>388</v>
+        <v>95</v>
       </c>
     </row>
     <row r="91">
@@ -11783,7 +12396,7 @@
         <v>282</v>
       </c>
       <c r="U91" t="s">
-        <v>96</v>
+        <v>388</v>
       </c>
     </row>
     <row r="92">
@@ -11791,106 +12404,116 @@
         <v>283</v>
       </c>
       <c r="U92" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>110</v>
+        <v>471</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="U113" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="U114" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7540" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7995" uniqueCount="474">
   <si>
     <t>description</t>
   </si>
@@ -1492,7 +1492,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="242" x14ac:knownFonts="1">
+  <fonts count="257" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3019,8 +3019,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="418">
+  <fills count="445">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5385,8 +5479,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="433">
+  <borders count="461">
     <border>
       <left/>
       <right/>
@@ -5934,6 +6181,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -9747,7 +10276,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="261">
+  <cellXfs count="276">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10510,49 +11039,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="226" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="227" fillId="393" borderId="412" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="412" fillId="393" fontId="227" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="228" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="229" fillId="396" borderId="416" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="416" fillId="396" fontId="229" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="230" fillId="399" borderId="420" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="420" fillId="399" fontId="230" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="231" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="232" fillId="402" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="402" fontId="232" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="233" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="234" fillId="405" borderId="424" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="235" fillId="408" borderId="428" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="236" fillId="411" borderId="432" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="237" fillId="411" borderId="432" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="238" fillId="414" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="239" fillId="417" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="240" fillId="414" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="233" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="424" fillId="405" fontId="234" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="428" fillId="408" fontId="235" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="432" fillId="411" fontId="236" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="432" fillId="411" fontId="237" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="414" fontId="238" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="417" fontId="239" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="414" fontId="240" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="241" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="420" borderId="440" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="423" borderId="444" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="426" borderId="448" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="429" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="432" borderId="452" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="435" borderId="456" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="438" borderId="460" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="438" borderId="460" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="441" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="444" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="441" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7995" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8450" uniqueCount="474">
   <si>
     <t>description</t>
   </si>
@@ -1492,7 +1492,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="257" x14ac:knownFonts="1">
+  <fonts count="272" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3113,8 +3113,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="445">
+  <fills count="472">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5632,8 +5726,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="461">
+  <borders count="489">
     <border>
       <left/>
       <right/>
@@ -6181,6 +6428,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -10276,7 +10805,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="276">
+  <cellXfs count="291">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11084,49 +11613,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="241" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="242" fillId="420" borderId="440" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="440" fillId="420" fontId="242" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="243" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="244" fillId="423" borderId="444" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="444" fillId="423" fontId="244" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="245" fillId="426" borderId="448" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="448" fillId="426" fontId="245" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="246" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="247" fillId="429" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="429" fontId="247" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="248" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="249" fillId="432" borderId="452" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="250" fillId="435" borderId="456" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="251" fillId="438" borderId="460" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="252" fillId="438" borderId="460" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="253" fillId="441" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="254" fillId="444" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="255" fillId="441" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="248" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="452" fillId="432" fontId="249" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="456" fillId="435" fontId="250" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="460" fillId="438" fontId="251" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="460" fillId="438" fontId="252" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="441" fontId="253" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="444" fontId="254" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="441" fontId="255" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="256" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="447" borderId="468" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="450" borderId="472" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="453" borderId="476" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="456" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="459" borderId="480" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="462" borderId="484" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="465" borderId="488" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="465" borderId="488" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="468" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="471" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="468" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
@@ -29,7 +29,7 @@
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$13</definedName>
+    <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8450" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8906" uniqueCount="474">
   <si>
     <t>description</t>
   </si>
@@ -1492,7 +1492,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="272" x14ac:knownFonts="1">
+  <fonts count="287" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3207,8 +3207,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="472">
+  <fills count="499">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5879,8 +5973,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="489">
+  <borders count="517">
     <border>
       <left/>
       <right/>
@@ -6428,6 +6675,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -10805,7 +11334,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="306">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11658,49 +12187,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="256" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="257" fillId="447" borderId="468" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="468" fillId="447" fontId="257" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="258" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="259" fillId="450" borderId="472" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="472" fillId="450" fontId="259" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="260" fillId="453" borderId="476" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="476" fillId="453" fontId="260" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="261" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="262" fillId="456" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="456" fontId="262" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="263" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="264" fillId="459" borderId="480" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="265" fillId="462" borderId="484" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="266" fillId="465" borderId="488" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="267" fillId="465" borderId="488" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="268" fillId="468" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="269" fillId="471" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="270" fillId="468" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="263" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="480" fillId="459" fontId="264" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="484" fillId="462" fontId="265" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="488" fillId="465" fontId="266" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="488" fillId="465" fontId="267" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="468" fontId="268" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="471" fontId="269" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="468" fontId="270" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="271" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="474" borderId="496" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="477" borderId="500" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="480" borderId="504" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="483" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="486" borderId="508" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="489" borderId="512" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="492" borderId="516" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="492" borderId="516" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="495" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="498" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="495" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12518,7 +13092,7 @@
         <v>169</v>
       </c>
       <c r="K7" t="s">
-        <v>190</v>
+        <v>321</v>
       </c>
       <c r="M7" t="s">
         <v>24</v>
@@ -12574,7 +13148,7 @@
         <v>148</v>
       </c>
       <c r="K8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M8" t="s">
         <v>163</v>
@@ -12624,7 +13198,7 @@
         <v>395</v>
       </c>
       <c r="K9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M9" t="s">
         <v>164</v>
@@ -12662,7 +13236,7 @@
         <v>149</v>
       </c>
       <c r="K10" t="s">
-        <v>468</v>
+        <v>192</v>
       </c>
       <c r="M10" t="s">
         <v>459</v>
@@ -12697,7 +13271,7 @@
         <v>150</v>
       </c>
       <c r="K11" t="s">
-        <v>193</v>
+        <v>468</v>
       </c>
       <c r="M11" t="s">
         <v>165</v>
@@ -12729,7 +13303,7 @@
         <v>170</v>
       </c>
       <c r="K12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M12" t="s">
         <v>26</v>
@@ -12758,7 +13332,7 @@
         <v>171</v>
       </c>
       <c r="K13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M13" t="s">
         <v>166</v>
@@ -12785,6 +13359,9 @@
       </c>
       <c r="I14" t="s">
         <v>172</v>
+      </c>
+      <c r="K14" t="s">
+        <v>195</v>
       </c>
       <c r="M14" t="s">
         <v>167</v>

--- a/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
@@ -24,7 +24,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$8</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8906" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9364" uniqueCount="476">
   <si>
     <t>description</t>
   </si>
@@ -1485,6 +1485,12 @@
   </si>
   <si>
     <t>replyOK(text)</t>
+  </si>
+  <si>
+    <t>csv(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>json(file,worksheet,range,header,output)</t>
   </si>
 </sst>
 </file>
@@ -1492,7 +1498,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="287" x14ac:knownFonts="1">
+  <fonts count="302" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3301,8 +3307,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="499">
+  <fills count="526">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6126,8 +6226,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="517">
+  <borders count="545">
     <border>
       <left/>
       <right/>
@@ -6675,6 +6928,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -11334,7 +11869,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="306">
+  <cellXfs count="321">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12232,49 +12767,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="271" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="272" fillId="474" borderId="496" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="496" fillId="474" fontId="272" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="273" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="274" fillId="477" borderId="500" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="500" fillId="477" fontId="274" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="275" fillId="480" borderId="504" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="504" fillId="480" fontId="275" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="276" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="277" fillId="483" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="483" fontId="277" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="278" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="279" fillId="486" borderId="508" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="280" fillId="489" borderId="512" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="281" fillId="492" borderId="516" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="282" fillId="492" borderId="516" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="283" fillId="495" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="284" fillId="498" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="285" fillId="495" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="286" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="278" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="508" fillId="486" fontId="279" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="512" fillId="489" fontId="280" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="516" fillId="492" fontId="281" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="516" fillId="492" fontId="282" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="495" fontId="283" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="498" fontId="284" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="495" fontId="285" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="286" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="501" borderId="524" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="504" borderId="528" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="507" borderId="532" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="510" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="513" borderId="536" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="516" borderId="540" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="519" borderId="544" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="519" borderId="544" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="522" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="525" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="522" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12823,7 +13403,7 @@
         <v>179</v>
       </c>
       <c r="F3" t="s">
-        <v>333</v>
+        <v>474</v>
       </c>
       <c r="G3" t="s">
         <v>146</v>
@@ -12897,7 +13477,7 @@
         <v>392</v>
       </c>
       <c r="F4" t="s">
-        <v>334</v>
+        <v>475</v>
       </c>
       <c r="H4" t="s">
         <v>356</v>
@@ -12968,7 +13548,7 @@
         <v>341</v>
       </c>
       <c r="F5" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="H5" t="s">
         <v>353</v>
@@ -13030,7 +13610,7 @@
         <v>393</v>
       </c>
       <c r="F6" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="I6" t="s">
         <v>147</v>
@@ -13086,7 +13666,7 @@
         <v>371</v>
       </c>
       <c r="F7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I7" t="s">
         <v>169</v>
@@ -13142,7 +13722,7 @@
         <v>372</v>
       </c>
       <c r="F8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I8" t="s">
         <v>148</v>
@@ -13194,6 +13774,9 @@
       <c r="E9" t="s">
         <v>312</v>
       </c>
+      <c r="F9" t="s">
+        <v>329</v>
+      </c>
       <c r="I9" t="s">
         <v>395</v>
       </c>
@@ -13231,6 +13814,9 @@
       </c>
       <c r="E10" t="s">
         <v>357</v>
+      </c>
+      <c r="F10" t="s">
+        <v>330</v>
       </c>
       <c r="I10" t="s">
         <v>149</v>

--- a/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
@@ -19,12 +19,12 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$33</definedName>
+    <definedName name="base">'#system'!$C$2:$C$34</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9364" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10288" uniqueCount="481">
   <si>
     <t>description</t>
   </si>
@@ -1491,6 +1491,21 @@
   </si>
   <si>
     <t>json(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>saveCount(text,regex,saveVar)</t>
+  </si>
+  <si>
+    <t>assertPassword(file)</t>
+  </si>
+  <si>
+    <t>clearPassword(file,password)</t>
+  </si>
+  <si>
+    <t>csv(file,worksheet,range,output)</t>
+  </si>
+  <si>
+    <t>setPassword(file,password)</t>
   </si>
 </sst>
 </file>
@@ -1498,7 +1513,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="302" x14ac:knownFonts="1">
+  <fonts count="332" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3401,8 +3416,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="526">
+  <fills count="580">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6379,8 +6582,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="545">
+  <borders count="601">
     <border>
       <left/>
       <right/>
@@ -6928,6 +7437,570 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -11869,7 +12942,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="321">
+  <cellXfs count="351">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12812,49 +13885,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="286" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="287" fillId="501" borderId="524" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="524" fillId="501" fontId="287" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="288" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="504" borderId="528" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="528" fillId="504" fontId="289" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="507" borderId="532" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="532" fillId="507" fontId="290" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="291" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="292" fillId="510" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="510" fontId="292" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="294" fillId="513" borderId="536" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="295" fillId="516" borderId="540" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="296" fillId="519" borderId="544" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="297" fillId="519" borderId="544" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="298" fillId="522" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="299" fillId="525" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="300" fillId="522" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="301" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="293" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="536" fillId="513" fontId="294" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="540" fillId="516" fontId="295" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="544" fillId="519" fontId="296" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="544" fillId="519" fontId="297" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="522" fontId="298" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="525" fontId="299" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="522" fontId="300" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="301" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="552" fillId="528" fontId="302" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="303" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="556" fillId="531" fontId="304" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="560" fillId="534" fontId="305" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="306" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="537" fontId="307" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="308" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="564" fillId="540" fontId="309" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="568" fillId="543" fontId="310" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="572" fillId="546" fontId="311" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="572" fillId="546" fontId="312" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="549" fontId="313" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="552" fontId="314" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="549" fontId="315" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="316" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="555" borderId="580" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="558" borderId="584" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="561" borderId="588" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="564" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="567" borderId="592" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="570" borderId="596" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="573" borderId="600" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="573" borderId="600" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="576" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="579" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="576" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13323,7 +14486,7 @@
         <v>157</v>
       </c>
       <c r="F2" t="s">
-        <v>178</v>
+        <v>477</v>
       </c>
       <c r="G2" t="s">
         <v>145</v>
@@ -13403,7 +14566,7 @@
         <v>179</v>
       </c>
       <c r="F3" t="s">
-        <v>474</v>
+        <v>178</v>
       </c>
       <c r="G3" t="s">
         <v>146</v>
@@ -13477,7 +14640,7 @@
         <v>392</v>
       </c>
       <c r="F4" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="H4" t="s">
         <v>356</v>
@@ -13548,7 +14711,7 @@
         <v>341</v>
       </c>
       <c r="F5" t="s">
-        <v>333</v>
+        <v>479</v>
       </c>
       <c r="H5" t="s">
         <v>353</v>
@@ -13610,7 +14773,7 @@
         <v>393</v>
       </c>
       <c r="F6" t="s">
-        <v>334</v>
+        <v>475</v>
       </c>
       <c r="I6" t="s">
         <v>147</v>
@@ -13666,7 +14829,7 @@
         <v>371</v>
       </c>
       <c r="F7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="I7" t="s">
         <v>169</v>
@@ -13722,7 +14885,7 @@
         <v>372</v>
       </c>
       <c r="F8" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="I8" t="s">
         <v>148</v>
@@ -13775,7 +14938,7 @@
         <v>312</v>
       </c>
       <c r="F9" t="s">
-        <v>329</v>
+        <v>480</v>
       </c>
       <c r="I9" t="s">
         <v>395</v>
@@ -13816,7 +14979,7 @@
         <v>357</v>
       </c>
       <c r="F10" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I10" t="s">
         <v>149</v>
@@ -13853,6 +15016,9 @@
       <c r="E11" t="s">
         <v>279</v>
       </c>
+      <c r="F11" t="s">
+        <v>328</v>
+      </c>
       <c r="I11" t="s">
         <v>150</v>
       </c>
@@ -13885,6 +15051,9 @@
       <c r="E12" t="s">
         <v>268</v>
       </c>
+      <c r="F12" t="s">
+        <v>329</v>
+      </c>
       <c r="I12" t="s">
         <v>170</v>
       </c>
@@ -13914,6 +15083,9 @@
       <c r="E13" t="s">
         <v>322</v>
       </c>
+      <c r="F13" t="s">
+        <v>330</v>
+      </c>
       <c r="I13" t="s">
         <v>171</v>
       </c>
@@ -14118,7 +15290,7 @@
         <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>230</v>
+        <v>476</v>
       </c>
       <c r="E23" t="s">
         <v>295</v>
@@ -14132,7 +15304,7 @@
         <v>131</v>
       </c>
       <c r="C24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E24" t="s">
         <v>284</v>
@@ -14146,7 +15318,7 @@
         <v>440</v>
       </c>
       <c r="C25" t="s">
-        <v>436</v>
+        <v>231</v>
       </c>
       <c r="E25" t="s">
         <v>156</v>
@@ -14160,7 +15332,7 @@
         <v>232</v>
       </c>
       <c r="C26" t="s">
-        <v>159</v>
+        <v>436</v>
       </c>
       <c r="E26" t="s">
         <v>287</v>
@@ -14171,7 +15343,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>37</v>
+        <v>159</v>
       </c>
       <c r="E27" t="s">
         <v>271</v>
@@ -14182,7 +15354,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E28" t="s">
         <v>288</v>
@@ -14193,7 +15365,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>160</v>
+        <v>38</v>
       </c>
       <c r="E29" t="s">
         <v>289</v>
@@ -14204,7 +15376,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E30" t="s">
         <v>221</v>
@@ -14215,7 +15387,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E31" t="s">
         <v>280</v>
@@ -14226,7 +15398,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="E32" t="s">
         <v>290</v>
@@ -14237,7 +15409,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>155</v>
+        <v>39</v>
       </c>
       <c r="E33" t="s">
         <v>265</v>
@@ -14247,6 +15419,9 @@
       </c>
     </row>
     <row r="34">
+      <c r="C34" t="s">
+        <v>155</v>
+      </c>
       <c r="E34" t="s">
         <v>335</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
@@ -41,7 +41,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="web">'#system'!$U$2:$U$115</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10288" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11214" uniqueCount="483">
   <si>
     <t>description</t>
   </si>
@@ -1506,6 +1506,12 @@
   </si>
   <si>
     <t>setPassword(file,password)</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headerCellsLoc,rowLocator,cellLocator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
   </si>
 </sst>
 </file>
@@ -1513,7 +1519,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="332" x14ac:knownFonts="1">
+  <fonts count="362" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3604,8 +3610,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="580">
+  <fills count="634">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6888,8 +7082,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="601">
+  <borders count="657">
     <border>
       <left/>
       <right/>
@@ -7437,6 +7937,570 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -12942,7 +14006,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="351">
+  <cellXfs count="381">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13975,49 +15039,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="316" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="317" fillId="555" borderId="580" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="318" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="580" fillId="555" fontId="317" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="318" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="319" fillId="558" borderId="584" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="584" fillId="558" fontId="319" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="320" fillId="561" borderId="588" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="588" fillId="561" fontId="320" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="321" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="564" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="564" fontId="322" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="324" fillId="567" borderId="592" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="325" fillId="570" borderId="596" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="326" fillId="573" borderId="600" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="327" fillId="573" borderId="600" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="328" fillId="576" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="329" fillId="579" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="330" fillId="576" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="323" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="592" fillId="567" fontId="324" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="596" fillId="570" fontId="325" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="600" fillId="573" fontId="326" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="600" fillId="573" fontId="327" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="576" fontId="328" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="579" fontId="329" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="576" fontId="330" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="331" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="608" fillId="582" fontId="332" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="333" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="612" fillId="585" fontId="334" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="616" fillId="588" fontId="335" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="336" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="591" fontId="337" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="338" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="620" fillId="594" fontId="339" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="624" fillId="597" fontId="340" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="628" fillId="600" fontId="341" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="628" fillId="600" fontId="342" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="603" fontId="343" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="606" fontId="344" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="603" fontId="345" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="346" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="609" borderId="636" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="612" borderId="640" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="615" borderId="644" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="618" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="621" borderId="648" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="624" borderId="652" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="627" borderId="656" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="627" borderId="656" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="630" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="633" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="630" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14378,7 +15532,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA114"/>
+  <dimension ref="A1:AA115"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -15770,7 +16924,7 @@
         <v>446</v>
       </c>
       <c r="U77" t="s">
-        <v>206</v>
+        <v>482</v>
       </c>
     </row>
     <row r="78">
@@ -15778,7 +16932,7 @@
         <v>337</v>
       </c>
       <c r="U78" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="79">
@@ -15786,7 +16940,7 @@
         <v>275</v>
       </c>
       <c r="U79" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="80">
@@ -15794,7 +16948,7 @@
         <v>286</v>
       </c>
       <c r="U80" t="s">
-        <v>93</v>
+        <v>220</v>
       </c>
     </row>
     <row r="81">
@@ -15802,7 +16956,7 @@
         <v>292</v>
       </c>
       <c r="U81" t="s">
-        <v>208</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82">
@@ -15810,7 +16964,7 @@
         <v>281</v>
       </c>
       <c r="U82" t="s">
-        <v>462</v>
+        <v>208</v>
       </c>
     </row>
     <row r="83">
@@ -15818,7 +16972,7 @@
         <v>276</v>
       </c>
       <c r="U83" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="84">
@@ -15826,7 +16980,7 @@
         <v>293</v>
       </c>
       <c r="U84" t="s">
-        <v>209</v>
+        <v>464</v>
       </c>
     </row>
     <row r="85">
@@ -15834,7 +16988,7 @@
         <v>277</v>
       </c>
       <c r="U85" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="86">
@@ -15842,7 +16996,7 @@
         <v>278</v>
       </c>
       <c r="U86" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="87">
@@ -15850,7 +17004,7 @@
         <v>311</v>
       </c>
       <c r="U87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="88">
@@ -15858,7 +17012,7 @@
         <v>317</v>
       </c>
       <c r="U88" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="89">
@@ -15866,7 +17020,7 @@
         <v>300</v>
       </c>
       <c r="U89" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
     </row>
     <row r="90">
@@ -15874,7 +17028,7 @@
         <v>345</v>
       </c>
       <c r="U90" t="s">
-        <v>95</v>
+        <v>213</v>
       </c>
     </row>
     <row r="91">
@@ -15882,7 +17036,7 @@
         <v>282</v>
       </c>
       <c r="U91" t="s">
-        <v>388</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92">
@@ -15890,116 +17044,121 @@
         <v>283</v>
       </c>
       <c r="U92" t="s">
-        <v>96</v>
+        <v>388</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>471</v>
+        <v>108</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>109</v>
+        <v>471</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="U115" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
@@ -41,7 +41,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$115</definedName>
+    <definedName name="web">'#system'!$U$2:$U$116</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11214" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11678" uniqueCount="484">
   <si>
     <t>description</t>
   </si>
@@ -1512,6 +1512,9 @@
   </si>
   <si>
     <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
+  </si>
+  <si>
+    <t>openHttpBasic(url,username,password)</t>
   </si>
 </sst>
 </file>
@@ -1519,7 +1522,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="362" x14ac:knownFonts="1">
+  <fonts count="377" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3798,8 +3801,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="634">
+  <fills count="661">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7388,8 +7485,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="657">
+  <borders count="685">
     <border>
       <left/>
       <right/>
@@ -7937,6 +8187,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -14006,7 +14538,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="381">
+  <cellXfs count="396">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15129,49 +15661,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="346" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="347" fillId="609" borderId="636" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="348" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="636" fillId="609" fontId="347" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="348" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="349" fillId="612" borderId="640" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="640" fillId="612" fontId="349" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="350" fillId="615" borderId="644" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="644" fillId="615" fontId="350" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="351" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="351" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="352" fillId="618" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="618" fontId="352" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="353" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="354" fillId="621" borderId="648" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="355" fillId="624" borderId="652" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="356" fillId="627" borderId="656" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="357" fillId="627" borderId="656" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="358" fillId="630" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="359" fillId="633" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="360" fillId="630" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="361" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="353" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="648" fillId="621" fontId="354" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="652" fillId="624" fontId="355" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="656" fillId="627" fontId="356" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="656" fillId="627" fontId="357" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="630" fontId="358" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="633" fontId="359" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="630" fontId="360" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="361" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="636" borderId="664" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="639" borderId="668" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="642" borderId="672" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="645" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="648" borderId="676" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="651" borderId="680" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="654" borderId="684" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="654" borderId="684" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="657" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="660" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="657" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15532,7 +16109,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA115"/>
+  <dimension ref="A1:AA116"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -16868,7 +17445,7 @@
         <v>310</v>
       </c>
       <c r="U70" t="s">
-        <v>88</v>
+        <v>483</v>
       </c>
     </row>
     <row r="71">
@@ -16876,7 +17453,7 @@
         <v>416</v>
       </c>
       <c r="U71" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72">
@@ -16884,7 +17461,7 @@
         <v>267</v>
       </c>
       <c r="U72" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73">
@@ -16892,7 +17469,7 @@
         <v>349</v>
       </c>
       <c r="U73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74">
@@ -16900,7 +17477,7 @@
         <v>285</v>
       </c>
       <c r="U74" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75">
@@ -16908,7 +17485,7 @@
         <v>291</v>
       </c>
       <c r="U75" t="s">
-        <v>204</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76">
@@ -16916,7 +17493,7 @@
         <v>296</v>
       </c>
       <c r="U76" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="77">
@@ -16924,7 +17501,7 @@
         <v>446</v>
       </c>
       <c r="U77" t="s">
-        <v>482</v>
+        <v>205</v>
       </c>
     </row>
     <row r="78">
@@ -16932,7 +17509,7 @@
         <v>337</v>
       </c>
       <c r="U78" t="s">
-        <v>206</v>
+        <v>482</v>
       </c>
     </row>
     <row r="79">
@@ -16940,7 +17517,7 @@
         <v>275</v>
       </c>
       <c r="U79" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="80">
@@ -16948,7 +17525,7 @@
         <v>286</v>
       </c>
       <c r="U80" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="81">
@@ -16956,7 +17533,7 @@
         <v>292</v>
       </c>
       <c r="U81" t="s">
-        <v>93</v>
+        <v>220</v>
       </c>
     </row>
     <row r="82">
@@ -16964,7 +17541,7 @@
         <v>281</v>
       </c>
       <c r="U82" t="s">
-        <v>208</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83">
@@ -16972,7 +17549,7 @@
         <v>276</v>
       </c>
       <c r="U83" t="s">
-        <v>462</v>
+        <v>208</v>
       </c>
     </row>
     <row r="84">
@@ -16980,7 +17557,7 @@
         <v>293</v>
       </c>
       <c r="U84" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="85">
@@ -16988,7 +17565,7 @@
         <v>277</v>
       </c>
       <c r="U85" t="s">
-        <v>209</v>
+        <v>464</v>
       </c>
     </row>
     <row r="86">
@@ -16996,7 +17573,7 @@
         <v>278</v>
       </c>
       <c r="U86" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="87">
@@ -17004,7 +17581,7 @@
         <v>311</v>
       </c>
       <c r="U87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="88">
@@ -17012,7 +17589,7 @@
         <v>317</v>
       </c>
       <c r="U88" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="89">
@@ -17020,7 +17597,7 @@
         <v>300</v>
       </c>
       <c r="U89" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="90">
@@ -17028,7 +17605,7 @@
         <v>345</v>
       </c>
       <c r="U90" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
     </row>
     <row r="91">
@@ -17036,7 +17613,7 @@
         <v>282</v>
       </c>
       <c r="U91" t="s">
-        <v>95</v>
+        <v>213</v>
       </c>
     </row>
     <row r="92">
@@ -17044,121 +17621,126 @@
         <v>283</v>
       </c>
       <c r="U92" t="s">
-        <v>388</v>
+        <v>95</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>96</v>
+        <v>388</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>471</v>
+        <v>108</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>109</v>
+        <v>471</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="U116" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
@@ -24,7 +24,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11678" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12143" uniqueCount="485">
   <si>
     <t>description</t>
   </si>
@@ -1515,6 +1515,9 @@
   </si>
   <si>
     <t>openHttpBasic(url,username,password)</t>
+  </si>
+  <si>
+    <t>columnarCsv(file,worksheet,ranges,output)</t>
   </si>
 </sst>
 </file>
@@ -1522,7 +1525,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="377" x14ac:knownFonts="1">
+  <fonts count="392" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3895,8 +3898,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="661">
+  <fills count="688">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7638,8 +7735,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="685">
+  <borders count="713">
     <border>
       <left/>
       <right/>
@@ -8187,6 +8437,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -14538,7 +15070,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="396">
+  <cellXfs count="411">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15706,49 +16238,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="361" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="362" fillId="636" borderId="664" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="363" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="664" fillId="636" fontId="362" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="363" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="364" fillId="639" borderId="668" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="668" fillId="639" fontId="364" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="365" fillId="642" borderId="672" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="672" fillId="642" fontId="365" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="366" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="366" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="367" fillId="645" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="645" fontId="367" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="368" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="369" fillId="648" borderId="676" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="370" fillId="651" borderId="680" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="371" fillId="654" borderId="684" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="372" fillId="654" borderId="684" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="373" fillId="657" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="374" fillId="660" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="375" fillId="657" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="368" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="676" fillId="648" fontId="369" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="680" fillId="651" fontId="370" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="684" fillId="654" fontId="371" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="684" fillId="654" fontId="372" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="657" fontId="373" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="660" fontId="374" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="657" fontId="375" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="376" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="663" borderId="692" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="666" borderId="696" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="669" borderId="700" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="672" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="675" borderId="704" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="678" borderId="708" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="681" borderId="712" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="681" borderId="712" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="684" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="687" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="684" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16442,7 +17019,7 @@
         <v>341</v>
       </c>
       <c r="F5" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="H5" t="s">
         <v>353</v>
@@ -16504,7 +17081,7 @@
         <v>393</v>
       </c>
       <c r="F6" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="I6" t="s">
         <v>147</v>
@@ -16560,7 +17137,7 @@
         <v>371</v>
       </c>
       <c r="F7" t="s">
-        <v>333</v>
+        <v>475</v>
       </c>
       <c r="I7" t="s">
         <v>169</v>
@@ -16616,7 +17193,7 @@
         <v>372</v>
       </c>
       <c r="F8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I8" t="s">
         <v>148</v>
@@ -16669,7 +17246,7 @@
         <v>312</v>
       </c>
       <c r="F9" t="s">
-        <v>480</v>
+        <v>334</v>
       </c>
       <c r="I9" t="s">
         <v>395</v>
@@ -16710,7 +17287,7 @@
         <v>357</v>
       </c>
       <c r="F10" t="s">
-        <v>327</v>
+        <v>480</v>
       </c>
       <c r="I10" t="s">
         <v>149</v>
@@ -16748,7 +17325,7 @@
         <v>279</v>
       </c>
       <c r="F11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I11" t="s">
         <v>150</v>
@@ -16783,7 +17360,7 @@
         <v>268</v>
       </c>
       <c r="F12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I12" t="s">
         <v>170</v>
@@ -16815,7 +17392,7 @@
         <v>322</v>
       </c>
       <c r="F13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I13" t="s">
         <v>171</v>
@@ -16845,6 +17422,9 @@
       </c>
       <c r="E14" t="s">
         <v>269</v>
+      </c>
+      <c r="F14" t="s">
+        <v>330</v>
       </c>
       <c r="I14" t="s">
         <v>172</v>

--- a/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
@@ -27,7 +27,7 @@
     <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$22</definedName>
+    <definedName name="io">'#system'!$I$2:$I$23</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
     <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12143" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13074" uniqueCount="486">
   <si>
     <t>description</t>
   </si>
@@ -1518,6 +1518,9 @@
   </si>
   <si>
     <t>columnarCsv(file,worksheet,ranges,output)</t>
+  </si>
+  <si>
+    <t>rename(target,newName)</t>
   </si>
 </sst>
 </file>
@@ -1525,7 +1528,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="392" x14ac:knownFonts="1">
+  <fonts count="422" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3992,8 +3995,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="688">
+  <fills count="742">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7888,8 +8079,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="713">
+  <borders count="769">
     <border>
       <left/>
       <right/>
@@ -8437,6 +8934,570 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -15070,7 +16131,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="411">
+  <cellXfs count="441">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16283,49 +17344,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="376" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="377" fillId="663" borderId="692" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="378" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="692" fillId="663" fontId="377" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="378" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="379" fillId="666" borderId="696" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="696" fillId="666" fontId="379" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="380" fillId="669" borderId="700" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="700" fillId="669" fontId="380" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="381" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="382" fillId="672" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="672" fontId="382" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="383" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="384" fillId="675" borderId="704" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="385" fillId="678" borderId="708" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="386" fillId="681" borderId="712" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="387" fillId="681" borderId="712" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="388" fillId="684" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="389" fillId="687" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="390" fillId="684" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="383" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="704" fillId="675" fontId="384" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="708" fillId="678" fontId="385" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="712" fillId="681" fontId="386" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="712" fillId="681" fontId="387" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="684" fontId="388" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="687" fontId="389" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="684" fontId="390" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="391" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="720" fillId="690" fontId="392" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="393" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="724" fillId="693" fontId="394" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="728" fillId="696" fontId="395" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="396" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="699" fontId="397" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="398" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="732" fillId="702" fontId="399" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="736" fillId="705" fontId="400" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="740" fillId="708" fontId="401" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="740" fillId="708" fontId="402" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="711" fontId="403" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="714" fontId="404" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="711" fontId="405" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="406" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="717" borderId="748" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="720" borderId="752" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="410" fillId="723" borderId="756" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="411" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="412" fillId="726" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="413" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="729" borderId="760" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="415" fillId="732" borderId="764" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="416" fillId="735" borderId="768" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="417" fillId="735" borderId="768" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="418" fillId="738" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="419" fillId="741" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="420" fillId="738" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="421" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -17427,7 +18578,7 @@
         <v>330</v>
       </c>
       <c r="I14" t="s">
-        <v>172</v>
+        <v>485</v>
       </c>
       <c r="K14" t="s">
         <v>195</v>
@@ -17456,7 +18607,7 @@
         <v>270</v>
       </c>
       <c r="I15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s">
         <v>168</v>
@@ -17482,7 +18633,7 @@
         <v>323</v>
       </c>
       <c r="I16" t="s">
-        <v>385</v>
+        <v>173</v>
       </c>
       <c r="N16" t="s">
         <v>257</v>
@@ -17505,7 +18656,7 @@
         <v>180</v>
       </c>
       <c r="I17" t="s">
-        <v>151</v>
+        <v>385</v>
       </c>
       <c r="U17" t="s">
         <v>49</v>
@@ -17522,7 +18673,7 @@
         <v>181</v>
       </c>
       <c r="I18" t="s">
-        <v>397</v>
+        <v>151</v>
       </c>
       <c r="U18" t="s">
         <v>50</v>
@@ -17539,7 +18690,7 @@
         <v>301</v>
       </c>
       <c r="I19" t="s">
-        <v>152</v>
+        <v>397</v>
       </c>
       <c r="U19" t="s">
         <v>51</v>
@@ -17556,7 +18707,7 @@
         <v>302</v>
       </c>
       <c r="I20" t="s">
-        <v>467</v>
+        <v>152</v>
       </c>
       <c r="U20" t="s">
         <v>52</v>
@@ -17573,7 +18724,7 @@
         <v>303</v>
       </c>
       <c r="I21" t="s">
-        <v>153</v>
+        <v>467</v>
       </c>
       <c r="U21" t="s">
         <v>53</v>
@@ -17590,7 +18741,7 @@
         <v>304</v>
       </c>
       <c r="I22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="U22" t="s">
         <v>54</v>
@@ -17605,6 +18756,9 @@
       </c>
       <c r="E23" t="s">
         <v>295</v>
+      </c>
+      <c r="I23" t="s">
+        <v>154</v>
       </c>
       <c r="U23" t="s">
         <v>55</v>

--- a/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$34</definedName>
+    <definedName name="base">'#system'!$C$2:$C$36</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13074" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13542" uniqueCount="488">
   <si>
     <t>description</t>
   </si>
@@ -1521,6 +1521,12 @@
   </si>
   <si>
     <t>rename(target,newName)</t>
+  </si>
+  <si>
+    <t>assertArrayContain(array,expected)</t>
+  </si>
+  <si>
+    <t>assertArrayNotContain(array,unexpected)</t>
   </si>
 </sst>
 </file>
@@ -1528,7 +1534,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="422" x14ac:knownFonts="1">
+  <fonts count="437" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4183,8 +4189,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="742">
+  <fills count="769">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8385,8 +8485,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="769">
+  <borders count="797">
     <border>
       <left/>
       <right/>
@@ -8934,6 +9187,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -16131,7 +16666,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="441">
+  <cellXfs count="456">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -17434,49 +17969,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="406" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="407" fillId="717" borderId="748" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="748" fillId="717" fontId="407" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="408" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="409" fillId="720" borderId="752" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="752" fillId="720" fontId="409" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="410" fillId="723" borderId="756" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="756" fillId="723" fontId="410" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="411" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="411" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="412" fillId="726" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="726" fontId="412" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="413" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="414" fillId="729" borderId="760" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="415" fillId="732" borderId="764" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="416" fillId="735" borderId="768" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="417" fillId="735" borderId="768" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="418" fillId="738" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="419" fillId="741" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="420" fillId="738" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="421" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="413" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="760" fillId="729" fontId="414" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="764" fillId="732" fontId="415" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="768" fillId="735" fontId="416" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="768" fillId="735" fontId="417" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="738" fontId="418" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="741" fontId="419" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="738" fontId="420" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="421" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="422" fillId="744" borderId="776" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="423" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="424" fillId="747" borderId="780" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="425" fillId="750" borderId="784" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="427" fillId="753" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="428" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="429" fillId="756" borderId="788" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="430" fillId="759" borderId="792" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="431" fillId="762" borderId="796" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="432" fillId="762" borderId="796" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="433" fillId="765" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="434" fillId="768" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="435" fillId="765" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="436" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -18016,7 +18596,7 @@
         <v>378</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>486</v>
       </c>
       <c r="D3" t="s">
         <v>370</v>
@@ -18090,7 +18670,7 @@
         <v>379</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>177</v>
@@ -18161,7 +18741,7 @@
         <v>380</v>
       </c>
       <c r="C5" t="s">
-        <v>229</v>
+        <v>487</v>
       </c>
       <c r="D5" t="s">
         <v>466</v>
@@ -18226,7 +18806,7 @@
         <v>381</v>
       </c>
       <c r="C6" t="s">
-        <v>324</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
         <v>393</v>
@@ -18282,7 +18862,7 @@
         <v>382</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>229</v>
       </c>
       <c r="E7" t="s">
         <v>371</v>
@@ -18338,7 +18918,7 @@
         <v>383</v>
       </c>
       <c r="C8" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E8" t="s">
         <v>372</v>
@@ -18391,7 +18971,7 @@
         <v>384</v>
       </c>
       <c r="C9" t="s">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
         <v>312</v>
@@ -18432,7 +19012,7 @@
         <v>338</v>
       </c>
       <c r="C10" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E10" t="s">
         <v>357</v>
@@ -18470,7 +19050,7 @@
         <v>185</v>
       </c>
       <c r="C11" t="s">
-        <v>346</v>
+        <v>260</v>
       </c>
       <c r="E11" t="s">
         <v>279</v>
@@ -18505,7 +19085,7 @@
         <v>196</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>325</v>
       </c>
       <c r="E12" t="s">
         <v>268</v>
@@ -18537,7 +19117,7 @@
         <v>128</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>346</v>
       </c>
       <c r="E13" t="s">
         <v>322</v>
@@ -18569,7 +19149,7 @@
         <v>244</v>
       </c>
       <c r="C14" t="s">
-        <v>390</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
         <v>269</v>
@@ -18601,7 +19181,7 @@
         <v>184</v>
       </c>
       <c r="C15" t="s">
-        <v>391</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
         <v>270</v>
@@ -18627,7 +19207,7 @@
         <v>405</v>
       </c>
       <c r="C16" t="s">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="E16" t="s">
         <v>323</v>
@@ -18650,7 +19230,7 @@
         <v>438</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>391</v>
       </c>
       <c r="E17" t="s">
         <v>180</v>
@@ -18667,7 +19247,7 @@
         <v>428</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>420</v>
       </c>
       <c r="E18" t="s">
         <v>181</v>
@@ -18684,7 +19264,7 @@
         <v>362</v>
       </c>
       <c r="C19" t="s">
-        <v>261</v>
+        <v>34</v>
       </c>
       <c r="E19" t="s">
         <v>301</v>
@@ -18701,7 +19281,7 @@
         <v>401</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E20" t="s">
         <v>302</v>
@@ -18718,7 +19298,7 @@
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>326</v>
+        <v>261</v>
       </c>
       <c r="E21" t="s">
         <v>303</v>
@@ -18735,7 +19315,7 @@
         <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="E22" t="s">
         <v>304</v>
@@ -18752,7 +19332,7 @@
         <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>476</v>
+        <v>326</v>
       </c>
       <c r="E23" t="s">
         <v>295</v>
@@ -18769,7 +19349,7 @@
         <v>131</v>
       </c>
       <c r="C24" t="s">
-        <v>230</v>
+        <v>129</v>
       </c>
       <c r="E24" t="s">
         <v>284</v>
@@ -18783,7 +19363,7 @@
         <v>440</v>
       </c>
       <c r="C25" t="s">
-        <v>231</v>
+        <v>476</v>
       </c>
       <c r="E25" t="s">
         <v>156</v>
@@ -18797,7 +19377,7 @@
         <v>232</v>
       </c>
       <c r="C26" t="s">
-        <v>436</v>
+        <v>230</v>
       </c>
       <c r="E26" t="s">
         <v>287</v>
@@ -18808,7 +19388,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>159</v>
+        <v>231</v>
       </c>
       <c r="E27" t="s">
         <v>271</v>
@@ -18819,7 +19399,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>37</v>
+        <v>436</v>
       </c>
       <c r="E28" t="s">
         <v>288</v>
@@ -18830,7 +19410,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="E29" t="s">
         <v>289</v>
@@ -18841,7 +19421,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>160</v>
+        <v>37</v>
       </c>
       <c r="E30" t="s">
         <v>221</v>
@@ -18852,7 +19432,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>161</v>
+        <v>38</v>
       </c>
       <c r="E31" t="s">
         <v>280</v>
@@ -18863,7 +19443,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E32" t="s">
         <v>290</v>
@@ -18874,7 +19454,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>39</v>
+        <v>161</v>
       </c>
       <c r="E33" t="s">
         <v>265</v>
@@ -18885,7 +19465,7 @@
     </row>
     <row r="34">
       <c r="C34" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E34" t="s">
         <v>335</v>
@@ -18895,6 +19475,9 @@
       </c>
     </row>
     <row r="35">
+      <c r="C35" t="s">
+        <v>39</v>
+      </c>
       <c r="E35" t="s">
         <v>313</v>
       </c>
@@ -18903,6 +19486,9 @@
       </c>
     </row>
     <row r="36">
+      <c r="C36" t="s">
+        <v>155</v>
+      </c>
       <c r="E36" t="s">
         <v>266</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
@@ -41,7 +41,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$116</definedName>
+    <definedName name="web">'#system'!$U$2:$U$117</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13542" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14011" uniqueCount="489">
   <si>
     <t>description</t>
   </si>
@@ -1527,6 +1527,9 @@
   </si>
   <si>
     <t>assertArrayNotContain(array,unexpected)</t>
+  </si>
+  <si>
+    <t>deselect(locator,text)</t>
   </si>
 </sst>
 </file>
@@ -1534,7 +1537,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="437" x14ac:knownFonts="1">
+  <fonts count="452" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4283,8 +4286,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="769">
+  <fills count="796">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8638,8 +8735,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="797">
+  <borders count="825">
     <border>
       <left/>
       <right/>
@@ -9187,6 +9437,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -16666,7 +17198,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="456">
+  <cellXfs count="471">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -18014,49 +18546,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="421" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="422" fillId="744" borderId="776" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="423" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="776" fillId="744" fontId="422" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="423" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="424" fillId="747" borderId="780" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="780" fillId="747" fontId="424" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="425" fillId="750" borderId="784" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="784" fillId="750" fontId="425" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="426" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="427" fillId="753" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="753" fontId="427" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="428" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="429" fillId="756" borderId="788" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="430" fillId="759" borderId="792" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="431" fillId="762" borderId="796" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="432" fillId="762" borderId="796" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="433" fillId="765" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="434" fillId="768" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="435" fillId="765" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="436" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="428" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="788" fillId="756" fontId="429" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="792" fillId="759" fontId="430" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="796" fillId="762" fontId="431" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="796" fillId="762" fontId="432" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="765" fontId="433" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="768" fontId="434" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="765" fontId="435" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="436" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="437" fillId="771" borderId="804" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="438" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="439" fillId="774" borderId="808" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="440" fillId="777" borderId="812" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="442" fillId="780" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="443" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="444" fillId="783" borderId="816" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="445" fillId="786" borderId="820" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="446" fillId="789" borderId="824" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="447" fillId="789" borderId="824" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="448" fillId="792" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="449" fillId="795" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="450" fillId="792" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="451" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -18417,7 +18994,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA116"/>
+  <dimension ref="A1:AA117"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -19629,7 +20206,7 @@
         <v>273</v>
       </c>
       <c r="U53" t="s">
-        <v>77</v>
+        <v>488</v>
       </c>
     </row>
     <row r="54">
@@ -19637,7 +20214,7 @@
         <v>297</v>
       </c>
       <c r="U54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55">
@@ -19645,7 +20222,7 @@
         <v>298</v>
       </c>
       <c r="U55" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56">
@@ -19653,7 +20230,7 @@
         <v>299</v>
       </c>
       <c r="U56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57">
@@ -19661,7 +20238,7 @@
         <v>309</v>
       </c>
       <c r="U57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58">
@@ -19669,7 +20246,7 @@
         <v>318</v>
       </c>
       <c r="U58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59">
@@ -19677,7 +20254,7 @@
         <v>342</v>
       </c>
       <c r="U59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60">
@@ -19685,7 +20262,7 @@
         <v>315</v>
       </c>
       <c r="U60" t="s">
-        <v>465</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61">
@@ -19693,7 +20270,7 @@
         <v>316</v>
       </c>
       <c r="U61" t="s">
-        <v>219</v>
+        <v>465</v>
       </c>
     </row>
     <row r="62">
@@ -19701,7 +20278,7 @@
         <v>374</v>
       </c>
       <c r="U62" t="s">
-        <v>394</v>
+        <v>219</v>
       </c>
     </row>
     <row r="63">
@@ -19709,7 +20286,7 @@
         <v>375</v>
       </c>
       <c r="U63" t="s">
-        <v>470</v>
+        <v>394</v>
       </c>
     </row>
     <row r="64">
@@ -19717,7 +20294,7 @@
         <v>350</v>
       </c>
       <c r="U64" t="s">
-        <v>84</v>
+        <v>470</v>
       </c>
     </row>
     <row r="65">
@@ -19725,7 +20302,7 @@
         <v>319</v>
       </c>
       <c r="U65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66">
@@ -19733,7 +20310,7 @@
         <v>274</v>
       </c>
       <c r="U66" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67">
@@ -19741,7 +20318,7 @@
         <v>358</v>
       </c>
       <c r="U67" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68">
@@ -19749,7 +20326,7 @@
         <v>320</v>
       </c>
       <c r="U68" t="s">
-        <v>202</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69">
@@ -19757,7 +20334,7 @@
         <v>415</v>
       </c>
       <c r="U69" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70">
@@ -19765,7 +20342,7 @@
         <v>310</v>
       </c>
       <c r="U70" t="s">
-        <v>483</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71">
@@ -19773,7 +20350,7 @@
         <v>416</v>
       </c>
       <c r="U71" t="s">
-        <v>88</v>
+        <v>483</v>
       </c>
     </row>
     <row r="72">
@@ -19781,7 +20358,7 @@
         <v>267</v>
       </c>
       <c r="U72" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73">
@@ -19789,7 +20366,7 @@
         <v>349</v>
       </c>
       <c r="U73" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74">
@@ -19797,7 +20374,7 @@
         <v>285</v>
       </c>
       <c r="U74" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75">
@@ -19805,7 +20382,7 @@
         <v>291</v>
       </c>
       <c r="U75" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76">
@@ -19813,7 +20390,7 @@
         <v>296</v>
       </c>
       <c r="U76" t="s">
-        <v>204</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77">
@@ -19821,7 +20398,7 @@
         <v>446</v>
       </c>
       <c r="U77" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="78">
@@ -19829,7 +20406,7 @@
         <v>337</v>
       </c>
       <c r="U78" t="s">
-        <v>482</v>
+        <v>205</v>
       </c>
     </row>
     <row r="79">
@@ -19837,7 +20414,7 @@
         <v>275</v>
       </c>
       <c r="U79" t="s">
-        <v>206</v>
+        <v>482</v>
       </c>
     </row>
     <row r="80">
@@ -19845,7 +20422,7 @@
         <v>286</v>
       </c>
       <c r="U80" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="81">
@@ -19853,7 +20430,7 @@
         <v>292</v>
       </c>
       <c r="U81" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="82">
@@ -19861,7 +20438,7 @@
         <v>281</v>
       </c>
       <c r="U82" t="s">
-        <v>93</v>
+        <v>220</v>
       </c>
     </row>
     <row r="83">
@@ -19869,7 +20446,7 @@
         <v>276</v>
       </c>
       <c r="U83" t="s">
-        <v>208</v>
+        <v>93</v>
       </c>
     </row>
     <row r="84">
@@ -19877,7 +20454,7 @@
         <v>293</v>
       </c>
       <c r="U84" t="s">
-        <v>462</v>
+        <v>208</v>
       </c>
     </row>
     <row r="85">
@@ -19885,7 +20462,7 @@
         <v>277</v>
       </c>
       <c r="U85" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="86">
@@ -19893,7 +20470,7 @@
         <v>278</v>
       </c>
       <c r="U86" t="s">
-        <v>209</v>
+        <v>464</v>
       </c>
     </row>
     <row r="87">
@@ -19901,7 +20478,7 @@
         <v>311</v>
       </c>
       <c r="U87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="88">
@@ -19909,7 +20486,7 @@
         <v>317</v>
       </c>
       <c r="U88" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="89">
@@ -19917,7 +20494,7 @@
         <v>300</v>
       </c>
       <c r="U89" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="90">
@@ -19925,7 +20502,7 @@
         <v>345</v>
       </c>
       <c r="U90" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="91">
@@ -19933,7 +20510,7 @@
         <v>282</v>
       </c>
       <c r="U91" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
     </row>
     <row r="92">
@@ -19941,126 +20518,131 @@
         <v>283</v>
       </c>
       <c r="U92" t="s">
-        <v>95</v>
+        <v>213</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>388</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>96</v>
+        <v>388</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>471</v>
+        <v>108</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>109</v>
+        <v>471</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116">
       <c r="U116" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="U117" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
@@ -27,7 +27,7 @@
     <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$23</definedName>
+    <definedName name="io">'#system'!$I$2:$I$24</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
     <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
@@ -44,7 +44,7 @@
     <definedName name="web">'#system'!$U$2:$U$117</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
-    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
+    <definedName name="ws">'#system'!$X$2:$X$17</definedName>
     <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
     <definedName name="sound">'#system'!$R$2:$R$5</definedName>
     <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14011" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14482" uniqueCount="491">
   <si>
     <t>description</t>
   </si>
@@ -1530,6 +1530,12 @@
   </si>
   <si>
     <t>deselect(locator,text)</t>
+  </si>
+  <si>
+    <t>base64(var,file)</t>
+  </si>
+  <si>
+    <t>upload(url,body,fileParams,var)</t>
   </si>
 </sst>
 </file>
@@ -1537,7 +1543,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="452" x14ac:knownFonts="1">
+  <fonts count="468" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4380,8 +4386,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="796">
+  <fills count="823">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8888,8 +8995,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="825">
+  <borders count="853">
     <border>
       <left/>
       <right/>
@@ -9437,6 +9697,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -17198,7 +17740,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="471">
+  <cellXfs count="487">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -18591,49 +19133,97 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="436" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="437" fillId="771" borderId="804" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="438" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="804" fillId="771" fontId="437" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="438" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="439" fillId="774" borderId="808" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="808" fillId="774" fontId="439" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="440" fillId="777" borderId="812" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="812" fillId="777" fontId="440" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="441" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="442" fillId="780" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="780" fontId="442" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="443" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="444" fillId="783" borderId="816" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="445" fillId="786" borderId="820" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="446" fillId="789" borderId="824" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="447" fillId="789" borderId="824" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="448" fillId="792" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="449" fillId="795" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="450" fillId="792" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="451" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="443" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="816" fillId="783" fontId="444" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="820" fillId="786" fontId="445" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="824" fillId="789" fontId="446" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="824" fillId="789" fontId="447" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="792" fontId="448" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="795" fontId="449" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="792" fontId="450" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="451" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="452" fillId="798" borderId="832" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="453" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="454" fillId="801" borderId="836" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="455" fillId="804" borderId="840" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="456" fillId="807" borderId="840" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="457" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="458" fillId="810" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="459" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="460" fillId="813" borderId="844" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="461" fillId="816" borderId="848" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="462" fillId="819" borderId="852" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="463" fillId="819" borderId="852" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="464" fillId="807" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="465" fillId="822" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="466" fillId="807" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="467" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -19333,7 +19923,7 @@
         <v>353</v>
       </c>
       <c r="I5" t="s">
-        <v>176</v>
+        <v>489</v>
       </c>
       <c r="K5" t="s">
         <v>188</v>
@@ -19392,7 +19982,7 @@
         <v>479</v>
       </c>
       <c r="I6" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="K6" t="s">
         <v>189</v>
@@ -19448,7 +20038,7 @@
         <v>475</v>
       </c>
       <c r="I7" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="K7" t="s">
         <v>321</v>
@@ -19504,7 +20094,7 @@
         <v>333</v>
       </c>
       <c r="I8" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="K8" t="s">
         <v>190</v>
@@ -19557,7 +20147,7 @@
         <v>334</v>
       </c>
       <c r="I9" t="s">
-        <v>395</v>
+        <v>148</v>
       </c>
       <c r="K9" t="s">
         <v>191</v>
@@ -19598,7 +20188,7 @@
         <v>480</v>
       </c>
       <c r="I10" t="s">
-        <v>149</v>
+        <v>395</v>
       </c>
       <c r="K10" t="s">
         <v>192</v>
@@ -19636,7 +20226,7 @@
         <v>327</v>
       </c>
       <c r="I11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K11" t="s">
         <v>468</v>
@@ -19671,7 +20261,7 @@
         <v>328</v>
       </c>
       <c r="I12" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="K12" t="s">
         <v>193</v>
@@ -19703,7 +20293,7 @@
         <v>329</v>
       </c>
       <c r="I13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K13" t="s">
         <v>194</v>
@@ -19735,7 +20325,7 @@
         <v>330</v>
       </c>
       <c r="I14" t="s">
-        <v>485</v>
+        <v>171</v>
       </c>
       <c r="K14" t="s">
         <v>195</v>
@@ -19764,7 +20354,7 @@
         <v>270</v>
       </c>
       <c r="I15" t="s">
-        <v>172</v>
+        <v>485</v>
       </c>
       <c r="M15" t="s">
         <v>168</v>
@@ -19790,7 +20380,7 @@
         <v>323</v>
       </c>
       <c r="I16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N16" t="s">
         <v>257</v>
@@ -19813,10 +20403,13 @@
         <v>180</v>
       </c>
       <c r="I17" t="s">
-        <v>385</v>
+        <v>173</v>
       </c>
       <c r="U17" t="s">
         <v>49</v>
+      </c>
+      <c r="X17" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="18">
@@ -19830,7 +20423,7 @@
         <v>181</v>
       </c>
       <c r="I18" t="s">
-        <v>151</v>
+        <v>385</v>
       </c>
       <c r="U18" t="s">
         <v>50</v>
@@ -19847,7 +20440,7 @@
         <v>301</v>
       </c>
       <c r="I19" t="s">
-        <v>397</v>
+        <v>151</v>
       </c>
       <c r="U19" t="s">
         <v>51</v>
@@ -19864,7 +20457,7 @@
         <v>302</v>
       </c>
       <c r="I20" t="s">
-        <v>152</v>
+        <v>397</v>
       </c>
       <c r="U20" t="s">
         <v>52</v>
@@ -19881,7 +20474,7 @@
         <v>303</v>
       </c>
       <c r="I21" t="s">
-        <v>467</v>
+        <v>152</v>
       </c>
       <c r="U21" t="s">
         <v>53</v>
@@ -19898,7 +20491,7 @@
         <v>304</v>
       </c>
       <c r="I22" t="s">
-        <v>153</v>
+        <v>467</v>
       </c>
       <c r="U22" t="s">
         <v>54</v>
@@ -19915,7 +20508,7 @@
         <v>295</v>
       </c>
       <c r="I23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="U23" t="s">
         <v>55</v>
@@ -19930,6 +20523,9 @@
       </c>
       <c r="E24" t="s">
         <v>284</v>
+      </c>
+      <c r="I24" t="s">
+        <v>154</v>
       </c>
       <c r="U24" t="s">
         <v>56</v>

--- a/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
@@ -19,36 +19,37 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$36</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
+    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
-    <definedName name="external">'#system'!$G$2:$G$3</definedName>
-    <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$24</definedName>
-    <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$14</definedName>
-    <definedName name="mail">'#system'!$L$2:$L$2</definedName>
+    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
+    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
+    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
+    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$15</definedName>
-    <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
-    <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
-    <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
-    <definedName name="step">'#system'!$T$2:$T$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$117</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
-    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
-    <definedName name="ws">'#system'!$X$2:$X$17</definedName>
-    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
-    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
-    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
-    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="number">'#system'!$N$2:$N$15</definedName>
+    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
+    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
+    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
+    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
+    <definedName name="step">'#system'!$U$2:$U$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$27</definedName>
+    <definedName name="web">'#system'!$V$2:$V$117</definedName>
+    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
+    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
+    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
+    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
+    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14482" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14957" uniqueCount="494">
   <si>
     <t>description</t>
   </si>
@@ -1536,6 +1537,15 @@
   </si>
   <si>
     <t>upload(url,body,fileParams,var)</t>
+  </si>
+  <si>
+    <t>aws.ses</t>
+  </si>
+  <si>
+    <t>sendMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>sendTextMail(profile,to,subject,body)</t>
   </si>
 </sst>
 </file>
@@ -1543,7 +1553,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="468" x14ac:knownFonts="1">
+  <fonts count="484" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4487,8 +4497,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="823">
+  <fills count="850">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9148,8 +9259,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="853">
+  <borders count="881">
     <border>
       <left/>
       <right/>
@@ -9697,6 +9961,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -17740,7 +18286,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="487">
+  <cellXfs count="503">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -19178,52 +19724,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="451" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="452" fillId="798" borderId="832" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="453" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="832" fillId="798" fontId="452" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="453" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="454" fillId="801" borderId="836" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="836" fillId="801" fontId="454" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="455" fillId="804" borderId="840" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="840" fillId="804" fontId="455" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="456" fillId="807" borderId="840" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="840" fillId="807" fontId="456" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="457" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="457" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="458" fillId="810" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="810" fontId="458" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="459" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="460" fillId="813" borderId="844" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="461" fillId="816" borderId="848" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="462" fillId="819" borderId="852" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="463" fillId="819" borderId="852" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="464" fillId="807" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="465" fillId="822" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="466" fillId="807" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="467" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="459" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="844" fillId="813" fontId="460" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="848" fillId="816" fontId="461" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="852" fillId="819" fontId="462" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="852" fillId="819" fontId="463" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="807" fontId="464" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="822" fontId="465" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="807" fontId="466" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="467" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="468" fillId="825" borderId="860" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="469" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="470" fillId="828" borderId="864" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="471" fillId="831" borderId="868" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="472" fillId="834" borderId="868" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="474" fillId="837" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="475" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="476" fillId="840" borderId="872" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="477" fillId="843" borderId="876" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="478" fillId="846" borderId="880" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="479" fillId="846" borderId="880" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="480" fillId="834" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="481" fillId="849" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="482" fillId="834" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="483" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -19584,7 +20178,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA117"/>
+  <dimension ref="A1:AB117"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -19603,75 +20197,78 @@
         <v>376</v>
       </c>
       <c r="C1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>174</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>175</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>143</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>352</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>144</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>338</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>185</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>196</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>128</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>244</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>184</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>405</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>438</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>428</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>362</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>401</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>29</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>30</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>31</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>131</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>440</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>232</v>
       </c>
     </row>
@@ -19683,1562 +20280,1571 @@
         <v>377</v>
       </c>
       <c r="C2" t="s">
+        <v>492</v>
+      </c>
+      <c r="D2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>176</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>157</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>477</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>145</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>354</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>321</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>389</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>447</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>421</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>448</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>258</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>222</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>406</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>439</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>437</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>386</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>402</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>40</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>117</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>122</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>132</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>458</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>491</v>
       </c>
       <c r="B3" t="s">
         <v>378</v>
       </c>
       <c r="C3" t="s">
+        <v>493</v>
+      </c>
+      <c r="D3" t="s">
         <v>486</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>370</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>179</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>178</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>146</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>355</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>346</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>339</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>186</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>449</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>245</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>223</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>407</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>431</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>387</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>403</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>41</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>118</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>123</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>369</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>133</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>379</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>177</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>392</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>478</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>356</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>243</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>340</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>187</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>19</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>246</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>224</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>408</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>434</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>363</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>404</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>359</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>119</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>124</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>133</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>441</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>174</v>
       </c>
       <c r="B5" t="s">
         <v>380</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>487</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>466</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>341</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>484</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>353</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>489</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>188</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>21</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>247</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>225</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>409</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>435</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>364</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>360</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>120</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>125</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>134</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>442</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>381</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>393</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>479</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>176</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>189</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>22</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>248</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>396</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>410</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>366</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>42</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>472</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>126</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>135</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>443</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="B7" t="s">
         <v>382</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>229</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>371</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>475</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>147</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>321</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>24</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>249</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>429</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>411</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>365</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>43</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>473</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>130</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>136</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>444</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>352</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s">
         <v>383</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>324</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>372</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>333</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>169</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>190</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>163</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>250</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>412</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>367</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>44</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>121</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>127</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>137</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>445</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>352</v>
       </c>
       <c r="B9" t="s">
         <v>384</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>312</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>334</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>148</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>191</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>164</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>251</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>413</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>368</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>214</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>182</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>338</v>
-      </c>
-      <c r="C10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" t="s">
         <v>321</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>357</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>480</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>395</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>192</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>459</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>252</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>414</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>262</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>183</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>185</v>
-      </c>
-      <c r="C11" t="s">
+        <v>338</v>
+      </c>
+      <c r="D11" t="s">
         <v>260</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>279</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>327</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>149</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>468</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>165</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>253</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>263</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>264</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>196</v>
-      </c>
-      <c r="C12" t="s">
+        <v>185</v>
+      </c>
+      <c r="D12" t="s">
         <v>325</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>268</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>328</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>150</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>193</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>26</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>254</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>45</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D13" t="s">
         <v>346</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>322</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>329</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>170</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>194</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>166</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>259</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>331</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>244</v>
-      </c>
-      <c r="C14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>269</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>330</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>171</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>195</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>167</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>255</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>46</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>184</v>
-      </c>
-      <c r="C15" t="s">
+        <v>244</v>
+      </c>
+      <c r="D15" t="s">
         <v>33</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>270</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>485</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>168</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>256</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>47</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>405</v>
-      </c>
-      <c r="C16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" t="s">
         <v>390</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>323</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>172</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>257</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>48</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>438</v>
-      </c>
-      <c r="C17" t="s">
+        <v>405</v>
+      </c>
+      <c r="D17" t="s">
         <v>391</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>180</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>173</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>49</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>428</v>
-      </c>
-      <c r="C18" t="s">
+        <v>438</v>
+      </c>
+      <c r="D18" t="s">
         <v>420</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>181</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>385</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>362</v>
-      </c>
-      <c r="C19" t="s">
+        <v>428</v>
+      </c>
+      <c r="D19" t="s">
         <v>34</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>301</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>151</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>401</v>
-      </c>
-      <c r="C20" t="s">
+        <v>362</v>
+      </c>
+      <c r="D20" t="s">
         <v>35</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>302</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>397</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" t="s">
+        <v>401</v>
+      </c>
+      <c r="D21" t="s">
         <v>261</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>303</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>152</v>
       </c>
-      <c r="U21" t="s">
+      <c r="V21" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" t="s">
         <v>36</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>304</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>467</v>
       </c>
-      <c r="U22" t="s">
+      <c r="V22" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
         <v>326</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>295</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>153</v>
       </c>
-      <c r="U23" t="s">
+      <c r="V23" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>131</v>
-      </c>
-      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" t="s">
         <v>129</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>284</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>154</v>
       </c>
-      <c r="U24" t="s">
+      <c r="V24" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>440</v>
-      </c>
-      <c r="C25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" t="s">
         <v>476</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>156</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>232</v>
-      </c>
-      <c r="C26" t="s">
+        <v>440</v>
+      </c>
+      <c r="D26" t="s">
         <v>230</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>287</v>
       </c>
-      <c r="U26" t="s">
+      <c r="V26" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="27">
-      <c r="C27" t="s">
+      <c r="A27" t="s">
+        <v>232</v>
+      </c>
+      <c r="D27" t="s">
         <v>231</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>271</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="28">
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>436</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>288</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="29">
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>159</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>289</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="30">
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>37</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>221</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="31">
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>38</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>280</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="32">
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>160</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>290</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="33">
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>161</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>265</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="34">
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>162</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>335</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="35">
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>39</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>313</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="36">
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>155</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>266</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>314</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>272</v>
       </c>
-      <c r="U38" t="s">
+      <c r="V38" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>158</v>
       </c>
-      <c r="U39" t="s">
+      <c r="V39" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="40">
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>217</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="41">
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>294</v>
       </c>
-      <c r="U41" t="s">
+      <c r="V41" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="42">
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>305</v>
       </c>
-      <c r="U42" t="s">
+      <c r="V42" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="43">
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>306</v>
       </c>
-      <c r="U43" t="s">
+      <c r="V43" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="44">
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>348</v>
       </c>
-      <c r="U44" t="s">
+      <c r="V44" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="45">
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>347</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="46">
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>216</v>
       </c>
-      <c r="U46" t="s">
+      <c r="V46" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="47">
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>307</v>
       </c>
-      <c r="U47" t="s">
+      <c r="V47" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="48">
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>344</v>
       </c>
-      <c r="U48" t="s">
+      <c r="V48" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="49">
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>373</v>
       </c>
-      <c r="U49" t="s">
+      <c r="V49" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="50">
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>308</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="51">
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>361</v>
       </c>
-      <c r="U51" t="s">
+      <c r="V51" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="52">
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>336</v>
       </c>
-      <c r="U52" t="s">
+      <c r="V52" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="53">
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>273</v>
       </c>
-      <c r="U53" t="s">
+      <c r="V53" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="54">
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>297</v>
       </c>
-      <c r="U54" t="s">
+      <c r="V54" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="55">
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>298</v>
       </c>
-      <c r="U55" t="s">
+      <c r="V55" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="56">
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>299</v>
       </c>
-      <c r="U56" t="s">
+      <c r="V56" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="57">
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>309</v>
       </c>
-      <c r="U57" t="s">
+      <c r="V57" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="58">
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>318</v>
       </c>
-      <c r="U58" t="s">
+      <c r="V58" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="59">
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>342</v>
       </c>
-      <c r="U59" t="s">
+      <c r="V59" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="60">
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>315</v>
       </c>
-      <c r="U60" t="s">
+      <c r="V60" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="61">
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>316</v>
       </c>
-      <c r="U61" t="s">
+      <c r="V61" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="62">
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>374</v>
       </c>
-      <c r="U62" t="s">
+      <c r="V62" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="63">
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>375</v>
       </c>
-      <c r="U63" t="s">
+      <c r="V63" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="64">
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>350</v>
       </c>
-      <c r="U64" t="s">
+      <c r="V64" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="65">
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>319</v>
       </c>
-      <c r="U65" t="s">
+      <c r="V65" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="66">
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>274</v>
       </c>
-      <c r="U66" t="s">
+      <c r="V66" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="67">
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>358</v>
       </c>
-      <c r="U67" t="s">
+      <c r="V67" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="68">
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>320</v>
       </c>
-      <c r="U68" t="s">
+      <c r="V68" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="69">
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>415</v>
       </c>
-      <c r="U69" t="s">
+      <c r="V69" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="70">
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>310</v>
       </c>
-      <c r="U70" t="s">
+      <c r="V70" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="71">
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>416</v>
       </c>
-      <c r="U71" t="s">
+      <c r="V71" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="72">
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>267</v>
       </c>
-      <c r="U72" t="s">
+      <c r="V72" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="73">
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>349</v>
       </c>
-      <c r="U73" t="s">
+      <c r="V73" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="74">
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>285</v>
       </c>
-      <c r="U74" t="s">
+      <c r="V74" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="75">
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>291</v>
       </c>
-      <c r="U75" t="s">
+      <c r="V75" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="76">
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>296</v>
       </c>
-      <c r="U76" t="s">
+      <c r="V76" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="77">
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>446</v>
       </c>
-      <c r="U77" t="s">
+      <c r="V77" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="78">
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>337</v>
       </c>
-      <c r="U78" t="s">
+      <c r="V78" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="79">
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>275</v>
       </c>
-      <c r="U79" t="s">
+      <c r="V79" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="80">
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>286</v>
       </c>
-      <c r="U80" t="s">
+      <c r="V80" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="81">
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>292</v>
       </c>
-      <c r="U81" t="s">
+      <c r="V81" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="82">
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>281</v>
       </c>
-      <c r="U82" t="s">
+      <c r="V82" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="83">
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>276</v>
       </c>
-      <c r="U83" t="s">
+      <c r="V83" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="84">
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>293</v>
       </c>
-      <c r="U84" t="s">
+      <c r="V84" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="85">
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>277</v>
       </c>
-      <c r="U85" t="s">
+      <c r="V85" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="86">
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>278</v>
       </c>
-      <c r="U86" t="s">
+      <c r="V86" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="87">
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>311</v>
       </c>
-      <c r="U87" t="s">
+      <c r="V87" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="88">
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>317</v>
       </c>
-      <c r="U88" t="s">
+      <c r="V88" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="89">
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>300</v>
       </c>
-      <c r="U89" t="s">
+      <c r="V89" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="90">
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>345</v>
       </c>
-      <c r="U90" t="s">
+      <c r="V90" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="91">
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>282</v>
       </c>
-      <c r="U91" t="s">
+      <c r="V91" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="92">
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>283</v>
       </c>
-      <c r="U92" t="s">
+      <c r="V92" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="93">
-      <c r="U93" t="s">
+      <c r="V93" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="94">
-      <c r="U94" t="s">
+      <c r="V94" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="95">
-      <c r="U95" t="s">
+      <c r="V95" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="96">
-      <c r="U96" t="s">
+      <c r="V96" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="97">
-      <c r="U97" t="s">
+      <c r="V97" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="98">
-      <c r="U98" t="s">
+      <c r="V98" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="99">
-      <c r="U99" t="s">
+      <c r="V99" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="100">
-      <c r="U100" t="s">
+      <c r="V100" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="101">
-      <c r="U101" t="s">
+      <c r="V101" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="102">
-      <c r="U102" t="s">
+      <c r="V102" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="103">
-      <c r="U103" t="s">
+      <c r="V103" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="104">
-      <c r="U104" t="s">
+      <c r="V104" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="105">
-      <c r="U105" t="s">
+      <c r="V105" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="106">
-      <c r="U106" t="s">
+      <c r="V106" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="107">
-      <c r="U107" t="s">
+      <c r="V107" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="108">
-      <c r="U108" t="s">
+      <c r="V108" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="109">
-      <c r="U109" t="s">
+      <c r="V109" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="110">
-      <c r="U110" t="s">
+      <c r="V110" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="111">
-      <c r="U111" t="s">
+      <c r="V111" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="112">
-      <c r="U112" t="s">
+      <c r="V112" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="113">
-      <c r="U113" t="s">
+      <c r="V113" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="114">
-      <c r="U114" t="s">
+      <c r="V114" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="115">
-      <c r="U115" t="s">
+      <c r="V115" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="116">
-      <c r="U116" t="s">
+      <c r="V116" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="117">
-      <c r="U117" t="s">
+      <c r="V117" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
@@ -41,7 +41,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$117</definedName>
+    <definedName name="web">'#system'!$V$2:$V$118</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14957" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15433" uniqueCount="496">
   <si>
     <t>description</t>
   </si>
@@ -1546,6 +1546,12 @@
   </si>
   <si>
     <t>sendTextMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>sendHtmlMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>clickWithKeys(locator,keys)</t>
   </si>
 </sst>
 </file>
@@ -1553,7 +1559,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="484" x14ac:knownFonts="1">
+  <fonts count="500" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4598,8 +4604,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="850">
+  <fills count="877">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9412,8 +9519,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="881">
+  <borders count="909">
     <border>
       <left/>
       <right/>
@@ -9961,6 +10221,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -18286,7 +18828,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="503">
+  <cellXfs count="519">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -19772,52 +20314,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="467" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="468" fillId="825" borderId="860" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="469" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="860" fillId="825" fontId="468" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="469" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="470" fillId="828" borderId="864" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="864" fillId="828" fontId="470" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="471" fillId="831" borderId="868" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="868" fillId="831" fontId="471" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="472" fillId="834" borderId="868" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="868" fillId="834" fontId="472" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="473" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="474" fillId="837" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="837" fontId="474" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="475" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="476" fillId="840" borderId="872" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="477" fillId="843" borderId="876" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="478" fillId="846" borderId="880" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="479" fillId="846" borderId="880" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="480" fillId="834" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="481" fillId="849" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="482" fillId="834" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="483" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="475" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="872" fillId="840" fontId="476" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="876" fillId="843" fontId="477" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="880" fillId="846" fontId="478" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="880" fillId="846" fontId="479" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="834" fontId="480" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="849" fontId="481" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="834" fontId="482" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="483" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="484" fillId="852" borderId="888" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="485" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="486" fillId="855" borderId="892" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="487" fillId="858" borderId="896" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="488" fillId="861" borderId="896" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="489" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="490" fillId="864" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="491" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="492" fillId="867" borderId="900" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="493" fillId="870" borderId="904" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="494" fillId="873" borderId="908" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="495" fillId="873" borderId="908" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="496" fillId="861" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="497" fillId="876" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="498" fillId="861" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="499" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -20178,7 +20768,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB117"/>
+  <dimension ref="A1:AB118"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -20280,7 +20870,7 @@
         <v>377</v>
       </c>
       <c r="C2" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D2" t="s">
         <v>32</v>
@@ -21392,7 +21982,7 @@
         <v>361</v>
       </c>
       <c r="V51" t="s">
-        <v>76</v>
+        <v>495</v>
       </c>
     </row>
     <row r="52">
@@ -21400,7 +21990,7 @@
         <v>336</v>
       </c>
       <c r="V52" t="s">
-        <v>351</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53">
@@ -21408,7 +21998,7 @@
         <v>273</v>
       </c>
       <c r="V53" t="s">
-        <v>488</v>
+        <v>351</v>
       </c>
     </row>
     <row r="54">
@@ -21416,7 +22006,7 @@
         <v>297</v>
       </c>
       <c r="V54" t="s">
-        <v>77</v>
+        <v>488</v>
       </c>
     </row>
     <row r="55">
@@ -21424,7 +22014,7 @@
         <v>298</v>
       </c>
       <c r="V55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56">
@@ -21432,7 +22022,7 @@
         <v>299</v>
       </c>
       <c r="V56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57">
@@ -21440,7 +22030,7 @@
         <v>309</v>
       </c>
       <c r="V57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58">
@@ -21448,7 +22038,7 @@
         <v>318</v>
       </c>
       <c r="V58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59">
@@ -21456,7 +22046,7 @@
         <v>342</v>
       </c>
       <c r="V59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60">
@@ -21464,7 +22054,7 @@
         <v>315</v>
       </c>
       <c r="V60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61">
@@ -21472,7 +22062,7 @@
         <v>316</v>
       </c>
       <c r="V61" t="s">
-        <v>465</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62">
@@ -21480,7 +22070,7 @@
         <v>374</v>
       </c>
       <c r="V62" t="s">
-        <v>219</v>
+        <v>465</v>
       </c>
     </row>
     <row r="63">
@@ -21488,7 +22078,7 @@
         <v>375</v>
       </c>
       <c r="V63" t="s">
-        <v>394</v>
+        <v>219</v>
       </c>
     </row>
     <row r="64">
@@ -21496,7 +22086,7 @@
         <v>350</v>
       </c>
       <c r="V64" t="s">
-        <v>470</v>
+        <v>394</v>
       </c>
     </row>
     <row r="65">
@@ -21504,7 +22094,7 @@
         <v>319</v>
       </c>
       <c r="V65" t="s">
-        <v>84</v>
+        <v>470</v>
       </c>
     </row>
     <row r="66">
@@ -21512,7 +22102,7 @@
         <v>274</v>
       </c>
       <c r="V66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67">
@@ -21520,7 +22110,7 @@
         <v>358</v>
       </c>
       <c r="V67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68">
@@ -21528,7 +22118,7 @@
         <v>320</v>
       </c>
       <c r="V68" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69">
@@ -21536,7 +22126,7 @@
         <v>415</v>
       </c>
       <c r="V69" t="s">
-        <v>202</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70">
@@ -21544,7 +22134,7 @@
         <v>310</v>
       </c>
       <c r="V70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71">
@@ -21552,7 +22142,7 @@
         <v>416</v>
       </c>
       <c r="V71" t="s">
-        <v>483</v>
+        <v>203</v>
       </c>
     </row>
     <row r="72">
@@ -21560,7 +22150,7 @@
         <v>267</v>
       </c>
       <c r="V72" t="s">
-        <v>88</v>
+        <v>483</v>
       </c>
     </row>
     <row r="73">
@@ -21568,7 +22158,7 @@
         <v>349</v>
       </c>
       <c r="V73" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74">
@@ -21576,7 +22166,7 @@
         <v>285</v>
       </c>
       <c r="V74" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75">
@@ -21584,7 +22174,7 @@
         <v>291</v>
       </c>
       <c r="V75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76">
@@ -21592,7 +22182,7 @@
         <v>296</v>
       </c>
       <c r="V76" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77">
@@ -21600,7 +22190,7 @@
         <v>446</v>
       </c>
       <c r="V77" t="s">
-        <v>204</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78">
@@ -21608,7 +22198,7 @@
         <v>337</v>
       </c>
       <c r="V78" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="79">
@@ -21616,7 +22206,7 @@
         <v>275</v>
       </c>
       <c r="V79" t="s">
-        <v>482</v>
+        <v>205</v>
       </c>
     </row>
     <row r="80">
@@ -21624,7 +22214,7 @@
         <v>286</v>
       </c>
       <c r="V80" t="s">
-        <v>206</v>
+        <v>482</v>
       </c>
     </row>
     <row r="81">
@@ -21632,7 +22222,7 @@
         <v>292</v>
       </c>
       <c r="V81" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="82">
@@ -21640,7 +22230,7 @@
         <v>281</v>
       </c>
       <c r="V82" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="83">
@@ -21648,7 +22238,7 @@
         <v>276</v>
       </c>
       <c r="V83" t="s">
-        <v>93</v>
+        <v>220</v>
       </c>
     </row>
     <row r="84">
@@ -21656,7 +22246,7 @@
         <v>293</v>
       </c>
       <c r="V84" t="s">
-        <v>208</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85">
@@ -21664,7 +22254,7 @@
         <v>277</v>
       </c>
       <c r="V85" t="s">
-        <v>462</v>
+        <v>208</v>
       </c>
     </row>
     <row r="86">
@@ -21672,7 +22262,7 @@
         <v>278</v>
       </c>
       <c r="V86" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="87">
@@ -21680,7 +22270,7 @@
         <v>311</v>
       </c>
       <c r="V87" t="s">
-        <v>209</v>
+        <v>464</v>
       </c>
     </row>
     <row r="88">
@@ -21688,7 +22278,7 @@
         <v>317</v>
       </c>
       <c r="V88" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89">
@@ -21696,7 +22286,7 @@
         <v>300</v>
       </c>
       <c r="V89" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="90">
@@ -21704,7 +22294,7 @@
         <v>345</v>
       </c>
       <c r="V90" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="91">
@@ -21712,7 +22302,7 @@
         <v>282</v>
       </c>
       <c r="V91" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="92">
@@ -21720,131 +22310,136 @@
         <v>283</v>
       </c>
       <c r="V92" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>95</v>
+        <v>213</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>388</v>
+        <v>95</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>96</v>
+        <v>388</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>471</v>
+        <v>108</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>109</v>
+        <v>471</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="V118" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
@@ -26,7 +26,7 @@
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
-    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$24</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15433" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16865" uniqueCount="499">
   <si>
     <t>description</t>
   </si>
@@ -1552,6 +1552,15 @@
   </si>
   <si>
     <t>clickWithKeys(locator,keys)</t>
+  </si>
+  <si>
+    <t>colorbit(image,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>saveDiff(baseline,actual,saveTo)</t>
+  </si>
+  <si>
+    <t>colorbit(source,bit,saveTo)</t>
   </si>
 </sst>
 </file>
@@ -1559,7 +1568,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="500" x14ac:knownFonts="1">
+  <fonts count="548" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4705,8 +4714,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="877">
+  <fills count="958">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9672,8 +9984,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="909">
+  <borders count="993">
     <border>
       <left/>
       <right/>
@@ -10221,6 +10992,852 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -18828,7 +20445,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="519">
+  <cellXfs count="567">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -20362,52 +21979,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="483" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="484" fillId="852" borderId="888" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="485" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="888" fillId="852" fontId="484" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="485" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="486" fillId="855" borderId="892" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="892" fillId="855" fontId="486" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="487" fillId="858" borderId="896" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="896" fillId="858" fontId="487" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="488" fillId="861" borderId="896" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="896" fillId="861" fontId="488" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="489" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="489" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="490" fillId="864" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="864" fontId="490" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="491" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="492" fillId="867" borderId="900" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="493" fillId="870" borderId="904" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="494" fillId="873" borderId="908" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="495" fillId="873" borderId="908" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="496" fillId="861" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="497" fillId="876" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="498" fillId="861" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="499" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="491" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="900" fillId="867" fontId="492" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="904" fillId="870" fontId="493" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="908" fillId="873" fontId="494" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="908" fillId="873" fontId="495" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="861" fontId="496" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="876" fontId="497" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="861" fontId="498" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="499" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="916" fillId="879" fontId="500" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="501" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="920" fillId="882" fontId="502" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="924" fillId="885" fontId="503" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="924" fillId="888" fontId="504" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="505" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="891" fontId="506" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="507" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="928" fillId="894" fontId="508" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="932" fillId="897" fontId="509" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="936" fillId="900" fontId="510" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="936" fillId="900" fontId="511" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="888" fontId="512" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="903" fontId="513" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="888" fontId="514" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="515" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="944" fillId="906" fontId="516" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="517" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="948" fillId="909" fontId="518" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="952" fillId="912" fontId="519" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="952" fillId="915" fontId="520" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="521" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="918" fontId="522" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="523" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="956" fillId="921" fontId="524" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="960" fillId="924" fontId="525" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="964" fillId="927" fontId="526" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="964" fillId="927" fontId="527" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="915" fontId="528" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="930" fontId="529" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="915" fontId="530" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="531" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="532" fillId="933" borderId="972" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="533" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="534" fillId="936" borderId="976" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="535" fillId="939" borderId="980" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="536" fillId="942" borderId="980" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="537" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="538" fillId="945" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="539" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="540" fillId="948" borderId="984" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="541" fillId="951" borderId="988" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="542" fillId="954" borderId="992" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="543" fillId="954" borderId="992" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="544" fillId="942" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="545" fillId="957" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="546" fillId="942" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="547" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -20888,7 +22649,7 @@
         <v>145</v>
       </c>
       <c r="I2" t="s">
-        <v>354</v>
+        <v>498</v>
       </c>
       <c r="J2" t="s">
         <v>321</v>
@@ -20971,7 +22732,7 @@
         <v>146</v>
       </c>
       <c r="I3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J3" t="s">
         <v>346</v>
@@ -21042,7 +22803,7 @@
         <v>478</v>
       </c>
       <c r="I4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J4" t="s">
         <v>243</v>
@@ -21113,7 +22874,7 @@
         <v>484</v>
       </c>
       <c r="I5" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="J5" t="s">
         <v>489</v>
@@ -21173,6 +22934,9 @@
       </c>
       <c r="G6" t="s">
         <v>479</v>
+      </c>
+      <c r="I6" t="s">
+        <v>353</v>
       </c>
       <c r="J6" t="s">
         <v>176</v>

--- a/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
@@ -41,7 +41,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$118</definedName>
+    <definedName name="web">'#system'!$V$2:$V$119</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16865" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17343" uniqueCount="500">
   <si>
     <t>description</t>
   </si>
@@ -1561,6 +1561,9 @@
   </si>
   <si>
     <t>colorbit(source,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>openIgnoreTimeout(url)</t>
   </si>
 </sst>
 </file>
@@ -1568,7 +1571,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="548" x14ac:knownFonts="1">
+  <fonts count="564" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5017,8 +5020,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="958">
+  <fills count="985">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10443,8 +10547,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="993">
+  <borders count="1021">
     <border>
       <left/>
       <right/>
@@ -10992,6 +11249,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -20445,7 +20984,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="567">
+  <cellXfs count="583">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -22123,52 +22662,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="531" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="532" fillId="933" borderId="972" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="533" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="972" fillId="933" fontId="532" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="533" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="534" fillId="936" borderId="976" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="976" fillId="936" fontId="534" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="535" fillId="939" borderId="980" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="980" fillId="939" fontId="535" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="536" fillId="942" borderId="980" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="980" fillId="942" fontId="536" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="537" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="537" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="538" fillId="945" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="945" fontId="538" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="539" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="540" fillId="948" borderId="984" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="541" fillId="951" borderId="988" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="542" fillId="954" borderId="992" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="543" fillId="954" borderId="992" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="544" fillId="942" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="545" fillId="957" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="546" fillId="942" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="547" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="539" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="984" fillId="948" fontId="540" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="988" fillId="951" fontId="541" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="992" fillId="954" fontId="542" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="992" fillId="954" fontId="543" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="942" fontId="544" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="957" fontId="545" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="942" fontId="546" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="547" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="548" fillId="960" borderId="1000" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="549" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="550" fillId="963" borderId="1004" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="551" fillId="966" borderId="1008" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="552" fillId="969" borderId="1008" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="553" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="554" fillId="972" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="555" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="556" fillId="975" borderId="1012" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="557" fillId="978" borderId="1016" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="558" fillId="981" borderId="1020" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="559" fillId="981" borderId="1020" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="560" fillId="969" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="561" fillId="984" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="562" fillId="969" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="563" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -22529,7 +23116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB118"/>
+  <dimension ref="A1:AB119"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -23922,7 +24509,7 @@
         <v>349</v>
       </c>
       <c r="V73" t="s">
-        <v>88</v>
+        <v>499</v>
       </c>
     </row>
     <row r="74">
@@ -23930,7 +24517,7 @@
         <v>285</v>
       </c>
       <c r="V74" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75">
@@ -23938,7 +24525,7 @@
         <v>291</v>
       </c>
       <c r="V75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76">
@@ -23946,7 +24533,7 @@
         <v>296</v>
       </c>
       <c r="V76" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77">
@@ -23954,7 +24541,7 @@
         <v>446</v>
       </c>
       <c r="V77" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78">
@@ -23962,7 +24549,7 @@
         <v>337</v>
       </c>
       <c r="V78" t="s">
-        <v>204</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79">
@@ -23970,7 +24557,7 @@
         <v>275</v>
       </c>
       <c r="V79" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="80">
@@ -23978,7 +24565,7 @@
         <v>286</v>
       </c>
       <c r="V80" t="s">
-        <v>482</v>
+        <v>205</v>
       </c>
     </row>
     <row r="81">
@@ -23986,7 +24573,7 @@
         <v>292</v>
       </c>
       <c r="V81" t="s">
-        <v>206</v>
+        <v>482</v>
       </c>
     </row>
     <row r="82">
@@ -23994,7 +24581,7 @@
         <v>281</v>
       </c>
       <c r="V82" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="83">
@@ -24002,7 +24589,7 @@
         <v>276</v>
       </c>
       <c r="V83" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="84">
@@ -24010,7 +24597,7 @@
         <v>293</v>
       </c>
       <c r="V84" t="s">
-        <v>93</v>
+        <v>220</v>
       </c>
     </row>
     <row r="85">
@@ -24018,7 +24605,7 @@
         <v>277</v>
       </c>
       <c r="V85" t="s">
-        <v>208</v>
+        <v>93</v>
       </c>
     </row>
     <row r="86">
@@ -24026,7 +24613,7 @@
         <v>278</v>
       </c>
       <c r="V86" t="s">
-        <v>462</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87">
@@ -24034,7 +24621,7 @@
         <v>311</v>
       </c>
       <c r="V87" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="88">
@@ -24042,7 +24629,7 @@
         <v>317</v>
       </c>
       <c r="V88" t="s">
-        <v>209</v>
+        <v>464</v>
       </c>
     </row>
     <row r="89">
@@ -24050,7 +24637,7 @@
         <v>300</v>
       </c>
       <c r="V89" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="90">
@@ -24058,7 +24645,7 @@
         <v>345</v>
       </c>
       <c r="V90" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="91">
@@ -24066,7 +24653,7 @@
         <v>282</v>
       </c>
       <c r="V91" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="92">
@@ -24074,136 +24661,141 @@
         <v>283</v>
       </c>
       <c r="V92" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>95</v>
+        <v>213</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>388</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>96</v>
+        <v>388</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>471</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>109</v>
+        <v>471</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="V119" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="base">'#system'!$D$2:$D$38</definedName>
     <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -27,7 +27,7 @@
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17343" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18782" uniqueCount="503">
   <si>
     <t>description</t>
   </si>
@@ -1564,6 +1564,15 @@
   </si>
   <si>
     <t>openIgnoreTimeout(url)</t>
+  </si>
+  <si>
+    <t>saveVariablesByPrefix(var,prefix)</t>
+  </si>
+  <si>
+    <t>saveVariablesByRegex(var,regex)</t>
+  </si>
+  <si>
+    <t>searchAndReplace(file,config,saveAs)</t>
   </si>
 </sst>
 </file>
@@ -1571,7 +1580,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="564" x14ac:knownFonts="1">
+  <fonts count="612" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5121,8 +5130,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="985">
+  <fills count="1066">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10700,8 +11012,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1021">
+  <borders count="1105">
     <border>
       <left/>
       <right/>
@@ -11249,6 +12020,852 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -20984,7 +22601,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="583">
+  <cellXfs count="631">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -22710,52 +24327,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="547" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="548" fillId="960" borderId="1000" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="549" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1000" fillId="960" fontId="548" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="549" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="550" fillId="963" borderId="1004" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1004" fillId="963" fontId="550" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="551" fillId="966" borderId="1008" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1008" fillId="966" fontId="551" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="552" fillId="969" borderId="1008" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1008" fillId="969" fontId="552" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="553" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="553" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="554" fillId="972" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="972" fontId="554" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="555" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="556" fillId="975" borderId="1012" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="557" fillId="978" borderId="1016" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="558" fillId="981" borderId="1020" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="559" fillId="981" borderId="1020" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="560" fillId="969" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="561" fillId="984" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="562" fillId="969" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="563" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="555" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1012" fillId="975" fontId="556" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1016" fillId="978" fontId="557" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1020" fillId="981" fontId="558" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1020" fillId="981" fontId="559" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="969" fontId="560" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="984" fontId="561" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="969" fontId="562" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="563" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1028" fillId="987" fontId="564" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="565" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1032" fillId="990" fontId="566" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1036" fillId="993" fontId="567" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1036" fillId="996" fontId="568" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="569" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="999" fontId="570" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="571" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1040" fillId="1002" fontId="572" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1044" fillId="1005" fontId="573" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1048" fillId="1008" fontId="574" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1048" fillId="1008" fontId="575" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="996" fontId="576" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1011" fontId="577" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="996" fontId="578" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="579" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1056" fillId="1014" fontId="580" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="581" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1060" fillId="1017" fontId="582" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1064" fillId="1020" fontId="583" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1064" fillId="1023" fontId="584" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="585" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1026" fontId="586" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="587" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1068" fillId="1029" fontId="588" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1072" fillId="1032" fontId="589" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1076" fillId="1035" fontId="590" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1076" fillId="1035" fontId="591" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1023" fontId="592" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1038" fontId="593" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1023" fontId="594" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="595" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="596" fillId="1041" borderId="1084" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="597" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="598" fillId="1044" borderId="1088" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="599" fillId="1047" borderId="1092" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="600" fillId="1050" borderId="1092" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="601" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="602" fillId="1053" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="603" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="604" fillId="1056" borderId="1096" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="605" fillId="1059" borderId="1100" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="606" fillId="1062" borderId="1104" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="607" fillId="1062" borderId="1104" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="608" fillId="1050" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="609" fillId="1065" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="610" fillId="1050" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="611" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -23984,7 +25745,7 @@
         <v>301</v>
       </c>
       <c r="J19" t="s">
-        <v>151</v>
+        <v>502</v>
       </c>
       <c r="V19" t="s">
         <v>51</v>
@@ -24001,7 +25762,7 @@
         <v>302</v>
       </c>
       <c r="J20" t="s">
-        <v>397</v>
+        <v>151</v>
       </c>
       <c r="V20" t="s">
         <v>52</v>
@@ -24018,7 +25779,7 @@
         <v>303</v>
       </c>
       <c r="J21" t="s">
-        <v>152</v>
+        <v>397</v>
       </c>
       <c r="V21" t="s">
         <v>53</v>
@@ -24035,7 +25796,7 @@
         <v>304</v>
       </c>
       <c r="J22" t="s">
-        <v>467</v>
+        <v>152</v>
       </c>
       <c r="V22" t="s">
         <v>54</v>
@@ -24052,7 +25813,7 @@
         <v>295</v>
       </c>
       <c r="J23" t="s">
-        <v>153</v>
+        <v>467</v>
       </c>
       <c r="V23" t="s">
         <v>55</v>
@@ -24069,7 +25830,7 @@
         <v>284</v>
       </c>
       <c r="J24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V24" t="s">
         <v>56</v>
@@ -24085,6 +25846,9 @@
       <c r="F25" t="s">
         <v>156</v>
       </c>
+      <c r="J25" t="s">
+        <v>154</v>
+      </c>
       <c r="V25" t="s">
         <v>57</v>
       </c>
@@ -24119,7 +25883,7 @@
     </row>
     <row r="28">
       <c r="D28" t="s">
-        <v>436</v>
+        <v>500</v>
       </c>
       <c r="F28" t="s">
         <v>288</v>
@@ -24130,7 +25894,7 @@
     </row>
     <row r="29">
       <c r="D29" t="s">
-        <v>159</v>
+        <v>501</v>
       </c>
       <c r="F29" t="s">
         <v>289</v>
@@ -24141,7 +25905,7 @@
     </row>
     <row r="30">
       <c r="D30" t="s">
-        <v>37</v>
+        <v>436</v>
       </c>
       <c r="F30" t="s">
         <v>221</v>
@@ -24152,7 +25916,7 @@
     </row>
     <row r="31">
       <c r="D31" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="F31" t="s">
         <v>280</v>
@@ -24163,7 +25927,7 @@
     </row>
     <row r="32">
       <c r="D32" t="s">
-        <v>160</v>
+        <v>37</v>
       </c>
       <c r="F32" t="s">
         <v>290</v>
@@ -24174,7 +25938,7 @@
     </row>
     <row r="33">
       <c r="D33" t="s">
-        <v>161</v>
+        <v>38</v>
       </c>
       <c r="F33" t="s">
         <v>265</v>
@@ -24185,7 +25949,7 @@
     </row>
     <row r="34">
       <c r="D34" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F34" t="s">
         <v>335</v>
@@ -24196,7 +25960,7 @@
     </row>
     <row r="35">
       <c r="D35" t="s">
-        <v>39</v>
+        <v>161</v>
       </c>
       <c r="F35" t="s">
         <v>313</v>
@@ -24207,7 +25971,7 @@
     </row>
     <row r="36">
       <c r="D36" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="F36" t="s">
         <v>266</v>
@@ -24217,6 +25981,9 @@
       </c>
     </row>
     <row r="37">
+      <c r="D37" t="s">
+        <v>39</v>
+      </c>
       <c r="F37" t="s">
         <v>314</v>
       </c>
@@ -24225,6 +25992,9 @@
       </c>
     </row>
     <row r="38">
+      <c r="D38" t="s">
+        <v>155</v>
+      </c>
       <c r="F38" t="s">
         <v>272</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
@@ -29,7 +29,7 @@
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="json">'#system'!$L$2:$L$16</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18782" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19747" uniqueCount="505">
   <si>
     <t>description</t>
   </si>
@@ -1573,6 +1573,12 @@
   </si>
   <si>
     <t>searchAndReplace(file,config,saveAs)</t>
+  </si>
+  <si>
+    <t>minify(json,var)</t>
+  </si>
+  <si>
+    <t>beautify(json,var)</t>
   </si>
 </sst>
 </file>
@@ -1580,7 +1586,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="612" x14ac:knownFonts="1">
+  <fonts count="644" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5433,8 +5439,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1066">
+  <fills count="1120">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11471,8 +11679,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1105">
+  <borders count="1161">
     <border>
       <left/>
       <right/>
@@ -12020,6 +12534,570 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -22601,7 +23679,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="631">
+  <cellXfs count="663">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -24471,52 +25549,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="595" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="596" fillId="1041" borderId="1084" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="597" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1084" fillId="1041" fontId="596" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="597" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="598" fillId="1044" borderId="1088" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1088" fillId="1044" fontId="598" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="599" fillId="1047" borderId="1092" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1092" fillId="1047" fontId="599" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="600" fillId="1050" borderId="1092" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1092" fillId="1050" fontId="600" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="601" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="601" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="602" fillId="1053" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1053" fontId="602" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="603" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="604" fillId="1056" borderId="1096" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="605" fillId="1059" borderId="1100" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="606" fillId="1062" borderId="1104" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="607" fillId="1062" borderId="1104" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="608" fillId="1050" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="609" fillId="1065" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="610" fillId="1050" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="611" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="603" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1096" fillId="1056" fontId="604" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1100" fillId="1059" fontId="605" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1104" fillId="1062" fontId="606" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1104" fillId="1062" fontId="607" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1050" fontId="608" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1065" fontId="609" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1050" fontId="610" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="611" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1112" fillId="1068" fontId="612" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="613" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1116" fillId="1071" fontId="614" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1120" fillId="1074" fontId="615" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1120" fillId="1077" fontId="616" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="617" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1080" fontId="618" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="619" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1124" fillId="1083" fontId="620" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1128" fillId="1086" fontId="621" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1132" fillId="1089" fontId="622" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1132" fillId="1089" fontId="623" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1077" fontId="624" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1092" fontId="625" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1077" fontId="626" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="627" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="628" fillId="1095" borderId="1140" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="629" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="630" fillId="1098" borderId="1144" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="631" fillId="1101" borderId="1148" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="632" fillId="1104" borderId="1148" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="633" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="634" fillId="1107" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="635" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="636" fillId="1110" borderId="1152" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="637" fillId="1113" borderId="1156" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="638" fillId="1116" borderId="1160" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="639" fillId="1116" borderId="1160" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="640" fillId="1104" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="641" fillId="1119" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="642" fillId="1104" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="643" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -25534,7 +26708,7 @@
         <v>149</v>
       </c>
       <c r="L11" t="s">
-        <v>468</v>
+        <v>504</v>
       </c>
       <c r="N11" t="s">
         <v>165</v>
@@ -25569,7 +26743,7 @@
         <v>150</v>
       </c>
       <c r="L12" t="s">
-        <v>193</v>
+        <v>468</v>
       </c>
       <c r="N12" t="s">
         <v>26</v>
@@ -25601,7 +26775,7 @@
         <v>170</v>
       </c>
       <c r="L13" t="s">
-        <v>194</v>
+        <v>503</v>
       </c>
       <c r="N13" t="s">
         <v>166</v>
@@ -25633,7 +26807,7 @@
         <v>171</v>
       </c>
       <c r="L14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N14" t="s">
         <v>167</v>
@@ -25661,6 +26835,9 @@
       <c r="J15" t="s">
         <v>485</v>
       </c>
+      <c r="L15" t="s">
+        <v>194</v>
+      </c>
       <c r="N15" t="s">
         <v>168</v>
       </c>
@@ -25686,6 +26863,9 @@
       </c>
       <c r="J16" t="s">
         <v>172</v>
+      </c>
+      <c r="L16" t="s">
+        <v>195</v>
       </c>
       <c r="O16" t="s">
         <v>257</v>

--- a/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
@@ -41,11 +41,11 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$119</definedName>
+    <definedName name="web">'#system'!$V$2:$V$120</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
     <definedName name="sound">'#system'!$S$2:$S$5</definedName>
     <definedName name="sms">'#system'!$R$2:$R$2</definedName>
     <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19747" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20233" uniqueCount="508">
   <si>
     <t>description</t>
   </si>
@@ -1579,6 +1579,15 @@
   </si>
   <si>
     <t>beautify(json,var)</t>
+  </si>
+  <si>
+    <t>dragTo(fromLocator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>beautify(xml,var)</t>
+  </si>
+  <si>
+    <t>minify(xml,var)</t>
   </si>
 </sst>
 </file>
@@ -1586,7 +1595,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="644" x14ac:knownFonts="1">
+  <fonts count="660" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5641,8 +5650,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1120">
+  <fills count="1147">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11985,8 +12095,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1161">
+  <borders count="1189">
     <border>
       <left/>
       <right/>
@@ -12534,6 +12797,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -23679,7 +24224,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="663">
+  <cellXfs count="679">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -25645,52 +26190,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="627" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="628" fillId="1095" borderId="1140" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="629" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1140" fillId="1095" fontId="628" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="629" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="630" fillId="1098" borderId="1144" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1144" fillId="1098" fontId="630" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="631" fillId="1101" borderId="1148" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1148" fillId="1101" fontId="631" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="632" fillId="1104" borderId="1148" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1148" fillId="1104" fontId="632" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="633" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="633" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="634" fillId="1107" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1107" fontId="634" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="635" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="636" fillId="1110" borderId="1152" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="637" fillId="1113" borderId="1156" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="638" fillId="1116" borderId="1160" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="639" fillId="1116" borderId="1160" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="640" fillId="1104" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="641" fillId="1119" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="642" fillId="1104" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="643" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="635" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1152" fillId="1110" fontId="636" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1156" fillId="1113" fontId="637" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1160" fillId="1116" fontId="638" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1160" fillId="1116" fontId="639" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1104" fontId="640" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1119" fontId="641" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1104" fontId="642" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="643" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="644" fillId="1122" borderId="1168" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="645" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="646" fillId="1125" borderId="1172" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="647" fillId="1128" borderId="1176" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="648" fillId="1131" borderId="1176" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="649" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="650" fillId="1134" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="651" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="652" fillId="1137" borderId="1180" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="653" fillId="1140" borderId="1184" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="654" fillId="1143" borderId="1188" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="655" fillId="1143" borderId="1188" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="656" fillId="1131" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="657" fillId="1146" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="658" fillId="1131" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="659" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -26051,7 +26644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB119"/>
+  <dimension ref="A1:AB120"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -26650,7 +27243,7 @@
         <v>182</v>
       </c>
       <c r="AA9" t="s">
-        <v>240</v>
+        <v>506</v>
       </c>
     </row>
     <row r="10">
@@ -26688,7 +27281,7 @@
         <v>183</v>
       </c>
       <c r="AA10" t="s">
-        <v>241</v>
+        <v>507</v>
       </c>
     </row>
     <row r="11">
@@ -26723,7 +27316,7 @@
         <v>264</v>
       </c>
       <c r="AA11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12">
@@ -26757,6 +27350,9 @@
       <c r="Y12" t="s">
         <v>138</v>
       </c>
+      <c r="AA12" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -26789,6 +27385,9 @@
       <c r="Y13" t="s">
         <v>139</v>
       </c>
+      <c r="AA13" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -27379,7 +27978,7 @@
         <v>375</v>
       </c>
       <c r="V63" t="s">
-        <v>219</v>
+        <v>505</v>
       </c>
     </row>
     <row r="64">
@@ -27387,7 +27986,7 @@
         <v>350</v>
       </c>
       <c r="V64" t="s">
-        <v>394</v>
+        <v>219</v>
       </c>
     </row>
     <row r="65">
@@ -27395,7 +27994,7 @@
         <v>319</v>
       </c>
       <c r="V65" t="s">
-        <v>470</v>
+        <v>394</v>
       </c>
     </row>
     <row r="66">
@@ -27403,7 +28002,7 @@
         <v>274</v>
       </c>
       <c r="V66" t="s">
-        <v>84</v>
+        <v>470</v>
       </c>
     </row>
     <row r="67">
@@ -27411,7 +28010,7 @@
         <v>358</v>
       </c>
       <c r="V67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68">
@@ -27419,7 +28018,7 @@
         <v>320</v>
       </c>
       <c r="V68" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69">
@@ -27427,7 +28026,7 @@
         <v>415</v>
       </c>
       <c r="V69" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70">
@@ -27435,7 +28034,7 @@
         <v>310</v>
       </c>
       <c r="V70" t="s">
-        <v>202</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71">
@@ -27443,7 +28042,7 @@
         <v>416</v>
       </c>
       <c r="V71" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="72">
@@ -27451,7 +28050,7 @@
         <v>267</v>
       </c>
       <c r="V72" t="s">
-        <v>483</v>
+        <v>203</v>
       </c>
     </row>
     <row r="73">
@@ -27459,7 +28058,7 @@
         <v>349</v>
       </c>
       <c r="V73" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
     </row>
     <row r="74">
@@ -27467,7 +28066,7 @@
         <v>285</v>
       </c>
       <c r="V74" t="s">
-        <v>88</v>
+        <v>499</v>
       </c>
     </row>
     <row r="75">
@@ -27475,7 +28074,7 @@
         <v>291</v>
       </c>
       <c r="V75" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76">
@@ -27483,7 +28082,7 @@
         <v>296</v>
       </c>
       <c r="V76" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77">
@@ -27491,7 +28090,7 @@
         <v>446</v>
       </c>
       <c r="V77" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78">
@@ -27499,7 +28098,7 @@
         <v>337</v>
       </c>
       <c r="V78" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79">
@@ -27507,7 +28106,7 @@
         <v>275</v>
       </c>
       <c r="V79" t="s">
-        <v>204</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80">
@@ -27515,7 +28114,7 @@
         <v>286</v>
       </c>
       <c r="V80" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="81">
@@ -27523,7 +28122,7 @@
         <v>292</v>
       </c>
       <c r="V81" t="s">
-        <v>482</v>
+        <v>205</v>
       </c>
     </row>
     <row r="82">
@@ -27531,7 +28130,7 @@
         <v>281</v>
       </c>
       <c r="V82" t="s">
-        <v>206</v>
+        <v>482</v>
       </c>
     </row>
     <row r="83">
@@ -27539,7 +28138,7 @@
         <v>276</v>
       </c>
       <c r="V83" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="84">
@@ -27547,7 +28146,7 @@
         <v>293</v>
       </c>
       <c r="V84" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="85">
@@ -27555,7 +28154,7 @@
         <v>277</v>
       </c>
       <c r="V85" t="s">
-        <v>93</v>
+        <v>220</v>
       </c>
     </row>
     <row r="86">
@@ -27563,7 +28162,7 @@
         <v>278</v>
       </c>
       <c r="V86" t="s">
-        <v>208</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87">
@@ -27571,7 +28170,7 @@
         <v>311</v>
       </c>
       <c r="V87" t="s">
-        <v>462</v>
+        <v>208</v>
       </c>
     </row>
     <row r="88">
@@ -27579,7 +28178,7 @@
         <v>317</v>
       </c>
       <c r="V88" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="89">
@@ -27587,7 +28186,7 @@
         <v>300</v>
       </c>
       <c r="V89" t="s">
-        <v>209</v>
+        <v>464</v>
       </c>
     </row>
     <row r="90">
@@ -27595,7 +28194,7 @@
         <v>345</v>
       </c>
       <c r="V90" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="91">
@@ -27603,7 +28202,7 @@
         <v>282</v>
       </c>
       <c r="V91" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="92">
@@ -27611,141 +28210,146 @@
         <v>283</v>
       </c>
       <c r="V92" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>95</v>
+        <v>213</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>388</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>96</v>
+        <v>388</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>471</v>
+        <v>108</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>109</v>
+        <v>471</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="119">
       <c r="V119" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="V120" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
@@ -25,31 +25,32 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="external">'#system'!$H$2:$H$4</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
+    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$N$2:$N$15</definedName>
-    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
-    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
-    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
-    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
-    <definedName name="step">'#system'!$U$2:$U$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$120</definedName>
-    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
-    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
-    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
-    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
-    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
-    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="number">'#system'!$O$2:$O$15</definedName>
+    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
+    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
+    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
+    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
+    <definedName name="step">'#system'!$V$2:$V$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$28</definedName>
+    <definedName name="web">'#system'!$W$2:$W$122</definedName>
+    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
+    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
+    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
+    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
+    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
+    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
+    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20233" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20727" uniqueCount="516">
   <si>
     <t>description</t>
   </si>
@@ -1588,6 +1589,30 @@
   </si>
   <si>
     <t>minify(xml,var)</t>
+  </si>
+  <si>
+    <t>macro</t>
+  </si>
+  <si>
+    <t>runProgram(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>runProgramNoWait(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>description()</t>
+  </si>
+  <si>
+    <t>expects(var,default)</t>
+  </si>
+  <si>
+    <t>produces(var,value)</t>
+  </si>
+  <si>
+    <t>clickOffset(locator,x,y)</t>
+  </si>
+  <si>
+    <t>saveAttributeList(var,locator,attrName)</t>
   </si>
 </sst>
 </file>
@@ -1595,7 +1620,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="660" x14ac:knownFonts="1">
+  <fonts count="676" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5751,8 +5776,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1147">
+  <fills count="1174">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12248,8 +12374,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1189">
+  <borders count="1217">
     <border>
       <left/>
       <right/>
@@ -12797,6 +13076,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -24224,7 +24785,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="679">
+  <cellXfs count="695">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -26238,52 +26799,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="643" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="644" fillId="1122" borderId="1168" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="645" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1168" fillId="1122" fontId="644" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="645" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="646" fillId="1125" borderId="1172" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1172" fillId="1125" fontId="646" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="647" fillId="1128" borderId="1176" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1176" fillId="1128" fontId="647" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="648" fillId="1131" borderId="1176" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1176" fillId="1131" fontId="648" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="649" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="649" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="650" fillId="1134" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1134" fontId="650" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="651" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="652" fillId="1137" borderId="1180" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="653" fillId="1140" borderId="1184" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="654" fillId="1143" borderId="1188" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="655" fillId="1143" borderId="1188" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="656" fillId="1131" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="657" fillId="1146" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="658" fillId="1131" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="659" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="651" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1180" fillId="1137" fontId="652" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1184" fillId="1140" fontId="653" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1188" fillId="1143" fontId="654" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1188" fillId="1143" fontId="655" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1131" fontId="656" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1146" fontId="657" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1131" fontId="658" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="659" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="660" fillId="1149" borderId="1196" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="661" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="662" fillId="1152" borderId="1200" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="663" fillId="1155" borderId="1204" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="664" fillId="1158" borderId="1204" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="665" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="666" fillId="1161" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="667" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="668" fillId="1164" borderId="1208" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="669" fillId="1167" borderId="1212" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="670" fillId="1170" borderId="1216" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="671" fillId="1170" borderId="1216" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="672" fillId="1158" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="673" fillId="1173" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="674" fillId="1158" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="675" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -26644,7 +27253,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB120"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -26693,48 +27302,51 @@
         <v>185</v>
       </c>
       <c r="M1" t="s">
+        <v>508</v>
+      </c>
+      <c r="N1" t="s">
         <v>196</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>128</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>244</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>184</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>405</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>438</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>428</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>362</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>401</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>29</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>30</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>131</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>440</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>232</v>
       </c>
     </row>
@@ -26776,48 +27388,51 @@
         <v>447</v>
       </c>
       <c r="M2" t="s">
+        <v>511</v>
+      </c>
+      <c r="N2" t="s">
         <v>421</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>448</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>258</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>222</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>406</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>439</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>437</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>386</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>402</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>40</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>117</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>122</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>132</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>458</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>233</v>
       </c>
     </row>
@@ -26844,7 +27459,7 @@
         <v>178</v>
       </c>
       <c r="H3" t="s">
-        <v>146</v>
+        <v>509</v>
       </c>
       <c r="I3" t="s">
         <v>354</v>
@@ -26858,43 +27473,46 @@
       <c r="L3" t="s">
         <v>186</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
+        <v>512</v>
+      </c>
+      <c r="O3" t="s">
         <v>449</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>245</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>223</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>407</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>431</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>387</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>403</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>41</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>118</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>123</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>369</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>133</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>234</v>
       </c>
     </row>
@@ -26917,6 +27535,9 @@
       <c r="G4" t="s">
         <v>478</v>
       </c>
+      <c r="H4" t="s">
+        <v>510</v>
+      </c>
       <c r="I4" t="s">
         <v>355</v>
       </c>
@@ -26929,43 +27550,46 @@
       <c r="L4" t="s">
         <v>187</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" t="s">
+        <v>513</v>
+      </c>
+      <c r="O4" t="s">
         <v>19</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>246</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>224</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>408</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>434</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>363</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>404</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>359</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>119</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>124</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>133</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>441</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>235</v>
       </c>
     </row>
@@ -26997,40 +27621,40 @@
       <c r="L5" t="s">
         <v>188</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>21</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>247</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>225</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>409</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>435</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>364</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>360</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>120</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>125</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>134</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>442</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>236</v>
       </c>
     </row>
@@ -27059,37 +27683,37 @@
       <c r="L6" t="s">
         <v>189</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>22</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>248</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>396</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>410</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>366</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>42</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>472</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>126</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>135</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>443</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>237</v>
       </c>
     </row>
@@ -27115,37 +27739,37 @@
       <c r="L7" t="s">
         <v>321</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>24</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>249</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>429</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>411</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>365</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>43</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>473</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>130</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>136</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>444</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>238</v>
       </c>
     </row>
@@ -27171,34 +27795,34 @@
       <c r="L8" t="s">
         <v>190</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>163</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>250</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>412</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>367</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>44</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>121</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>127</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>137</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>445</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>239</v>
       </c>
     </row>
@@ -27224,25 +27848,25 @@
       <c r="L9" t="s">
         <v>191</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>164</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>251</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>413</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>368</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>214</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>182</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>506</v>
       </c>
     </row>
@@ -27265,22 +27889,22 @@
       <c r="L10" t="s">
         <v>192</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>459</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>252</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>414</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>262</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>183</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>507</v>
       </c>
     </row>
@@ -27303,19 +27927,19 @@
       <c r="L11" t="s">
         <v>504</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>165</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>253</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>263</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>264</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>240</v>
       </c>
     </row>
@@ -27338,25 +27962,25 @@
       <c r="L12" t="s">
         <v>468</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>26</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>254</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>45</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>138</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>196</v>
+        <v>508</v>
       </c>
       <c r="D13" t="s">
         <v>346</v>
@@ -27373,25 +27997,25 @@
       <c r="L13" t="s">
         <v>503</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>166</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>259</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>331</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>139</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="D14" t="s">
         <v>25</v>
@@ -27408,22 +28032,22 @@
       <c r="L14" t="s">
         <v>193</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>167</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>255</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>46</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>244</v>
+        <v>128</v>
       </c>
       <c r="D15" t="s">
         <v>33</v>
@@ -27437,22 +28061,22 @@
       <c r="L15" t="s">
         <v>194</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>168</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>256</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>47</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>184</v>
+        <v>244</v>
       </c>
       <c r="D16" t="s">
         <v>390</v>
@@ -27466,19 +28090,19 @@
       <c r="L16" t="s">
         <v>195</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>257</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>48</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>405</v>
+        <v>184</v>
       </c>
       <c r="D17" t="s">
         <v>391</v>
@@ -27489,16 +28113,16 @@
       <c r="J17" t="s">
         <v>173</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>49</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>438</v>
+        <v>405</v>
       </c>
       <c r="D18" t="s">
         <v>420</v>
@@ -27509,13 +28133,13 @@
       <c r="J18" t="s">
         <v>385</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="D19" t="s">
         <v>34</v>
@@ -27526,13 +28150,13 @@
       <c r="J19" t="s">
         <v>502</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>362</v>
+        <v>428</v>
       </c>
       <c r="D20" t="s">
         <v>35</v>
@@ -27543,13 +28167,13 @@
       <c r="J20" t="s">
         <v>151</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="D21" t="s">
         <v>261</v>
@@ -27560,13 +28184,13 @@
       <c r="J21" t="s">
         <v>397</v>
       </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>401</v>
       </c>
       <c r="D22" t="s">
         <v>36</v>
@@ -27577,13 +28201,13 @@
       <c r="J22" t="s">
         <v>152</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
         <v>326</v>
@@ -27594,13 +28218,13 @@
       <c r="J23" t="s">
         <v>467</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
         <v>129</v>
@@ -27611,13 +28235,13 @@
       <c r="J24" t="s">
         <v>153</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="D25" t="s">
         <v>476</v>
@@ -27628,13 +28252,13 @@
       <c r="J25" t="s">
         <v>154</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>440</v>
+        <v>131</v>
       </c>
       <c r="D26" t="s">
         <v>230</v>
@@ -27642,13 +28266,13 @@
       <c r="F26" t="s">
         <v>287</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>232</v>
+        <v>440</v>
       </c>
       <c r="D27" t="s">
         <v>231</v>
@@ -27656,18 +28280,21 @@
       <c r="F27" t="s">
         <v>271</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="s">
+        <v>232</v>
+      </c>
       <c r="D28" t="s">
         <v>500</v>
       </c>
       <c r="F28" t="s">
         <v>288</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>59</v>
       </c>
     </row>
@@ -27678,7 +28305,7 @@
       <c r="F29" t="s">
         <v>289</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>60</v>
       </c>
     </row>
@@ -27689,7 +28316,7 @@
       <c r="F30" t="s">
         <v>221</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>61</v>
       </c>
     </row>
@@ -27700,7 +28327,7 @@
       <c r="F31" t="s">
         <v>280</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>62</v>
       </c>
     </row>
@@ -27711,7 +28338,7 @@
       <c r="F32" t="s">
         <v>290</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>63</v>
       </c>
     </row>
@@ -27722,7 +28349,7 @@
       <c r="F33" t="s">
         <v>265</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>64</v>
       </c>
     </row>
@@ -27733,7 +28360,7 @@
       <c r="F34" t="s">
         <v>335</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>215</v>
       </c>
     </row>
@@ -27744,7 +28371,7 @@
       <c r="F35" t="s">
         <v>313</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>65</v>
       </c>
     </row>
@@ -27755,7 +28382,7 @@
       <c r="F36" t="s">
         <v>266</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>343</v>
       </c>
     </row>
@@ -27766,7 +28393,7 @@
       <c r="F37" t="s">
         <v>314</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>460</v>
       </c>
     </row>
@@ -27777,7 +28404,7 @@
       <c r="F38" t="s">
         <v>272</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
         <v>398</v>
       </c>
     </row>
@@ -27785,7 +28412,7 @@
       <c r="F39" t="s">
         <v>158</v>
       </c>
-      <c r="V39" t="s">
+      <c r="W39" t="s">
         <v>66</v>
       </c>
     </row>
@@ -27793,7 +28420,7 @@
       <c r="F40" t="s">
         <v>217</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
         <v>67</v>
       </c>
     </row>
@@ -27801,7 +28428,7 @@
       <c r="F41" t="s">
         <v>294</v>
       </c>
-      <c r="V41" t="s">
+      <c r="W41" t="s">
         <v>68</v>
       </c>
     </row>
@@ -27809,7 +28436,7 @@
       <c r="F42" t="s">
         <v>305</v>
       </c>
-      <c r="V42" t="s">
+      <c r="W42" t="s">
         <v>69</v>
       </c>
     </row>
@@ -27817,7 +28444,7 @@
       <c r="F43" t="s">
         <v>306</v>
       </c>
-      <c r="V43" t="s">
+      <c r="W43" t="s">
         <v>70</v>
       </c>
     </row>
@@ -27825,7 +28452,7 @@
       <c r="F44" t="s">
         <v>348</v>
       </c>
-      <c r="V44" t="s">
+      <c r="W44" t="s">
         <v>71</v>
       </c>
     </row>
@@ -27833,7 +28460,7 @@
       <c r="F45" t="s">
         <v>347</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
         <v>469</v>
       </c>
     </row>
@@ -27841,7 +28468,7 @@
       <c r="F46" t="s">
         <v>216</v>
       </c>
-      <c r="V46" t="s">
+      <c r="W46" t="s">
         <v>218</v>
       </c>
     </row>
@@ -27849,7 +28476,7 @@
       <c r="F47" t="s">
         <v>307</v>
       </c>
-      <c r="V47" t="s">
+      <c r="W47" t="s">
         <v>72</v>
       </c>
     </row>
@@ -27857,7 +28484,7 @@
       <c r="F48" t="s">
         <v>344</v>
       </c>
-      <c r="V48" t="s">
+      <c r="W48" t="s">
         <v>73</v>
       </c>
     </row>
@@ -27865,7 +28492,7 @@
       <c r="F49" t="s">
         <v>373</v>
       </c>
-      <c r="V49" t="s">
+      <c r="W49" t="s">
         <v>74</v>
       </c>
     </row>
@@ -27873,7 +28500,7 @@
       <c r="F50" t="s">
         <v>308</v>
       </c>
-      <c r="V50" t="s">
+      <c r="W50" t="s">
         <v>75</v>
       </c>
     </row>
@@ -27881,475 +28508,485 @@
       <c r="F51" t="s">
         <v>361</v>
       </c>
-      <c r="V51" t="s">
-        <v>495</v>
+      <c r="W51" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="52">
       <c r="F52" t="s">
         <v>336</v>
       </c>
-      <c r="V52" t="s">
-        <v>76</v>
+      <c r="W52" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="53">
       <c r="F53" t="s">
         <v>273</v>
       </c>
-      <c r="V53" t="s">
-        <v>351</v>
+      <c r="W53" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="54">
       <c r="F54" t="s">
         <v>297</v>
       </c>
-      <c r="V54" t="s">
-        <v>488</v>
+      <c r="W54" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="55">
       <c r="F55" t="s">
         <v>298</v>
       </c>
-      <c r="V55" t="s">
-        <v>77</v>
+      <c r="W55" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="56">
       <c r="F56" t="s">
         <v>299</v>
       </c>
-      <c r="V56" t="s">
-        <v>78</v>
+      <c r="W56" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="57">
       <c r="F57" t="s">
         <v>309</v>
       </c>
-      <c r="V57" t="s">
-        <v>79</v>
+      <c r="W57" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="58">
       <c r="F58" t="s">
         <v>318</v>
       </c>
-      <c r="V58" t="s">
-        <v>80</v>
+      <c r="W58" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="59">
       <c r="F59" t="s">
         <v>342</v>
       </c>
-      <c r="V59" t="s">
-        <v>81</v>
+      <c r="W59" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="60">
       <c r="F60" t="s">
         <v>315</v>
       </c>
-      <c r="V60" t="s">
-        <v>82</v>
+      <c r="W60" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="61">
       <c r="F61" t="s">
         <v>316</v>
       </c>
-      <c r="V61" t="s">
-        <v>83</v>
+      <c r="W61" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="62">
       <c r="F62" t="s">
         <v>374</v>
       </c>
-      <c r="V62" t="s">
-        <v>465</v>
+      <c r="W62" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="63">
       <c r="F63" t="s">
         <v>375</v>
       </c>
-      <c r="V63" t="s">
-        <v>505</v>
+      <c r="W63" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="64">
       <c r="F64" t="s">
         <v>350</v>
       </c>
-      <c r="V64" t="s">
-        <v>219</v>
+      <c r="W64" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="65">
       <c r="F65" t="s">
         <v>319</v>
       </c>
-      <c r="V65" t="s">
-        <v>394</v>
+      <c r="W65" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="66">
       <c r="F66" t="s">
         <v>274</v>
       </c>
-      <c r="V66" t="s">
-        <v>470</v>
+      <c r="W66" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="67">
       <c r="F67" t="s">
         <v>358</v>
       </c>
-      <c r="V67" t="s">
-        <v>84</v>
+      <c r="W67" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="68">
       <c r="F68" t="s">
         <v>320</v>
       </c>
-      <c r="V68" t="s">
-        <v>85</v>
+      <c r="W68" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="69">
       <c r="F69" t="s">
         <v>415</v>
       </c>
-      <c r="V69" t="s">
-        <v>86</v>
+      <c r="W69" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="70">
       <c r="F70" t="s">
         <v>310</v>
       </c>
-      <c r="V70" t="s">
-        <v>87</v>
+      <c r="W70" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" t="s">
         <v>416</v>
       </c>
-      <c r="V71" t="s">
-        <v>202</v>
+      <c r="W71" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="72">
       <c r="F72" t="s">
         <v>267</v>
       </c>
-      <c r="V72" t="s">
-        <v>203</v>
+      <c r="W72" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="73">
       <c r="F73" t="s">
         <v>349</v>
       </c>
-      <c r="V73" t="s">
-        <v>483</v>
+      <c r="W73" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="74">
       <c r="F74" t="s">
         <v>285</v>
       </c>
-      <c r="V74" t="s">
-        <v>499</v>
+      <c r="W74" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="75">
       <c r="F75" t="s">
         <v>291</v>
       </c>
-      <c r="V75" t="s">
-        <v>88</v>
+      <c r="W75" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="76">
       <c r="F76" t="s">
         <v>296</v>
       </c>
-      <c r="V76" t="s">
-        <v>89</v>
+      <c r="W76" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="77">
       <c r="F77" t="s">
         <v>446</v>
       </c>
-      <c r="V77" t="s">
-        <v>90</v>
+      <c r="W77" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="78">
       <c r="F78" t="s">
         <v>337</v>
       </c>
-      <c r="V78" t="s">
-        <v>91</v>
+      <c r="W78" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="79">
       <c r="F79" t="s">
         <v>275</v>
       </c>
-      <c r="V79" t="s">
-        <v>92</v>
+      <c r="W79" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="80">
       <c r="F80" t="s">
         <v>286</v>
       </c>
-      <c r="V80" t="s">
-        <v>204</v>
+      <c r="W80" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="81">
       <c r="F81" t="s">
         <v>292</v>
       </c>
-      <c r="V81" t="s">
-        <v>205</v>
+      <c r="W81" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="82">
       <c r="F82" t="s">
         <v>281</v>
       </c>
-      <c r="V82" t="s">
-        <v>482</v>
+      <c r="W82" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="83">
       <c r="F83" t="s">
         <v>276</v>
       </c>
-      <c r="V83" t="s">
-        <v>206</v>
+      <c r="W83" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="84">
       <c r="F84" t="s">
         <v>293</v>
       </c>
-      <c r="V84" t="s">
-        <v>207</v>
+      <c r="W84" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="85">
       <c r="F85" t="s">
         <v>277</v>
       </c>
-      <c r="V85" t="s">
-        <v>220</v>
+      <c r="W85" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="86">
       <c r="F86" t="s">
         <v>278</v>
       </c>
-      <c r="V86" t="s">
-        <v>93</v>
+      <c r="W86" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="87">
       <c r="F87" t="s">
         <v>311</v>
       </c>
-      <c r="V87" t="s">
-        <v>208</v>
+      <c r="W87" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="88">
       <c r="F88" t="s">
         <v>317</v>
       </c>
-      <c r="V88" t="s">
-        <v>462</v>
+      <c r="W88" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="89">
       <c r="F89" t="s">
         <v>300</v>
       </c>
-      <c r="V89" t="s">
-        <v>464</v>
+      <c r="W89" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="90">
       <c r="F90" t="s">
         <v>345</v>
       </c>
-      <c r="V90" t="s">
-        <v>209</v>
+      <c r="W90" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="91">
       <c r="F91" t="s">
         <v>282</v>
       </c>
-      <c r="V91" t="s">
-        <v>210</v>
+      <c r="W91" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="92">
       <c r="F92" t="s">
         <v>283</v>
       </c>
-      <c r="V92" t="s">
-        <v>211</v>
+      <c r="W92" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="93">
-      <c r="V93" t="s">
-        <v>212</v>
+      <c r="W93" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="94">
-      <c r="V94" t="s">
-        <v>228</v>
+      <c r="W94" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="95">
-      <c r="V95" t="s">
-        <v>213</v>
+      <c r="W95" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="96">
-      <c r="V96" t="s">
-        <v>95</v>
+      <c r="W96" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="97">
-      <c r="V97" t="s">
-        <v>388</v>
+      <c r="W97" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="98">
-      <c r="V98" t="s">
-        <v>96</v>
+      <c r="W98" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="99">
-      <c r="V99" t="s">
-        <v>97</v>
+      <c r="W99" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="100">
-      <c r="V100" t="s">
-        <v>98</v>
+      <c r="W100" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="101">
-      <c r="V101" t="s">
-        <v>99</v>
+      <c r="W101" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="102">
-      <c r="V102" t="s">
-        <v>100</v>
+      <c r="W102" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="103">
-      <c r="V103" t="s">
-        <v>101</v>
+      <c r="W103" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="104">
-      <c r="V104" t="s">
-        <v>102</v>
+      <c r="W104" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="105">
-      <c r="V105" t="s">
-        <v>103</v>
+      <c r="W105" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="106">
-      <c r="V106" t="s">
-        <v>104</v>
+      <c r="W106" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="107">
-      <c r="V107" t="s">
-        <v>105</v>
+      <c r="W107" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="108">
-      <c r="V108" t="s">
-        <v>106</v>
+      <c r="W108" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="109">
-      <c r="V109" t="s">
-        <v>107</v>
+      <c r="W109" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="110">
-      <c r="V110" t="s">
-        <v>108</v>
+      <c r="W110" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="111">
-      <c r="V111" t="s">
-        <v>471</v>
+      <c r="W111" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="112">
-      <c r="V112" t="s">
-        <v>109</v>
+      <c r="W112" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="113">
-      <c r="V113" t="s">
-        <v>110</v>
+      <c r="W113" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="114">
-      <c r="V114" t="s">
-        <v>111</v>
+      <c r="W114" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="115">
-      <c r="V115" t="s">
-        <v>112</v>
+      <c r="W115" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="116">
-      <c r="V116" t="s">
-        <v>27</v>
+      <c r="W116" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="117">
-      <c r="V117" t="s">
-        <v>113</v>
+      <c r="W117" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="118">
-      <c r="V118" t="s">
-        <v>114</v>
+      <c r="W118" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="119">
-      <c r="V119" t="s">
-        <v>115</v>
+      <c r="W119" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="120">
-      <c r="V120" t="s">
+      <c r="W120" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="W121" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="W122" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20727" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21221" uniqueCount="517">
   <si>
     <t>description</t>
   </si>
@@ -1613,6 +1613,9 @@
   </si>
   <si>
     <t>saveAttributeList(var,locator,attrName)</t>
+  </si>
+  <si>
+    <t>assertIENativeMode()</t>
   </si>
 </sst>
 </file>
@@ -1620,7 +1623,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="676" x14ac:knownFonts="1">
+  <fonts count="692" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5877,8 +5880,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1174">
+  <fills count="1201">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12527,8 +12631,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1217">
+  <borders count="1245">
     <border>
       <left/>
       <right/>
@@ -13076,6 +13333,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -24785,7 +25324,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="695">
+  <cellXfs count="711">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -26847,52 +27386,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="659" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="660" fillId="1149" borderId="1196" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="661" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1196" fillId="1149" fontId="660" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="661" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="662" fillId="1152" borderId="1200" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1200" fillId="1152" fontId="662" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="663" fillId="1155" borderId="1204" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1204" fillId="1155" fontId="663" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="664" fillId="1158" borderId="1204" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1204" fillId="1158" fontId="664" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="665" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="665" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="666" fillId="1161" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1161" fontId="666" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="667" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="668" fillId="1164" borderId="1208" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="669" fillId="1167" borderId="1212" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="670" fillId="1170" borderId="1216" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="671" fillId="1170" borderId="1216" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="672" fillId="1158" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="673" fillId="1173" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="674" fillId="1158" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="675" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="667" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1208" fillId="1164" fontId="668" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1212" fillId="1167" fontId="669" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1216" fillId="1170" fontId="670" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1216" fillId="1170" fontId="671" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1158" fontId="672" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1173" fontId="673" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1158" fontId="674" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="675" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="676" fillId="1176" borderId="1224" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="677" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="678" fillId="1179" borderId="1228" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="679" fillId="1182" borderId="1232" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="680" fillId="1185" borderId="1232" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="681" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="682" fillId="1188" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="683" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="684" fillId="1191" borderId="1236" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="685" fillId="1194" borderId="1240" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="686" fillId="1197" borderId="1244" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="687" fillId="1197" borderId="1244" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="688" fillId="1185" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="689" fillId="1200" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="690" fillId="1185" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="691" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -28185,7 +28772,7 @@
         <v>397</v>
       </c>
       <c r="W21" t="s">
-        <v>53</v>
+        <v>516</v>
       </c>
     </row>
     <row r="22">

--- a/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21221" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21715" uniqueCount="517">
   <si>
     <t>description</t>
   </si>
@@ -1623,7 +1623,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="692" x14ac:knownFonts="1">
+  <fonts count="708" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5981,8 +5981,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1201">
+  <fills count="1228">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12784,8 +12885,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1245">
+  <borders count="1273">
     <border>
       <left/>
       <right/>
@@ -13333,6 +13587,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -25324,7 +25860,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="711">
+  <cellXfs count="727">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -27434,52 +27970,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="675" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="676" fillId="1176" borderId="1224" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="677" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1224" fillId="1176" fontId="676" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="677" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="678" fillId="1179" borderId="1228" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1228" fillId="1179" fontId="678" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="679" fillId="1182" borderId="1232" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1232" fillId="1182" fontId="679" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="680" fillId="1185" borderId="1232" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1232" fillId="1185" fontId="680" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="681" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="681" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="682" fillId="1188" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1188" fontId="682" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="683" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="684" fillId="1191" borderId="1236" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="685" fillId="1194" borderId="1240" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="686" fillId="1197" borderId="1244" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="687" fillId="1197" borderId="1244" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="688" fillId="1185" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="689" fillId="1200" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="690" fillId="1185" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="691" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="683" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1236" fillId="1191" fontId="684" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1240" fillId="1194" fontId="685" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1244" fillId="1197" fontId="686" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1244" fillId="1197" fontId="687" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1185" fontId="688" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1200" fontId="689" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1185" fontId="690" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="691" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="692" fillId="1203" borderId="1252" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="693" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="694" fillId="1206" borderId="1256" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="695" fillId="1209" borderId="1260" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="696" fillId="1212" borderId="1260" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="697" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="698" fillId="1215" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="699" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="700" fillId="1218" borderId="1264" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="701" fillId="1221" borderId="1268" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="702" fillId="1224" borderId="1272" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="703" fillId="1224" borderId="1272" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="704" fillId="1212" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="705" fillId="1227" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="706" fillId="1212" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="707" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
@@ -19,38 +19,39 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$38</definedName>
-    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
+    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
-    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$4</definedName>
-    <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$25</definedName>
-    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
+    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
+    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$O$2:$O$15</definedName>
-    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
-    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
-    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
-    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
-    <definedName name="step">'#system'!$V$2:$V$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$28</definedName>
-    <definedName name="web">'#system'!$W$2:$W$122</definedName>
-    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
-    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
-    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
-    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
-    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
-    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
+    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
+    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
+    <definedName name="step">'#system'!$W$2:$W$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$29</definedName>
+    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$13</definedName>
+    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
+    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
+    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
+    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21715" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23203" uniqueCount="522">
   <si>
     <t>description</t>
   </si>
@@ -1616,6 +1617,21 @@
   </si>
   <si>
     <t>assertIENativeMode()</t>
+  </si>
+  <si>
+    <t>aws.sqs</t>
+  </si>
+  <si>
+    <t>deleteMessage(profile,queue,receiptHandle)</t>
+  </si>
+  <si>
+    <t>receiveMessage(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>receiveMessages(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>sendMessage(profile,queue,message,var)</t>
   </si>
 </sst>
 </file>
@@ -1623,7 +1639,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="708" x14ac:knownFonts="1">
+  <fonts count="756" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6082,8 +6098,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1228">
+  <fills count="1309">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13038,8 +13357,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1273">
+  <borders count="1357">
     <border>
       <left/>
       <right/>
@@ -13587,6 +14365,852 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -25860,7 +27484,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="727">
+  <cellXfs count="775">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -28018,52 +29642,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="691" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="692" fillId="1203" borderId="1252" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="693" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1252" fillId="1203" fontId="692" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="693" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="694" fillId="1206" borderId="1256" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1256" fillId="1206" fontId="694" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="695" fillId="1209" borderId="1260" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1260" fillId="1209" fontId="695" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="696" fillId="1212" borderId="1260" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1260" fillId="1212" fontId="696" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="697" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="697" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="698" fillId="1215" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1215" fontId="698" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="699" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="700" fillId="1218" borderId="1264" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="701" fillId="1221" borderId="1268" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="702" fillId="1224" borderId="1272" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="703" fillId="1224" borderId="1272" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="704" fillId="1212" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="705" fillId="1227" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="706" fillId="1212" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="707" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="699" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1264" fillId="1218" fontId="700" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1268" fillId="1221" fontId="701" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1272" fillId="1224" fontId="702" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1272" fillId="1224" fontId="703" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1212" fontId="704" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1227" fontId="705" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1212" fontId="706" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="707" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1280" fillId="1230" fontId="708" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="709" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1284" fillId="1233" fontId="710" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1288" fillId="1236" fontId="711" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1288" fillId="1239" fontId="712" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="713" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1242" fontId="714" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="715" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1292" fillId="1245" fontId="716" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1296" fillId="1248" fontId="717" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1300" fillId="1251" fontId="718" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1300" fillId="1251" fontId="719" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1239" fontId="720" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1254" fontId="721" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1239" fontId="722" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="723" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1308" fillId="1257" fontId="724" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="725" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1312" fillId="1260" fontId="726" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1316" fillId="1263" fontId="727" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1316" fillId="1266" fontId="728" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="729" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1269" fontId="730" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="731" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1320" fillId="1272" fontId="732" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1324" fillId="1275" fontId="733" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1328" fillId="1278" fontId="734" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1328" fillId="1278" fontId="735" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1266" fontId="736" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1281" fontId="737" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1266" fontId="738" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="739" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="740" fillId="1284" borderId="1336" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="741" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="742" fillId="1287" borderId="1340" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="743" fillId="1290" borderId="1344" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="744" fillId="1293" borderId="1344" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="745" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="746" fillId="1296" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="747" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="748" fillId="1299" borderId="1348" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="749" fillId="1302" borderId="1352" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="750" fillId="1305" borderId="1356" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="751" fillId="1305" borderId="1356" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="752" fillId="1293" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="753" fillId="1308" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="754" fillId="1293" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="755" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -28424,7 +30192,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC122"/>
+  <dimension ref="A1:AD122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -28446,78 +30214,81 @@
         <v>491</v>
       </c>
       <c r="D1" t="s">
+        <v>517</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>174</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>175</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>143</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>352</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>144</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>338</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>185</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>508</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>196</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>128</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>244</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>184</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>405</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>438</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>428</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>362</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>401</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>29</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>131</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>440</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>232</v>
       </c>
     </row>
@@ -28532,78 +30303,81 @@
         <v>494</v>
       </c>
       <c r="D2" t="s">
+        <v>518</v>
+      </c>
+      <c r="E2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>176</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>157</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>477</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>145</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>498</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>321</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>389</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>447</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>511</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>421</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>448</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>258</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>222</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>406</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>439</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>437</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>386</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>402</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>40</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>117</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>122</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>132</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>458</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>233</v>
       </c>
     </row>
@@ -28618,1546 +30392,1558 @@
         <v>493</v>
       </c>
       <c r="D3" t="s">
+        <v>519</v>
+      </c>
+      <c r="E3" t="s">
         <v>486</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>370</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>179</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>178</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>509</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>354</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>346</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>339</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>186</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>512</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>449</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>245</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>223</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>407</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>431</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>387</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>403</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>41</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>118</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>123</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>369</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>133</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>517</v>
       </c>
       <c r="B4" t="s">
         <v>379</v>
       </c>
       <c r="D4" t="s">
+        <v>520</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>177</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>392</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>478</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>510</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>355</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>243</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>340</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>187</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>513</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>19</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>246</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>224</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>408</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>434</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>363</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>404</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>359</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>119</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>124</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>133</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>441</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>380</v>
       </c>
       <c r="D5" t="s">
+        <v>521</v>
+      </c>
+      <c r="E5" t="s">
         <v>487</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>466</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>341</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>484</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>356</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>489</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>188</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>21</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>247</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>225</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>409</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>435</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>364</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>360</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>120</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>125</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>134</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>442</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>174</v>
       </c>
       <c r="B6" t="s">
         <v>381</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>393</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>479</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>353</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>176</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>189</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>22</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>248</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>396</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>410</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>366</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>42</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>472</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>126</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>135</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>443</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>382</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>229</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>371</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>475</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>147</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>321</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>24</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>249</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>429</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>411</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>365</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>43</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>473</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>130</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>136</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>444</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="B8" t="s">
         <v>383</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>324</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>372</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>333</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>169</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>190</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>163</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>250</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>412</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>367</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>44</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>121</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>127</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>137</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>445</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>352</v>
+        <v>143</v>
       </c>
       <c r="B9" t="s">
         <v>384</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>23</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>312</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>334</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>148</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>191</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>164</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>251</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>413</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>368</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>214</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>182</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>144</v>
-      </c>
-      <c r="D10" t="s">
+        <v>352</v>
+      </c>
+      <c r="E10" t="s">
         <v>321</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>357</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>480</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>395</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>192</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>459</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>252</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>414</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>262</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>183</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>338</v>
-      </c>
-      <c r="D11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" t="s">
         <v>260</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>279</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>327</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>149</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>504</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>165</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>253</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>263</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>264</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D12" t="s">
+        <v>338</v>
+      </c>
+      <c r="E12" t="s">
         <v>325</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>268</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>328</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>150</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>468</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>26</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>254</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>45</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>138</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>508</v>
-      </c>
-      <c r="D13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E13" t="s">
         <v>346</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>322</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>329</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>170</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>503</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>166</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>259</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>331</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>139</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>196</v>
-      </c>
-      <c r="D14" t="s">
+        <v>508</v>
+      </c>
+      <c r="E14" t="s">
         <v>25</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>269</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>330</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>171</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>193</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>167</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>255</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>46</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>128</v>
-      </c>
-      <c r="D15" t="s">
+        <v>196</v>
+      </c>
+      <c r="E15" t="s">
         <v>33</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>270</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>485</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>194</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>168</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>256</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>47</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>244</v>
-      </c>
-      <c r="D16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" t="s">
         <v>390</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>323</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>172</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>195</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>257</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>48</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>184</v>
-      </c>
-      <c r="D17" t="s">
+        <v>244</v>
+      </c>
+      <c r="E17" t="s">
         <v>391</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>180</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>173</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>49</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>405</v>
-      </c>
-      <c r="D18" t="s">
+        <v>184</v>
+      </c>
+      <c r="E18" t="s">
         <v>420</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>181</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>385</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>438</v>
-      </c>
-      <c r="D19" t="s">
+        <v>405</v>
+      </c>
+      <c r="E19" t="s">
         <v>34</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>301</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>502</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>428</v>
-      </c>
-      <c r="D20" t="s">
+        <v>438</v>
+      </c>
+      <c r="E20" t="s">
         <v>35</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>302</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>151</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>362</v>
-      </c>
-      <c r="D21" t="s">
+        <v>428</v>
+      </c>
+      <c r="E21" t="s">
         <v>261</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>303</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>397</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>401</v>
-      </c>
-      <c r="D22" t="s">
+        <v>362</v>
+      </c>
+      <c r="E22" t="s">
         <v>36</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>304</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>152</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" t="s">
+        <v>401</v>
+      </c>
+      <c r="E23" t="s">
         <v>326</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>295</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>467</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" t="s">
         <v>129</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>284</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>153</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" t="s">
         <v>476</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>156</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>154</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>131</v>
-      </c>
-      <c r="D26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" t="s">
         <v>230</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>287</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>440</v>
-      </c>
-      <c r="D27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" t="s">
         <v>231</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>271</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>232</v>
-      </c>
-      <c r="D28" t="s">
+        <v>440</v>
+      </c>
+      <c r="E28" t="s">
         <v>500</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>288</v>
       </c>
-      <c r="W28" t="s">
+      <c r="X28" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="29">
-      <c r="D29" t="s">
+      <c r="A29" t="s">
+        <v>232</v>
+      </c>
+      <c r="E29" t="s">
         <v>501</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>289</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="30">
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>436</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>221</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="31">
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>159</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>280</v>
       </c>
-      <c r="W31" t="s">
+      <c r="X31" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="32">
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>37</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>290</v>
       </c>
-      <c r="W32" t="s">
+      <c r="X32" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="33">
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>38</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>265</v>
       </c>
-      <c r="W33" t="s">
+      <c r="X33" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="34">
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>160</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>335</v>
       </c>
-      <c r="W34" t="s">
+      <c r="X34" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="35">
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>161</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>313</v>
       </c>
-      <c r="W35" t="s">
+      <c r="X35" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="36">
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>162</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>266</v>
       </c>
-      <c r="W36" t="s">
+      <c r="X36" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="37">
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>39</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>314</v>
       </c>
-      <c r="W37" t="s">
+      <c r="X37" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="38">
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>155</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>272</v>
       </c>
-      <c r="W38" t="s">
+      <c r="X38" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="39">
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>158</v>
       </c>
-      <c r="W39" t="s">
+      <c r="X39" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>217</v>
       </c>
-      <c r="W40" t="s">
+      <c r="X40" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="41">
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>294</v>
       </c>
-      <c r="W41" t="s">
+      <c r="X41" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="42">
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>305</v>
       </c>
-      <c r="W42" t="s">
+      <c r="X42" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="43">
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>306</v>
       </c>
-      <c r="W43" t="s">
+      <c r="X43" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="44">
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>348</v>
       </c>
-      <c r="W44" t="s">
+      <c r="X44" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="45">
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>347</v>
       </c>
-      <c r="W45" t="s">
+      <c r="X45" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="46">
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>216</v>
       </c>
-      <c r="W46" t="s">
+      <c r="X46" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="47">
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>307</v>
       </c>
-      <c r="W47" t="s">
+      <c r="X47" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="48">
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>344</v>
       </c>
-      <c r="W48" t="s">
+      <c r="X48" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="49">
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>373</v>
       </c>
-      <c r="W49" t="s">
+      <c r="X49" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="50">
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>308</v>
       </c>
-      <c r="W50" t="s">
+      <c r="X50" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="51">
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>361</v>
       </c>
-      <c r="W51" t="s">
+      <c r="X51" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="52">
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>336</v>
       </c>
-      <c r="W52" t="s">
+      <c r="X52" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="53">
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>273</v>
       </c>
-      <c r="W53" t="s">
+      <c r="X53" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="54">
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>297</v>
       </c>
-      <c r="W54" t="s">
+      <c r="X54" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="55">
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>298</v>
       </c>
-      <c r="W55" t="s">
+      <c r="X55" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="56">
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>299</v>
       </c>
-      <c r="W56" t="s">
+      <c r="X56" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="57">
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>309</v>
       </c>
-      <c r="W57" t="s">
+      <c r="X57" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="58">
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>318</v>
       </c>
-      <c r="W58" t="s">
+      <c r="X58" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="59">
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>342</v>
       </c>
-      <c r="W59" t="s">
+      <c r="X59" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="60">
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>315</v>
       </c>
-      <c r="W60" t="s">
+      <c r="X60" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="61">
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>316</v>
       </c>
-      <c r="W61" t="s">
+      <c r="X61" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="62">
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>374</v>
       </c>
-      <c r="W62" t="s">
+      <c r="X62" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="63">
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>375</v>
       </c>
-      <c r="W63" t="s">
+      <c r="X63" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="64">
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>350</v>
       </c>
-      <c r="W64" t="s">
+      <c r="X64" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="65">
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>319</v>
       </c>
-      <c r="W65" t="s">
+      <c r="X65" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="66">
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>274</v>
       </c>
-      <c r="W66" t="s">
+      <c r="X66" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="67">
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>358</v>
       </c>
-      <c r="W67" t="s">
+      <c r="X67" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="68">
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>320</v>
       </c>
-      <c r="W68" t="s">
+      <c r="X68" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="69">
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>415</v>
       </c>
-      <c r="W69" t="s">
+      <c r="X69" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="70">
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>310</v>
       </c>
-      <c r="W70" t="s">
+      <c r="X70" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="71">
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>416</v>
       </c>
-      <c r="W71" t="s">
+      <c r="X71" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="72">
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>267</v>
       </c>
-      <c r="W72" t="s">
+      <c r="X72" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="73">
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>349</v>
       </c>
-      <c r="W73" t="s">
+      <c r="X73" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="74">
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>285</v>
       </c>
-      <c r="W74" t="s">
+      <c r="X74" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="75">
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>291</v>
       </c>
-      <c r="W75" t="s">
+      <c r="X75" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="76">
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>296</v>
       </c>
-      <c r="W76" t="s">
+      <c r="X76" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="77">
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>446</v>
       </c>
-      <c r="W77" t="s">
+      <c r="X77" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="78">
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>337</v>
       </c>
-      <c r="W78" t="s">
+      <c r="X78" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="79">
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>275</v>
       </c>
-      <c r="W79" t="s">
+      <c r="X79" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="80">
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>286</v>
       </c>
-      <c r="W80" t="s">
+      <c r="X80" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="81">
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>292</v>
       </c>
-      <c r="W81" t="s">
+      <c r="X81" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="82">
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>281</v>
       </c>
-      <c r="W82" t="s">
+      <c r="X82" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="83">
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>276</v>
       </c>
-      <c r="W83" t="s">
+      <c r="X83" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="84">
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>293</v>
       </c>
-      <c r="W84" t="s">
+      <c r="X84" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="85">
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>277</v>
       </c>
-      <c r="W85" t="s">
+      <c r="X85" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="86">
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>278</v>
       </c>
-      <c r="W86" t="s">
+      <c r="X86" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="87">
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>311</v>
       </c>
-      <c r="W87" t="s">
+      <c r="X87" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="88">
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>317</v>
       </c>
-      <c r="W88" t="s">
+      <c r="X88" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="89">
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>300</v>
       </c>
-      <c r="W89" t="s">
+      <c r="X89" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="90">
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>345</v>
       </c>
-      <c r="W90" t="s">
+      <c r="X90" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="91">
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>282</v>
       </c>
-      <c r="W91" t="s">
+      <c r="X91" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="92">
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>283</v>
       </c>
-      <c r="W92" t="s">
+      <c r="X92" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="93">
-      <c r="W93" t="s">
+      <c r="X93" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="94">
-      <c r="W94" t="s">
+      <c r="X94" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="95">
-      <c r="W95" t="s">
+      <c r="X95" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="96">
-      <c r="W96" t="s">
+      <c r="X96" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="97">
-      <c r="W97" t="s">
+      <c r="X97" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="98">
-      <c r="W98" t="s">
+      <c r="X98" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="99">
-      <c r="W99" t="s">
+      <c r="X99" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="100">
-      <c r="W100" t="s">
+      <c r="X100" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="101">
-      <c r="W101" t="s">
+      <c r="X101" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="102">
-      <c r="W102" t="s">
+      <c r="X102" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="103">
-      <c r="W103" t="s">
+      <c r="X103" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="104">
-      <c r="W104" t="s">
+      <c r="X104" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="105">
-      <c r="W105" t="s">
+      <c r="X105" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="106">
-      <c r="W106" t="s">
+      <c r="X106" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="107">
-      <c r="W107" t="s">
+      <c r="X107" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="108">
-      <c r="W108" t="s">
+      <c r="X108" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="109">
-      <c r="W109" t="s">
+      <c r="X109" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="110">
-      <c r="W110" t="s">
+      <c r="X110" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="111">
-      <c r="W111" t="s">
+      <c r="X111" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="112">
-      <c r="W112" t="s">
+      <c r="X112" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="113">
-      <c r="W113" t="s">
+      <c r="X113" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="114">
-      <c r="W114" t="s">
+      <c r="X114" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="115">
-      <c r="W115" t="s">
+      <c r="X115" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="116">
-      <c r="W116" t="s">
+      <c r="X116" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="117">
-      <c r="W117" t="s">
+      <c r="X117" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="118">
-      <c r="W118" t="s">
+      <c r="X118" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="119">
-      <c r="W119" t="s">
+      <c r="X119" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="120">
-      <c r="W120" t="s">
+      <c r="X120" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="121">
-      <c r="W121" t="s">
+      <c r="X121" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="122">
-      <c r="W122" t="s">
+      <c r="X122" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
@@ -45,7 +45,7 @@
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$13</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
     <definedName name="sound">'#system'!$U$2:$U$5</definedName>
     <definedName name="sms">'#system'!$T$2:$T$2</definedName>
     <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23203" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23708" uniqueCount="527">
   <si>
     <t>description</t>
   </si>
@@ -1632,6 +1632,21 @@
   </si>
   <si>
     <t>sendMessage(profile,queue,message,var)</t>
+  </si>
+  <si>
+    <t>append(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>clear(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>delete(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>prepend(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replace(xml,xpath,content,var)</t>
   </si>
 </sst>
 </file>
@@ -1639,7 +1654,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="756" x14ac:knownFonts="1">
+  <fonts count="772" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6401,8 +6416,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1309">
+  <fills count="1336">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13816,8 +13932,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1357">
+  <borders count="1385">
     <border>
       <left/>
       <right/>
@@ -14365,6 +14634,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -27484,7 +28035,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="775">
+  <cellXfs count="791">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -29786,52 +30337,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="739" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="740" fillId="1284" borderId="1336" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="741" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1336" fillId="1284" fontId="740" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="741" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="742" fillId="1287" borderId="1340" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1340" fillId="1287" fontId="742" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="743" fillId="1290" borderId="1344" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1344" fillId="1290" fontId="743" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="744" fillId="1293" borderId="1344" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1344" fillId="1293" fontId="744" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="745" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="745" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="746" fillId="1296" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1296" fontId="746" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="747" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="748" fillId="1299" borderId="1348" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="749" fillId="1302" borderId="1352" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="750" fillId="1305" borderId="1356" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="751" fillId="1305" borderId="1356" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="752" fillId="1293" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="753" fillId="1308" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="754" fillId="1293" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="755" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="747" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1348" fillId="1299" fontId="748" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1352" fillId="1302" fontId="749" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1356" fillId="1305" fontId="750" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1356" fillId="1305" fontId="751" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1293" fontId="752" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1308" fontId="753" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1293" fontId="754" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="755" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="756" fillId="1311" borderId="1364" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="757" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="758" fillId="1314" borderId="1368" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="759" fillId="1317" borderId="1372" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="760" fillId="1320" borderId="1372" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="761" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="762" fillId="1323" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="763" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="764" fillId="1326" borderId="1376" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="765" fillId="1329" borderId="1380" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="766" fillId="1332" borderId="1384" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="767" fillId="1332" borderId="1384" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="768" fillId="1320" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="769" fillId="1335" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="770" fillId="1320" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="771" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -30378,7 +30977,7 @@
         <v>458</v>
       </c>
       <c r="AC2" t="s">
-        <v>233</v>
+        <v>522</v>
       </c>
     </row>
     <row r="3">
@@ -30461,7 +31060,7 @@
         <v>133</v>
       </c>
       <c r="AC3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4">
@@ -30541,7 +31140,7 @@
         <v>441</v>
       </c>
       <c r="AC4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5">
@@ -30609,7 +31208,7 @@
         <v>442</v>
       </c>
       <c r="AC5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6">
@@ -30668,7 +31267,7 @@
         <v>443</v>
       </c>
       <c r="AC6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7">
@@ -30724,7 +31323,7 @@
         <v>444</v>
       </c>
       <c r="AC7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8">
@@ -30777,7 +31376,7 @@
         <v>445</v>
       </c>
       <c r="AC8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9">
@@ -30821,7 +31420,7 @@
         <v>182</v>
       </c>
       <c r="AC9" t="s">
-        <v>506</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10">
@@ -30859,7 +31458,7 @@
         <v>183</v>
       </c>
       <c r="AC10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="11">
@@ -30894,7 +31493,7 @@
         <v>264</v>
       </c>
       <c r="AC11" t="s">
-        <v>240</v>
+        <v>523</v>
       </c>
     </row>
     <row r="12">
@@ -30929,7 +31528,7 @@
         <v>138</v>
       </c>
       <c r="AC12" t="s">
-        <v>241</v>
+        <v>524</v>
       </c>
     </row>
     <row r="13">
@@ -30964,7 +31563,7 @@
         <v>139</v>
       </c>
       <c r="AC13" t="s">
-        <v>242</v>
+        <v>507</v>
       </c>
     </row>
     <row r="14">
@@ -30998,6 +31597,9 @@
       <c r="AA14" t="s">
         <v>140</v>
       </c>
+      <c r="AC14" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -31027,6 +31629,9 @@
       <c r="AA15" t="s">
         <v>141</v>
       </c>
+      <c r="AC15" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -31053,6 +31658,9 @@
       <c r="AA16" t="s">
         <v>142</v>
       </c>
+      <c r="AC16" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -31073,6 +31681,9 @@
       <c r="AA17" t="s">
         <v>490</v>
       </c>
+      <c r="AC17" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -31089,6 +31700,9 @@
       </c>
       <c r="X18" t="s">
         <v>50</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="19">

--- a/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
@@ -41,11 +41,11 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="web">'#system'!$X$2:$X$123</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
     <definedName name="sound">'#system'!$U$2:$U$5</definedName>
     <definedName name="sms">'#system'!$T$2:$T$2</definedName>
     <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23708" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24217" uniqueCount="531">
   <si>
     <t>description</t>
   </si>
@@ -1647,6 +1647,18 @@
   </si>
   <si>
     <t>replace(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>rightClick(locator)</t>
+  </si>
+  <si>
+    <t>insertAfter(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>insertBefore(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replaceIn(xml,xpath,content,var)</t>
   </si>
 </sst>
 </file>
@@ -1654,7 +1666,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="772" x14ac:knownFonts="1">
+  <fonts count="788" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6517,8 +6529,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1336">
+  <fills count="1363">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -14085,8 +14198,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1385">
+  <borders count="1413">
     <border>
       <left/>
       <right/>
@@ -14634,6 +14900,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -28035,7 +28583,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="791">
+  <cellXfs count="807">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -30385,52 +30933,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="755" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="756" fillId="1311" borderId="1364" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="757" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1364" fillId="1311" fontId="756" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="757" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="758" fillId="1314" borderId="1368" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1368" fillId="1314" fontId="758" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="759" fillId="1317" borderId="1372" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1372" fillId="1317" fontId="759" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="760" fillId="1320" borderId="1372" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1372" fillId="1320" fontId="760" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="761" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="761" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="762" fillId="1323" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1323" fontId="762" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="763" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="764" fillId="1326" borderId="1376" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="765" fillId="1329" borderId="1380" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="766" fillId="1332" borderId="1384" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="767" fillId="1332" borderId="1384" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="768" fillId="1320" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="769" fillId="1335" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="770" fillId="1320" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="771" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="763" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1376" fillId="1326" fontId="764" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1380" fillId="1329" fontId="765" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1384" fillId="1332" fontId="766" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1384" fillId="1332" fontId="767" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1320" fontId="768" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1335" fontId="769" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1320" fontId="770" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="771" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="772" fillId="1338" borderId="1392" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="773" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="774" fillId="1341" borderId="1396" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="775" fillId="1344" borderId="1400" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="776" fillId="1347" borderId="1400" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="777" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="778" fillId="1350" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="779" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="780" fillId="1353" borderId="1404" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="781" fillId="1356" borderId="1408" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="782" fillId="1359" borderId="1412" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="783" fillId="1359" borderId="1412" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="784" fillId="1347" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="785" fillId="1362" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="786" fillId="1347" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="787" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -30791,7 +31387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD122"/>
+  <dimension ref="A1:AD123"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -31563,7 +32159,7 @@
         <v>139</v>
       </c>
       <c r="AC13" t="s">
-        <v>507</v>
+        <v>528</v>
       </c>
     </row>
     <row r="14">
@@ -31598,7 +32194,7 @@
         <v>140</v>
       </c>
       <c r="AC14" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="15">
@@ -31630,7 +32226,7 @@
         <v>141</v>
       </c>
       <c r="AC15" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
     </row>
     <row r="16">
@@ -31659,7 +32255,7 @@
         <v>142</v>
       </c>
       <c r="AC16" t="s">
-        <v>240</v>
+        <v>525</v>
       </c>
     </row>
     <row r="17">
@@ -31682,7 +32278,7 @@
         <v>490</v>
       </c>
       <c r="AC17" t="s">
-        <v>241</v>
+        <v>526</v>
       </c>
     </row>
     <row r="18">
@@ -31702,7 +32298,7 @@
         <v>50</v>
       </c>
       <c r="AC18" t="s">
-        <v>242</v>
+        <v>530</v>
       </c>
     </row>
     <row r="19">
@@ -31721,6 +32317,9 @@
       <c r="X19" t="s">
         <v>51</v>
       </c>
+      <c r="AC19" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -31738,6 +32337,9 @@
       <c r="X20" t="s">
         <v>52</v>
       </c>
+      <c r="AC20" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -31755,6 +32357,9 @@
       <c r="X21" t="s">
         <v>516</v>
       </c>
+      <c r="AC21" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -32304,7 +32909,7 @@
         <v>275</v>
       </c>
       <c r="X79" t="s">
-        <v>91</v>
+        <v>527</v>
       </c>
     </row>
     <row r="80">
@@ -32312,7 +32917,7 @@
         <v>286</v>
       </c>
       <c r="X80" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81">
@@ -32320,7 +32925,7 @@
         <v>292</v>
       </c>
       <c r="X81" t="s">
-        <v>204</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82">
@@ -32328,7 +32933,7 @@
         <v>281</v>
       </c>
       <c r="X82" t="s">
-        <v>515</v>
+        <v>204</v>
       </c>
     </row>
     <row r="83">
@@ -32336,7 +32941,7 @@
         <v>276</v>
       </c>
       <c r="X83" t="s">
-        <v>205</v>
+        <v>515</v>
       </c>
     </row>
     <row r="84">
@@ -32344,7 +32949,7 @@
         <v>293</v>
       </c>
       <c r="X84" t="s">
-        <v>482</v>
+        <v>205</v>
       </c>
     </row>
     <row r="85">
@@ -32352,7 +32957,7 @@
         <v>277</v>
       </c>
       <c r="X85" t="s">
-        <v>206</v>
+        <v>482</v>
       </c>
     </row>
     <row r="86">
@@ -32360,7 +32965,7 @@
         <v>278</v>
       </c>
       <c r="X86" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="87">
@@ -32368,7 +32973,7 @@
         <v>311</v>
       </c>
       <c r="X87" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88">
@@ -32376,7 +32981,7 @@
         <v>317</v>
       </c>
       <c r="X88" t="s">
-        <v>93</v>
+        <v>220</v>
       </c>
     </row>
     <row r="89">
@@ -32384,7 +32989,7 @@
         <v>300</v>
       </c>
       <c r="X89" t="s">
-        <v>208</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90">
@@ -32392,7 +32997,7 @@
         <v>345</v>
       </c>
       <c r="X90" t="s">
-        <v>462</v>
+        <v>208</v>
       </c>
     </row>
     <row r="91">
@@ -32400,7 +33005,7 @@
         <v>282</v>
       </c>
       <c r="X91" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="92">
@@ -32408,156 +33013,161 @@
         <v>283</v>
       </c>
       <c r="X92" t="s">
-        <v>209</v>
+        <v>464</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>95</v>
+        <v>213</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>388</v>
+        <v>95</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>96</v>
+        <v>388</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>471</v>
+        <v>108</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>109</v>
+        <v>471</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="X123" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
@@ -34,14 +34,14 @@
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="number">'#system'!$P$2:$P$16</definedName>
     <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
     <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
     <definedName name="redis">'#system'!$S$2:$S$10</definedName>
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$123</definedName>
+    <definedName name="web">'#system'!$X$2:$X$124</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24217" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25238" uniqueCount="534">
   <si>
     <t>description</t>
   </si>
@@ -1659,6 +1659,15 @@
   </si>
   <si>
     <t>replaceIn(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>roundTo(var,closestDigit)</t>
+  </si>
+  <si>
+    <t>whole(var)</t>
+  </si>
+  <si>
+    <t>assertElementsPresent(prefix)</t>
   </si>
 </sst>
 </file>
@@ -1666,7 +1675,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="788" x14ac:knownFonts="1">
+  <fonts count="820" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6630,8 +6639,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1363">
+  <fills count="1417">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -14351,8 +14562,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1413">
+  <borders count="1469">
     <border>
       <left/>
       <right/>
@@ -14900,6 +15417,570 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -28583,7 +29664,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="807">
+  <cellXfs count="839">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -30981,52 +32062,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="771" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="772" fillId="1338" borderId="1392" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="773" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1392" fillId="1338" fontId="772" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="773" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="774" fillId="1341" borderId="1396" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1396" fillId="1341" fontId="774" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="775" fillId="1344" borderId="1400" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1400" fillId="1344" fontId="775" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="776" fillId="1347" borderId="1400" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1400" fillId="1347" fontId="776" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="777" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="777" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="778" fillId="1350" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1350" fontId="778" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="779" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="780" fillId="1353" borderId="1404" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="781" fillId="1356" borderId="1408" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="782" fillId="1359" borderId="1412" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="783" fillId="1359" borderId="1412" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="784" fillId="1347" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="785" fillId="1362" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="786" fillId="1347" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="787" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="779" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1404" fillId="1353" fontId="780" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1408" fillId="1356" fontId="781" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1412" fillId="1359" fontId="782" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1412" fillId="1359" fontId="783" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1347" fontId="784" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1362" fontId="785" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1347" fontId="786" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="787" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1420" fillId="1365" fontId="788" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="789" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1424" fillId="1368" fontId="790" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1428" fillId="1371" fontId="791" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1428" fillId="1374" fontId="792" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="793" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1377" fontId="794" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="795" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1432" fillId="1380" fontId="796" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1436" fillId="1383" fontId="797" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1440" fillId="1386" fontId="798" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1440" fillId="1386" fontId="799" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1374" fontId="800" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1389" fontId="801" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1374" fontId="802" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="803" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="804" fillId="1392" borderId="1448" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="805" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="806" fillId="1395" borderId="1452" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="807" fillId="1398" borderId="1456" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="808" fillId="1401" borderId="1456" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="809" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="810" fillId="1404" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="811" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="812" fillId="1407" borderId="1460" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="813" fillId="1410" borderId="1464" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="814" fillId="1413" borderId="1468" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="815" fillId="1413" borderId="1468" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="816" fillId="1401" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="817" fillId="1416" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="818" fillId="1401" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="819" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -31387,7 +32564,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD123"/>
+  <dimension ref="A1:AD124"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -32214,7 +33391,7 @@
         <v>194</v>
       </c>
       <c r="P15" t="s">
-        <v>168</v>
+        <v>531</v>
       </c>
       <c r="Q15" t="s">
         <v>256</v>
@@ -32245,6 +33422,9 @@
       <c r="M16" t="s">
         <v>195</v>
       </c>
+      <c r="P16" t="s">
+        <v>532</v>
+      </c>
       <c r="Q16" t="s">
         <v>257</v>
       </c>
@@ -32272,7 +33452,7 @@
         <v>173</v>
       </c>
       <c r="X17" t="s">
-        <v>49</v>
+        <v>533</v>
       </c>
       <c r="AA17" t="s">
         <v>490</v>
@@ -32295,7 +33475,7 @@
         <v>385</v>
       </c>
       <c r="X18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AC18" t="s">
         <v>530</v>
@@ -32315,7 +33495,7 @@
         <v>502</v>
       </c>
       <c r="X19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AC19" t="s">
         <v>240</v>
@@ -32335,7 +33515,7 @@
         <v>151</v>
       </c>
       <c r="X20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AC20" t="s">
         <v>241</v>
@@ -32355,7 +33535,7 @@
         <v>397</v>
       </c>
       <c r="X21" t="s">
-        <v>516</v>
+        <v>52</v>
       </c>
       <c r="AC21" t="s">
         <v>242</v>
@@ -32375,7 +33555,7 @@
         <v>152</v>
       </c>
       <c r="X22" t="s">
-        <v>54</v>
+        <v>516</v>
       </c>
     </row>
     <row r="23">
@@ -32392,7 +33572,7 @@
         <v>467</v>
       </c>
       <c r="X23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24">
@@ -32409,7 +33589,7 @@
         <v>153</v>
       </c>
       <c r="X24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25">
@@ -32426,7 +33606,7 @@
         <v>154</v>
       </c>
       <c r="X25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26">
@@ -32440,7 +33620,7 @@
         <v>287</v>
       </c>
       <c r="X26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27">
@@ -32454,7 +33634,7 @@
         <v>271</v>
       </c>
       <c r="X27" t="s">
-        <v>332</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28">
@@ -32468,7 +33648,7 @@
         <v>288</v>
       </c>
       <c r="X28" t="s">
-        <v>59</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29">
@@ -32482,7 +33662,7 @@
         <v>289</v>
       </c>
       <c r="X29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30">
@@ -32493,7 +33673,7 @@
         <v>221</v>
       </c>
       <c r="X30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31">
@@ -32504,7 +33684,7 @@
         <v>280</v>
       </c>
       <c r="X31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32">
@@ -32515,7 +33695,7 @@
         <v>290</v>
       </c>
       <c r="X32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33">
@@ -32526,7 +33706,7 @@
         <v>265</v>
       </c>
       <c r="X33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34">
@@ -32537,7 +33717,7 @@
         <v>335</v>
       </c>
       <c r="X34" t="s">
-        <v>215</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35">
@@ -32548,7 +33728,7 @@
         <v>313</v>
       </c>
       <c r="X35" t="s">
-        <v>65</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36">
@@ -32559,7 +33739,7 @@
         <v>266</v>
       </c>
       <c r="X36" t="s">
-        <v>343</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37">
@@ -32570,7 +33750,7 @@
         <v>314</v>
       </c>
       <c r="X37" t="s">
-        <v>460</v>
+        <v>343</v>
       </c>
     </row>
     <row r="38">
@@ -32581,7 +33761,7 @@
         <v>272</v>
       </c>
       <c r="X38" t="s">
-        <v>398</v>
+        <v>460</v>
       </c>
     </row>
     <row r="39">
@@ -32589,7 +33769,7 @@
         <v>158</v>
       </c>
       <c r="X39" t="s">
-        <v>66</v>
+        <v>398</v>
       </c>
     </row>
     <row r="40">
@@ -32597,7 +33777,7 @@
         <v>217</v>
       </c>
       <c r="X40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41">
@@ -32605,7 +33785,7 @@
         <v>294</v>
       </c>
       <c r="X41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42">
@@ -32613,7 +33793,7 @@
         <v>305</v>
       </c>
       <c r="X42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43">
@@ -32621,7 +33801,7 @@
         <v>306</v>
       </c>
       <c r="X43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44">
@@ -32629,7 +33809,7 @@
         <v>348</v>
       </c>
       <c r="X44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45">
@@ -32637,7 +33817,7 @@
         <v>347</v>
       </c>
       <c r="X45" t="s">
-        <v>469</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46">
@@ -32645,7 +33825,7 @@
         <v>216</v>
       </c>
       <c r="X46" t="s">
-        <v>218</v>
+        <v>469</v>
       </c>
     </row>
     <row r="47">
@@ -32653,7 +33833,7 @@
         <v>307</v>
       </c>
       <c r="X47" t="s">
-        <v>72</v>
+        <v>218</v>
       </c>
     </row>
     <row r="48">
@@ -32661,7 +33841,7 @@
         <v>344</v>
       </c>
       <c r="X48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49">
@@ -32669,7 +33849,7 @@
         <v>373</v>
       </c>
       <c r="X49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50">
@@ -32677,7 +33857,7 @@
         <v>308</v>
       </c>
       <c r="X50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51">
@@ -32685,7 +33865,7 @@
         <v>361</v>
       </c>
       <c r="X51" t="s">
-        <v>514</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52">
@@ -32693,7 +33873,7 @@
         <v>336</v>
       </c>
       <c r="X52" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
     </row>
     <row r="53">
@@ -32701,7 +33881,7 @@
         <v>273</v>
       </c>
       <c r="X53" t="s">
-        <v>76</v>
+        <v>495</v>
       </c>
     </row>
     <row r="54">
@@ -32709,7 +33889,7 @@
         <v>297</v>
       </c>
       <c r="X54" t="s">
-        <v>351</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55">
@@ -32717,7 +33897,7 @@
         <v>298</v>
       </c>
       <c r="X55" t="s">
-        <v>488</v>
+        <v>351</v>
       </c>
     </row>
     <row r="56">
@@ -32725,7 +33905,7 @@
         <v>299</v>
       </c>
       <c r="X56" t="s">
-        <v>77</v>
+        <v>488</v>
       </c>
     </row>
     <row r="57">
@@ -32733,7 +33913,7 @@
         <v>309</v>
       </c>
       <c r="X57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58">
@@ -32741,7 +33921,7 @@
         <v>318</v>
       </c>
       <c r="X58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59">
@@ -32749,7 +33929,7 @@
         <v>342</v>
       </c>
       <c r="X59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60">
@@ -32757,7 +33937,7 @@
         <v>315</v>
       </c>
       <c r="X60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61">
@@ -32765,7 +33945,7 @@
         <v>316</v>
       </c>
       <c r="X61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62">
@@ -32773,7 +33953,7 @@
         <v>374</v>
       </c>
       <c r="X62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63">
@@ -32781,7 +33961,7 @@
         <v>375</v>
       </c>
       <c r="X63" t="s">
-        <v>465</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64">
@@ -32789,7 +33969,7 @@
         <v>350</v>
       </c>
       <c r="X64" t="s">
-        <v>505</v>
+        <v>465</v>
       </c>
     </row>
     <row r="65">
@@ -32797,7 +33977,7 @@
         <v>319</v>
       </c>
       <c r="X65" t="s">
-        <v>219</v>
+        <v>505</v>
       </c>
     </row>
     <row r="66">
@@ -32805,7 +33985,7 @@
         <v>274</v>
       </c>
       <c r="X66" t="s">
-        <v>394</v>
+        <v>219</v>
       </c>
     </row>
     <row r="67">
@@ -32813,7 +33993,7 @@
         <v>358</v>
       </c>
       <c r="X67" t="s">
-        <v>470</v>
+        <v>394</v>
       </c>
     </row>
     <row r="68">
@@ -32821,7 +34001,7 @@
         <v>320</v>
       </c>
       <c r="X68" t="s">
-        <v>84</v>
+        <v>470</v>
       </c>
     </row>
     <row r="69">
@@ -32829,7 +34009,7 @@
         <v>415</v>
       </c>
       <c r="X69" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70">
@@ -32837,7 +34017,7 @@
         <v>310</v>
       </c>
       <c r="X70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71">
@@ -32845,7 +34025,7 @@
         <v>416</v>
       </c>
       <c r="X71" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72">
@@ -32853,7 +34033,7 @@
         <v>267</v>
       </c>
       <c r="X72" t="s">
-        <v>202</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73">
@@ -32861,7 +34041,7 @@
         <v>349</v>
       </c>
       <c r="X73" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="74">
@@ -32869,7 +34049,7 @@
         <v>285</v>
       </c>
       <c r="X74" t="s">
-        <v>483</v>
+        <v>203</v>
       </c>
     </row>
     <row r="75">
@@ -32877,7 +34057,7 @@
         <v>291</v>
       </c>
       <c r="X75" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
     </row>
     <row r="76">
@@ -32885,7 +34065,7 @@
         <v>296</v>
       </c>
       <c r="X76" t="s">
-        <v>88</v>
+        <v>499</v>
       </c>
     </row>
     <row r="77">
@@ -32893,7 +34073,7 @@
         <v>446</v>
       </c>
       <c r="X77" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78">
@@ -32901,7 +34081,7 @@
         <v>337</v>
       </c>
       <c r="X78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79">
@@ -32909,7 +34089,7 @@
         <v>275</v>
       </c>
       <c r="X79" t="s">
-        <v>527</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80">
@@ -32917,7 +34097,7 @@
         <v>286</v>
       </c>
       <c r="X80" t="s">
-        <v>91</v>
+        <v>527</v>
       </c>
     </row>
     <row r="81">
@@ -32925,7 +34105,7 @@
         <v>292</v>
       </c>
       <c r="X81" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82">
@@ -32933,7 +34113,7 @@
         <v>281</v>
       </c>
       <c r="X82" t="s">
-        <v>204</v>
+        <v>92</v>
       </c>
     </row>
     <row r="83">
@@ -32941,7 +34121,7 @@
         <v>276</v>
       </c>
       <c r="X83" t="s">
-        <v>515</v>
+        <v>204</v>
       </c>
     </row>
     <row r="84">
@@ -32949,7 +34129,7 @@
         <v>293</v>
       </c>
       <c r="X84" t="s">
-        <v>205</v>
+        <v>515</v>
       </c>
     </row>
     <row r="85">
@@ -32957,7 +34137,7 @@
         <v>277</v>
       </c>
       <c r="X85" t="s">
-        <v>482</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86">
@@ -32965,7 +34145,7 @@
         <v>278</v>
       </c>
       <c r="X86" t="s">
-        <v>206</v>
+        <v>482</v>
       </c>
     </row>
     <row r="87">
@@ -32973,7 +34153,7 @@
         <v>311</v>
       </c>
       <c r="X87" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="88">
@@ -32981,7 +34161,7 @@
         <v>317</v>
       </c>
       <c r="X88" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="89">
@@ -32989,7 +34169,7 @@
         <v>300</v>
       </c>
       <c r="X89" t="s">
-        <v>93</v>
+        <v>220</v>
       </c>
     </row>
     <row r="90">
@@ -32997,7 +34177,7 @@
         <v>345</v>
       </c>
       <c r="X90" t="s">
-        <v>208</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91">
@@ -33005,7 +34185,7 @@
         <v>282</v>
       </c>
       <c r="X91" t="s">
-        <v>462</v>
+        <v>208</v>
       </c>
     </row>
     <row r="92">
@@ -33013,161 +34193,166 @@
         <v>283</v>
       </c>
       <c r="X92" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>209</v>
+        <v>464</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>95</v>
+        <v>213</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>388</v>
+        <v>95</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>96</v>
+        <v>388</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>471</v>
+        <v>108</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>109</v>
+        <v>471</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="X124" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
@@ -41,7 +41,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$124</definedName>
+    <definedName name="web">'#system'!$X$2:$X$125</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25238" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26261" uniqueCount="535">
   <si>
     <t>description</t>
   </si>
@@ -1668,6 +1668,9 @@
   </si>
   <si>
     <t>assertElementsPresent(prefix)</t>
+  </si>
+  <si>
+    <t>saveValues(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1675,7 +1678,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="820" x14ac:knownFonts="1">
+  <fonts count="852" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6841,8 +6844,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1417">
+  <fills count="1471">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -14868,8 +15073,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1469">
+  <borders count="1525">
     <border>
       <left/>
       <right/>
@@ -15417,6 +15928,570 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -29664,7 +30739,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="839">
+  <cellXfs count="871">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -32158,52 +33233,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="803" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="804" fillId="1392" borderId="1448" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="805" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1448" fillId="1392" fontId="804" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="805" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="806" fillId="1395" borderId="1452" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1452" fillId="1395" fontId="806" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="807" fillId="1398" borderId="1456" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1456" fillId="1398" fontId="807" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="808" fillId="1401" borderId="1456" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1456" fillId="1401" fontId="808" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="809" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="809" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="810" fillId="1404" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1404" fontId="810" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="811" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="812" fillId="1407" borderId="1460" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="813" fillId="1410" borderId="1464" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="814" fillId="1413" borderId="1468" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="815" fillId="1413" borderId="1468" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="816" fillId="1401" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="817" fillId="1416" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="818" fillId="1401" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="819" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="811" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1460" fillId="1407" fontId="812" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1464" fillId="1410" fontId="813" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1468" fillId="1413" fontId="814" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1468" fillId="1413" fontId="815" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1401" fontId="816" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1416" fontId="817" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1401" fontId="818" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="819" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1476" fillId="1419" fontId="820" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="821" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1480" fillId="1422" fontId="822" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1484" fillId="1425" fontId="823" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1484" fillId="1428" fontId="824" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="825" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1431" fontId="826" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="827" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1488" fillId="1434" fontId="828" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1492" fillId="1437" fontId="829" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1496" fillId="1440" fontId="830" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1496" fillId="1440" fontId="831" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1428" fontId="832" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1443" fontId="833" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1428" fontId="834" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="835" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="836" fillId="1446" borderId="1504" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="837" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="838" fillId="1449" borderId="1508" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="839" fillId="1452" borderId="1512" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="840" fillId="1455" borderId="1512" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="841" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="842" fillId="1458" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="843" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="844" fillId="1461" borderId="1516" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="845" fillId="1464" borderId="1520" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="846" fillId="1467" borderId="1524" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="847" fillId="1467" borderId="1524" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="848" fillId="1455" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="849" fillId="1470" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="850" fillId="1455" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="851" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -32564,7 +33735,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD124"/>
+  <dimension ref="A1:AD125"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -34233,126 +35404,131 @@
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>95</v>
+        <v>534</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>388</v>
+        <v>95</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>96</v>
+        <v>388</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>471</v>
+        <v>108</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>109</v>
+        <v>471</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="X125" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
@@ -20,14 +20,14 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$E$2:$E$38</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$O$2:$O$2</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26261" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26777" uniqueCount="539">
   <si>
     <t>description</t>
   </si>
@@ -1671,6 +1671,18 @@
   </si>
   <si>
     <t>saveValues(var,locator)</t>
+  </si>
+  <si>
+    <t>toExcel(csvFile,excel,worksheet,startCell)</t>
+  </si>
+  <si>
+    <t>copyFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>deleteFilesByRegex(sourceDir,regex)</t>
+  </si>
+  <si>
+    <t>moveFilesByRegex(sourceDir,regex,target)</t>
   </si>
 </sst>
 </file>
@@ -1678,7 +1690,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="852" x14ac:knownFonts="1">
+  <fonts count="868" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7046,8 +7058,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1471">
+  <fills count="1498">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15379,8 +15492,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1525">
+  <borders count="1553">
     <border>
       <left/>
       <right/>
@@ -15928,6 +16194,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -30739,7 +31287,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="871">
+  <cellXfs count="887">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -33329,52 +33877,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="835" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="836" fillId="1446" borderId="1504" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="837" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1504" fillId="1446" fontId="836" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="837" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="838" fillId="1449" borderId="1508" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1508" fillId="1449" fontId="838" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="839" fillId="1452" borderId="1512" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1512" fillId="1452" fontId="839" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="840" fillId="1455" borderId="1512" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1512" fillId="1455" fontId="840" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="841" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="841" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="842" fillId="1458" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1458" fontId="842" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="843" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="844" fillId="1461" borderId="1516" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="845" fillId="1464" borderId="1520" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="846" fillId="1467" borderId="1524" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="847" fillId="1467" borderId="1524" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="848" fillId="1455" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="849" fillId="1470" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="850" fillId="1455" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="851" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="843" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1516" fillId="1461" fontId="844" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1520" fillId="1464" fontId="845" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1524" fillId="1467" fontId="846" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1524" fillId="1467" fontId="847" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1455" fontId="848" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1470" fontId="849" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1455" fontId="850" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="851" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="852" fillId="1473" borderId="1532" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="853" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="854" fillId="1476" borderId="1536" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="855" fillId="1479" borderId="1540" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="856" fillId="1482" borderId="1540" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="857" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="858" fillId="1485" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="859" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="860" fillId="1488" borderId="1544" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="861" fillId="1491" borderId="1548" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="862" fillId="1494" borderId="1552" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="863" fillId="1494" borderId="1552" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="864" fillId="1482" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="865" fillId="1497" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="866" fillId="1482" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="867" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -34165,6 +34761,9 @@
       <c r="E6" t="s">
         <v>20</v>
       </c>
+      <c r="F6" t="s">
+        <v>535</v>
+      </c>
       <c r="G6" t="s">
         <v>393</v>
       </c>
@@ -34287,7 +34886,7 @@
         <v>333</v>
       </c>
       <c r="K8" t="s">
-        <v>169</v>
+        <v>536</v>
       </c>
       <c r="M8" t="s">
         <v>190</v>
@@ -34340,7 +34939,7 @@
         <v>334</v>
       </c>
       <c r="K9" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="M9" t="s">
         <v>191</v>
@@ -34381,7 +34980,7 @@
         <v>480</v>
       </c>
       <c r="K10" t="s">
-        <v>395</v>
+        <v>148</v>
       </c>
       <c r="M10" t="s">
         <v>192</v>
@@ -34419,7 +35018,7 @@
         <v>327</v>
       </c>
       <c r="K11" t="s">
-        <v>149</v>
+        <v>537</v>
       </c>
       <c r="M11" t="s">
         <v>504</v>
@@ -34454,7 +35053,7 @@
         <v>328</v>
       </c>
       <c r="K12" t="s">
-        <v>150</v>
+        <v>395</v>
       </c>
       <c r="M12" t="s">
         <v>468</v>
@@ -34489,7 +35088,7 @@
         <v>329</v>
       </c>
       <c r="K13" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="M13" t="s">
         <v>503</v>
@@ -34524,7 +35123,7 @@
         <v>330</v>
       </c>
       <c r="K14" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="M14" t="s">
         <v>193</v>
@@ -34556,7 +35155,7 @@
         <v>270</v>
       </c>
       <c r="K15" t="s">
-        <v>485</v>
+        <v>538</v>
       </c>
       <c r="M15" t="s">
         <v>194</v>
@@ -34588,7 +35187,7 @@
         <v>323</v>
       </c>
       <c r="K16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M16" t="s">
         <v>195</v>
@@ -34620,7 +35219,7 @@
         <v>180</v>
       </c>
       <c r="K17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="X17" t="s">
         <v>533</v>
@@ -34643,7 +35242,7 @@
         <v>181</v>
       </c>
       <c r="K18" t="s">
-        <v>385</v>
+        <v>485</v>
       </c>
       <c r="X18" t="s">
         <v>49</v>
@@ -34663,7 +35262,7 @@
         <v>301</v>
       </c>
       <c r="K19" t="s">
-        <v>502</v>
+        <v>172</v>
       </c>
       <c r="X19" t="s">
         <v>50</v>
@@ -34683,7 +35282,7 @@
         <v>302</v>
       </c>
       <c r="K20" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="X20" t="s">
         <v>51</v>
@@ -34703,7 +35302,7 @@
         <v>303</v>
       </c>
       <c r="K21" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="X21" t="s">
         <v>52</v>
@@ -34723,7 +35322,7 @@
         <v>304</v>
       </c>
       <c r="K22" t="s">
-        <v>152</v>
+        <v>502</v>
       </c>
       <c r="X22" t="s">
         <v>516</v>
@@ -34740,7 +35339,7 @@
         <v>295</v>
       </c>
       <c r="K23" t="s">
-        <v>467</v>
+        <v>151</v>
       </c>
       <c r="X23" t="s">
         <v>54</v>
@@ -34757,7 +35356,7 @@
         <v>284</v>
       </c>
       <c r="K24" t="s">
-        <v>153</v>
+        <v>397</v>
       </c>
       <c r="X24" t="s">
         <v>55</v>
@@ -34774,7 +35373,7 @@
         <v>156</v>
       </c>
       <c r="K25" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="X25" t="s">
         <v>56</v>
@@ -34790,6 +35389,9 @@
       <c r="G26" t="s">
         <v>287</v>
       </c>
+      <c r="K26" t="s">
+        <v>467</v>
+      </c>
       <c r="X26" t="s">
         <v>57</v>
       </c>
@@ -34804,6 +35406,9 @@
       <c r="G27" t="s">
         <v>271</v>
       </c>
+      <c r="K27" t="s">
+        <v>153</v>
+      </c>
       <c r="X27" t="s">
         <v>58</v>
       </c>
@@ -34817,6 +35422,9 @@
       </c>
       <c r="G28" t="s">
         <v>288</v>
+      </c>
+      <c r="K28" t="s">
+        <v>154</v>
       </c>
       <c r="X28" t="s">
         <v>332</v>

--- a/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
@@ -23,7 +23,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26777" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27295" uniqueCount="541">
   <si>
     <t>description</t>
   </si>
@@ -1683,6 +1683,12 @@
   </si>
   <si>
     <t>moveFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>clickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveTextByLocator(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1690,7 +1696,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="868" x14ac:knownFonts="1">
+  <fonts count="884" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7159,8 +7165,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1498">
+  <fills count="1525">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15645,8 +15752,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1553">
+  <borders count="1581">
     <border>
       <left/>
       <right/>
@@ -16194,6 +16454,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -31287,7 +31829,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="887">
+  <cellXfs count="903">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -33925,52 +34467,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="851" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="852" fillId="1473" borderId="1532" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="853" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1532" fillId="1473" fontId="852" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="853" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="854" fillId="1476" borderId="1536" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1536" fillId="1476" fontId="854" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="855" fillId="1479" borderId="1540" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1540" fillId="1479" fontId="855" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="856" fillId="1482" borderId="1540" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1540" fillId="1482" fontId="856" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="857" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="857" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="858" fillId="1485" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1485" fontId="858" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="859" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="860" fillId="1488" borderId="1544" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="861" fillId="1491" borderId="1548" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="862" fillId="1494" borderId="1552" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="863" fillId="1494" borderId="1552" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="864" fillId="1482" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="865" fillId="1497" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="866" fillId="1482" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="867" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="859" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1544" fillId="1488" fontId="860" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1548" fillId="1491" fontId="861" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1552" fillId="1494" fontId="862" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1552" fillId="1494" fontId="863" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1482" fontId="864" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1497" fontId="865" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1482" fontId="866" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="867" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="868" fillId="1500" borderId="1560" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="869" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="870" fillId="1503" borderId="1564" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="871" fillId="1506" borderId="1568" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="872" fillId="1509" borderId="1568" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="873" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="874" fillId="1512" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="875" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="876" fillId="1515" borderId="1572" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="877" fillId="1518" borderId="1576" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="878" fillId="1521" borderId="1580" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="879" fillId="1521" borderId="1580" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="880" fillId="1509" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="881" fillId="1524" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="882" fillId="1509" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="883" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -35482,7 +36072,7 @@
         <v>38</v>
       </c>
       <c r="G33" t="s">
-        <v>265</v>
+        <v>539</v>
       </c>
       <c r="X33" t="s">
         <v>63</v>
@@ -35493,7 +36083,7 @@
         <v>160</v>
       </c>
       <c r="G34" t="s">
-        <v>335</v>
+        <v>265</v>
       </c>
       <c r="X34" t="s">
         <v>64</v>
@@ -35504,7 +36094,7 @@
         <v>161</v>
       </c>
       <c r="G35" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="X35" t="s">
         <v>215</v>
@@ -35515,7 +36105,7 @@
         <v>162</v>
       </c>
       <c r="G36" t="s">
-        <v>266</v>
+        <v>313</v>
       </c>
       <c r="X36" t="s">
         <v>65</v>
@@ -35526,7 +36116,7 @@
         <v>39</v>
       </c>
       <c r="G37" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="X37" t="s">
         <v>343</v>
@@ -35537,7 +36127,7 @@
         <v>155</v>
       </c>
       <c r="G38" t="s">
-        <v>272</v>
+        <v>314</v>
       </c>
       <c r="X38" t="s">
         <v>460</v>
@@ -35545,7 +36135,7 @@
     </row>
     <row r="39">
       <c r="G39" t="s">
-        <v>158</v>
+        <v>272</v>
       </c>
       <c r="X39" t="s">
         <v>398</v>
@@ -35553,7 +36143,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>217</v>
+        <v>158</v>
       </c>
       <c r="X40" t="s">
         <v>66</v>
@@ -35561,7 +36151,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>294</v>
+        <v>217</v>
       </c>
       <c r="X41" t="s">
         <v>67</v>
@@ -35569,7 +36159,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="X42" t="s">
         <v>68</v>
@@ -35577,7 +36167,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="X43" t="s">
         <v>69</v>
@@ -35585,7 +36175,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>348</v>
+        <v>306</v>
       </c>
       <c r="X44" t="s">
         <v>70</v>
@@ -35593,7 +36183,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="X45" t="s">
         <v>71</v>
@@ -35601,7 +36191,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>216</v>
+        <v>347</v>
       </c>
       <c r="X46" t="s">
         <v>469</v>
@@ -35609,7 +36199,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>307</v>
+        <v>216</v>
       </c>
       <c r="X47" t="s">
         <v>218</v>
@@ -35617,7 +36207,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>344</v>
+        <v>307</v>
       </c>
       <c r="X48" t="s">
         <v>72</v>
@@ -35625,7 +36215,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>373</v>
+        <v>344</v>
       </c>
       <c r="X49" t="s">
         <v>73</v>
@@ -35633,7 +36223,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>308</v>
+        <v>373</v>
       </c>
       <c r="X50" t="s">
         <v>74</v>
@@ -35641,7 +36231,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>361</v>
+        <v>308</v>
       </c>
       <c r="X51" t="s">
         <v>75</v>
@@ -35649,7 +36239,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="X52" t="s">
         <v>514</v>
@@ -35657,7 +36247,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>273</v>
+        <v>336</v>
       </c>
       <c r="X53" t="s">
         <v>495</v>
@@ -35665,7 +36255,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="X54" t="s">
         <v>76</v>
@@ -35673,7 +36263,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="X55" t="s">
         <v>351</v>
@@ -35681,7 +36271,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="X56" t="s">
         <v>488</v>
@@ -35689,7 +36279,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="X57" t="s">
         <v>77</v>
@@ -35697,7 +36287,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="X58" t="s">
         <v>78</v>
@@ -35705,7 +36295,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="X59" t="s">
         <v>79</v>
@@ -35713,7 +36303,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="X60" t="s">
         <v>80</v>
@@ -35721,7 +36311,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="X61" t="s">
         <v>81</v>
@@ -35729,7 +36319,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>374</v>
+        <v>316</v>
       </c>
       <c r="X62" t="s">
         <v>82</v>
@@ -35737,7 +36327,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="X63" t="s">
         <v>83</v>
@@ -35745,7 +36335,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="X64" t="s">
         <v>465</v>
@@ -35753,7 +36343,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="X65" t="s">
         <v>505</v>
@@ -35761,7 +36351,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>274</v>
+        <v>319</v>
       </c>
       <c r="X66" t="s">
         <v>219</v>
@@ -35769,7 +36359,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>358</v>
+        <v>274</v>
       </c>
       <c r="X67" t="s">
         <v>394</v>
@@ -35777,7 +36367,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="X68" t="s">
         <v>470</v>
@@ -35785,7 +36375,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>415</v>
+        <v>320</v>
       </c>
       <c r="X69" t="s">
         <v>84</v>
@@ -35793,7 +36383,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>310</v>
+        <v>415</v>
       </c>
       <c r="X70" t="s">
         <v>85</v>
@@ -35801,7 +36391,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>416</v>
+        <v>310</v>
       </c>
       <c r="X71" t="s">
         <v>86</v>
@@ -35809,7 +36399,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>267</v>
+        <v>416</v>
       </c>
       <c r="X72" t="s">
         <v>87</v>
@@ -35817,7 +36407,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>349</v>
+        <v>267</v>
       </c>
       <c r="X73" t="s">
         <v>202</v>
@@ -35825,7 +36415,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>285</v>
+        <v>540</v>
       </c>
       <c r="X74" t="s">
         <v>203</v>
@@ -35833,7 +36423,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>291</v>
+        <v>349</v>
       </c>
       <c r="X75" t="s">
         <v>483</v>
@@ -35841,7 +36431,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="X76" t="s">
         <v>499</v>
@@ -35849,7 +36439,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>446</v>
+        <v>291</v>
       </c>
       <c r="X77" t="s">
         <v>88</v>
@@ -35857,7 +36447,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>337</v>
+        <v>296</v>
       </c>
       <c r="X78" t="s">
         <v>89</v>
@@ -35865,7 +36455,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>275</v>
+        <v>446</v>
       </c>
       <c r="X79" t="s">
         <v>90</v>
@@ -35873,7 +36463,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>286</v>
+        <v>337</v>
       </c>
       <c r="X80" t="s">
         <v>527</v>
@@ -35881,7 +36471,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="X81" t="s">
         <v>91</v>
@@ -35889,7 +36479,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="X82" t="s">
         <v>92</v>
@@ -35897,7 +36487,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="X83" t="s">
         <v>204</v>
@@ -35905,7 +36495,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="X84" t="s">
         <v>515</v>
@@ -35913,7 +36503,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="X85" t="s">
         <v>205</v>
@@ -35921,7 +36511,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="X86" t="s">
         <v>482</v>
@@ -35929,7 +36519,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
       <c r="X87" t="s">
         <v>206</v>
@@ -35937,7 +36527,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="X88" t="s">
         <v>207</v>
@@ -35945,7 +36535,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="X89" t="s">
         <v>220</v>
@@ -35953,7 +36543,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="X90" t="s">
         <v>93</v>
@@ -35961,7 +36551,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="X91" t="s">
         <v>208</v>
@@ -35969,18 +36559,24 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>283</v>
+        <v>345</v>
       </c>
       <c r="X92" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="93">
+      <c r="G93" t="s">
+        <v>282</v>
+      </c>
       <c r="X93" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="94">
+      <c r="G94" t="s">
+        <v>283</v>
+      </c>
       <c r="X94" t="s">
         <v>209</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
@@ -41,7 +41,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$125</definedName>
+    <definedName name="web">'#system'!$X$2:$X$127</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27295" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28335" uniqueCount="543">
   <si>
     <t>description</t>
   </si>
@@ -1689,6 +1689,12 @@
   </si>
   <si>
     <t>saveTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>scrollElement(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>scrollPage(xOffset,yOffset)</t>
   </si>
 </sst>
 </file>
@@ -1696,7 +1702,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="884" x14ac:knownFonts="1">
+  <fonts count="916" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7266,8 +7272,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1525">
+  <fills count="1585">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15905,8 +16113,348 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1581">
+  <borders count="1637">
     <border>
       <left/>
       <right/>
@@ -16454,6 +17002,570 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -31829,7 +32941,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="903">
+  <cellXfs count="935">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -34515,52 +35627,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="867" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="868" fillId="1500" borderId="1560" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="869" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1560" fillId="1500" fontId="868" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="869" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="870" fillId="1503" borderId="1564" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1564" fillId="1503" fontId="870" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="871" fillId="1506" borderId="1568" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1568" fillId="1506" fontId="871" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="872" fillId="1509" borderId="1568" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1568" fillId="1509" fontId="872" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="873" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="873" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="874" fillId="1512" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1512" fontId="874" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="875" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="876" fillId="1515" borderId="1572" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="877" fillId="1518" borderId="1576" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="878" fillId="1521" borderId="1580" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="879" fillId="1521" borderId="1580" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="880" fillId="1509" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="881" fillId="1524" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="882" fillId="1509" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="883" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="875" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1572" fillId="1515" fontId="876" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1576" fillId="1518" fontId="877" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1580" fillId="1521" fontId="878" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1580" fillId="1521" fontId="879" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1509" fontId="880" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1524" fontId="881" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1509" fontId="882" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="883" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1588" fillId="1527" fontId="884" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="885" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1592" fillId="1530" fontId="886" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1596" fillId="1533" fontId="887" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1596" fillId="1536" fontId="888" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="889" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1539" fontId="890" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="891" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1600" fillId="1542" fontId="892" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1604" fillId="1545" fontId="893" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1608" fillId="1548" fontId="894" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1608" fillId="1548" fontId="895" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1536" fontId="896" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1551" fontId="897" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1536" fontId="898" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1554" fontId="899" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="900" fillId="1557" borderId="1616" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="901" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="902" fillId="1560" borderId="1620" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="903" fillId="1563" borderId="1624" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="904" fillId="1566" borderId="1624" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="905" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="906" fillId="1569" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="907" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="908" fillId="1572" borderId="1628" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="909" fillId="1575" borderId="1632" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="910" fillId="1578" borderId="1636" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="911" fillId="1578" borderId="1636" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="912" fillId="1566" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="913" fillId="1581" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="914" fillId="1566" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="915" fillId="1584" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -34921,7 +36129,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD125"/>
+  <dimension ref="A1:AD127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -36613,126 +37821,136 @@
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>95</v>
+        <v>541</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>388</v>
+        <v>95</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>96</v>
+        <v>542</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>97</v>
+        <v>388</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>471</v>
+        <v>107</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>110</v>
+        <v>471</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="125">
       <c r="X125" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="X126" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="X127" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
@@ -30,28 +30,29 @@
     <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
-    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
+    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$16</definedName>
-    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
-    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
-    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
-    <definedName name="step">'#system'!$W$2:$W$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$127</definedName>
-    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
-    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
-    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
-    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
+    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
+    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
+    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
+    <definedName name="step">'#system'!$X$2:$X$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
+    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28335" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28863" uniqueCount="550">
   <si>
     <t>description</t>
   </si>
@@ -1695,6 +1696,27 @@
   </si>
   <si>
     <t>scrollPage(xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>localdb</t>
+  </si>
+  <si>
+    <t>cloneTable(var,source,target)</t>
+  </si>
+  <si>
+    <t>dropTables(var,tables)</t>
+  </si>
+  <si>
+    <t>exportCSV(sql,output)</t>
+  </si>
+  <si>
+    <t>importRecords(var,sourceDb,sql,table)</t>
+  </si>
+  <si>
+    <t>purge(var)</t>
+  </si>
+  <si>
+    <t>runSQLs(var,sqls)</t>
   </si>
 </sst>
 </file>
@@ -1702,7 +1724,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="916" x14ac:knownFonts="1">
+  <fonts count="932" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7474,8 +7496,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1585">
+  <fills count="1615">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -16453,8 +16576,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1637">
+  <borders count="1665">
     <border>
       <left/>
       <right/>
@@ -17002,6 +17295,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -32941,7 +33516,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="935">
+  <cellXfs count="951">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -35723,52 +36298,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1554" fontId="899" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="900" fillId="1557" borderId="1616" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="901" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1616" fillId="1557" fontId="900" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="901" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="902" fillId="1560" borderId="1620" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1620" fillId="1560" fontId="902" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="903" fillId="1563" borderId="1624" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1624" fillId="1563" fontId="903" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="904" fillId="1566" borderId="1624" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1624" fillId="1566" fontId="904" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="905" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="905" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="906" fillId="1569" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1569" fontId="906" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="907" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="908" fillId="1572" borderId="1628" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="909" fillId="1575" borderId="1632" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="910" fillId="1578" borderId="1636" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="911" fillId="1578" borderId="1636" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="912" fillId="1566" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="913" fillId="1581" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="914" fillId="1566" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="915" fillId="1584" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="907" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1628" fillId="1572" fontId="908" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1632" fillId="1575" fontId="909" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1636" fillId="1578" fontId="910" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1636" fillId="1578" fontId="911" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1566" fontId="912" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1581" fontId="913" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1566" fontId="914" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1584" fontId="915" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="916" fillId="1587" borderId="1644" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="917" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="918" fillId="1590" borderId="1648" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="919" fillId="1593" borderId="1652" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="920" fillId="1596" borderId="1652" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="921" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="922" fillId="1599" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="923" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="924" fillId="1602" borderId="1656" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="925" fillId="1605" borderId="1660" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="926" fillId="1608" borderId="1664" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="927" fillId="1608" borderId="1664" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="928" fillId="1596" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="929" fillId="1611" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="930" fillId="1596" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="931" fillId="1614" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -36129,7 +36752,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD127"/>
+  <dimension ref="A1:AE127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -36181,51 +36804,54 @@
         <v>185</v>
       </c>
       <c r="N1" t="s">
+        <v>543</v>
+      </c>
+      <c r="O1" t="s">
         <v>508</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>196</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>128</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>244</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>184</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>405</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>438</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>428</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>362</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>401</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>131</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>440</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>232</v>
       </c>
     </row>
@@ -36270,51 +36896,54 @@
         <v>447</v>
       </c>
       <c r="N2" t="s">
+        <v>544</v>
+      </c>
+      <c r="O2" t="s">
         <v>511</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>421</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>448</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>258</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>222</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>406</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>439</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>437</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>386</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>402</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>40</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>117</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>122</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>132</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>458</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>522</v>
       </c>
     </row>
@@ -36359,45 +36988,48 @@
         <v>186</v>
       </c>
       <c r="N3" t="s">
+        <v>545</v>
+      </c>
+      <c r="O3" t="s">
         <v>512</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>449</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>245</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>223</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>407</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>431</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>387</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>403</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>41</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>118</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>123</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>369</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>133</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>233</v>
       </c>
     </row>
@@ -36439,45 +37071,48 @@
         <v>187</v>
       </c>
       <c r="N4" t="s">
+        <v>546</v>
+      </c>
+      <c r="O4" t="s">
         <v>513</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>246</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>224</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>408</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>434</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>363</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>404</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>359</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>119</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>124</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>133</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>441</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>234</v>
       </c>
     </row>
@@ -36512,40 +37147,43 @@
       <c r="M5" t="s">
         <v>188</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N5" t="s">
+        <v>547</v>
+      </c>
+      <c r="Q5" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>247</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>225</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>409</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>435</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>364</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>360</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>120</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>125</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>134</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>442</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>235</v>
       </c>
     </row>
@@ -36577,37 +37215,40 @@
       <c r="M6" t="s">
         <v>189</v>
       </c>
-      <c r="P6" t="s">
+      <c r="N6" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q6" t="s">
         <v>22</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>248</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>396</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>410</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>366</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>42</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>472</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>126</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>135</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>443</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>236</v>
       </c>
     </row>
@@ -36633,37 +37274,40 @@
       <c r="M7" t="s">
         <v>321</v>
       </c>
-      <c r="P7" t="s">
+      <c r="N7" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q7" t="s">
         <v>24</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>249</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>429</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>411</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>365</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>43</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>473</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>130</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>136</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>444</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>237</v>
       </c>
     </row>
@@ -36689,34 +37333,34 @@
       <c r="M8" t="s">
         <v>190</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>163</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>250</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>412</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>367</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>44</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>121</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>127</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>137</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>445</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>238</v>
       </c>
     </row>
@@ -36742,25 +37386,25 @@
       <c r="M9" t="s">
         <v>191</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>164</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>251</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>413</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>368</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>214</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>182</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>239</v>
       </c>
     </row>
@@ -36783,22 +37427,22 @@
       <c r="M10" t="s">
         <v>192</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>459</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>252</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>414</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>262</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>183</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>506</v>
       </c>
     </row>
@@ -36821,19 +37465,19 @@
       <c r="M11" t="s">
         <v>504</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>165</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>253</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>263</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>264</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>523</v>
       </c>
     </row>
@@ -36856,19 +37500,19 @@
       <c r="M12" t="s">
         <v>468</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>26</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>254</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>45</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>138</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>524</v>
       </c>
     </row>
@@ -36891,25 +37535,25 @@
       <c r="M13" t="s">
         <v>503</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>166</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>259</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>331</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>139</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>508</v>
+        <v>543</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
@@ -36926,25 +37570,25 @@
       <c r="M14" t="s">
         <v>193</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>167</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>255</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>46</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>140</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>196</v>
+        <v>508</v>
       </c>
       <c r="E15" t="s">
         <v>33</v>
@@ -36958,25 +37602,25 @@
       <c r="M15" t="s">
         <v>194</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>531</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>256</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>47</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>141</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="E16" t="s">
         <v>390</v>
@@ -36990,25 +37634,25 @@
       <c r="M16" t="s">
         <v>195</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>532</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>257</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>48</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>142</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>244</v>
+        <v>128</v>
       </c>
       <c r="E17" t="s">
         <v>391</v>
@@ -37019,19 +37663,19 @@
       <c r="K17" t="s">
         <v>171</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>533</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>490</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>184</v>
+        <v>244</v>
       </c>
       <c r="E18" t="s">
         <v>420</v>
@@ -37042,16 +37686,16 @@
       <c r="K18" t="s">
         <v>485</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>49</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>405</v>
+        <v>184</v>
       </c>
       <c r="E19" t="s">
         <v>34</v>
@@ -37062,16 +37706,16 @@
       <c r="K19" t="s">
         <v>172</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>50</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>438</v>
+        <v>405</v>
       </c>
       <c r="E20" t="s">
         <v>35</v>
@@ -37082,16 +37726,16 @@
       <c r="K20" t="s">
         <v>173</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>51</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="E21" t="s">
         <v>261</v>
@@ -37102,16 +37746,16 @@
       <c r="K21" t="s">
         <v>385</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>52</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>362</v>
+        <v>428</v>
       </c>
       <c r="E22" t="s">
         <v>36</v>
@@ -37122,13 +37766,13 @@
       <c r="K22" t="s">
         <v>502</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="E23" t="s">
         <v>326</v>
@@ -37139,13 +37783,13 @@
       <c r="K23" t="s">
         <v>151</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>401</v>
       </c>
       <c r="E24" t="s">
         <v>129</v>
@@ -37156,13 +37800,13 @@
       <c r="K24" t="s">
         <v>397</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E25" t="s">
         <v>476</v>
@@ -37173,13 +37817,13 @@
       <c r="K25" t="s">
         <v>152</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E26" t="s">
         <v>230</v>
@@ -37190,13 +37834,13 @@
       <c r="K26" t="s">
         <v>467</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="E27" t="s">
         <v>231</v>
@@ -37207,13 +37851,13 @@
       <c r="K27" t="s">
         <v>153</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>440</v>
+        <v>131</v>
       </c>
       <c r="E28" t="s">
         <v>500</v>
@@ -37224,13 +37868,13 @@
       <c r="K28" t="s">
         <v>154</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>232</v>
+        <v>440</v>
       </c>
       <c r="E29" t="s">
         <v>501</v>
@@ -37238,18 +37882,21 @@
       <c r="G29" t="s">
         <v>289</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="s">
+        <v>232</v>
+      </c>
       <c r="E30" t="s">
         <v>436</v>
       </c>
       <c r="G30" t="s">
         <v>221</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>60</v>
       </c>
     </row>
@@ -37260,7 +37907,7 @@
       <c r="G31" t="s">
         <v>280</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>61</v>
       </c>
     </row>
@@ -37271,7 +37918,7 @@
       <c r="G32" t="s">
         <v>290</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>62</v>
       </c>
     </row>
@@ -37282,7 +37929,7 @@
       <c r="G33" t="s">
         <v>539</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>63</v>
       </c>
     </row>
@@ -37293,7 +37940,7 @@
       <c r="G34" t="s">
         <v>265</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>64</v>
       </c>
     </row>
@@ -37304,7 +37951,7 @@
       <c r="G35" t="s">
         <v>335</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>215</v>
       </c>
     </row>
@@ -37315,7 +37962,7 @@
       <c r="G36" t="s">
         <v>313</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>65</v>
       </c>
     </row>
@@ -37326,7 +37973,7 @@
       <c r="G37" t="s">
         <v>266</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>343</v>
       </c>
     </row>
@@ -37337,7 +37984,7 @@
       <c r="G38" t="s">
         <v>314</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>460</v>
       </c>
     </row>
@@ -37345,7 +37992,7 @@
       <c r="G39" t="s">
         <v>272</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>398</v>
       </c>
     </row>
@@ -37353,7 +38000,7 @@
       <c r="G40" t="s">
         <v>158</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>66</v>
       </c>
     </row>
@@ -37361,7 +38008,7 @@
       <c r="G41" t="s">
         <v>217</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>67</v>
       </c>
     </row>
@@ -37369,7 +38016,7 @@
       <c r="G42" t="s">
         <v>294</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>68</v>
       </c>
     </row>
@@ -37377,7 +38024,7 @@
       <c r="G43" t="s">
         <v>305</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>69</v>
       </c>
     </row>
@@ -37385,7 +38032,7 @@
       <c r="G44" t="s">
         <v>306</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>70</v>
       </c>
     </row>
@@ -37393,7 +38040,7 @@
       <c r="G45" t="s">
         <v>348</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>71</v>
       </c>
     </row>
@@ -37401,7 +38048,7 @@
       <c r="G46" t="s">
         <v>347</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>469</v>
       </c>
     </row>
@@ -37409,7 +38056,7 @@
       <c r="G47" t="s">
         <v>216</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>218</v>
       </c>
     </row>
@@ -37417,7 +38064,7 @@
       <c r="G48" t="s">
         <v>307</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Y48" t="s">
         <v>72</v>
       </c>
     </row>
@@ -37425,7 +38072,7 @@
       <c r="G49" t="s">
         <v>344</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>73</v>
       </c>
     </row>
@@ -37433,7 +38080,7 @@
       <c r="G50" t="s">
         <v>373</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>74</v>
       </c>
     </row>
@@ -37441,7 +38088,7 @@
       <c r="G51" t="s">
         <v>308</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>75</v>
       </c>
     </row>
@@ -37449,7 +38096,7 @@
       <c r="G52" t="s">
         <v>361</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>514</v>
       </c>
     </row>
@@ -37457,7 +38104,7 @@
       <c r="G53" t="s">
         <v>336</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>495</v>
       </c>
     </row>
@@ -37465,7 +38112,7 @@
       <c r="G54" t="s">
         <v>273</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>76</v>
       </c>
     </row>
@@ -37473,7 +38120,7 @@
       <c r="G55" t="s">
         <v>297</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>351</v>
       </c>
     </row>
@@ -37481,7 +38128,7 @@
       <c r="G56" t="s">
         <v>298</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>488</v>
       </c>
     </row>
@@ -37489,7 +38136,7 @@
       <c r="G57" t="s">
         <v>299</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>77</v>
       </c>
     </row>
@@ -37497,7 +38144,7 @@
       <c r="G58" t="s">
         <v>309</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Y58" t="s">
         <v>78</v>
       </c>
     </row>
@@ -37505,7 +38152,7 @@
       <c r="G59" t="s">
         <v>318</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Y59" t="s">
         <v>79</v>
       </c>
     </row>
@@ -37513,7 +38160,7 @@
       <c r="G60" t="s">
         <v>342</v>
       </c>
-      <c r="X60" t="s">
+      <c r="Y60" t="s">
         <v>80</v>
       </c>
     </row>
@@ -37521,7 +38168,7 @@
       <c r="G61" t="s">
         <v>315</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Y61" t="s">
         <v>81</v>
       </c>
     </row>
@@ -37529,7 +38176,7 @@
       <c r="G62" t="s">
         <v>316</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>82</v>
       </c>
     </row>
@@ -37537,7 +38184,7 @@
       <c r="G63" t="s">
         <v>374</v>
       </c>
-      <c r="X63" t="s">
+      <c r="Y63" t="s">
         <v>83</v>
       </c>
     </row>
@@ -37545,7 +38192,7 @@
       <c r="G64" t="s">
         <v>375</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Y64" t="s">
         <v>465</v>
       </c>
     </row>
@@ -37553,7 +38200,7 @@
       <c r="G65" t="s">
         <v>350</v>
       </c>
-      <c r="X65" t="s">
+      <c r="Y65" t="s">
         <v>505</v>
       </c>
     </row>
@@ -37561,7 +38208,7 @@
       <c r="G66" t="s">
         <v>319</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
         <v>219</v>
       </c>
     </row>
@@ -37569,7 +38216,7 @@
       <c r="G67" t="s">
         <v>274</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Y67" t="s">
         <v>394</v>
       </c>
     </row>
@@ -37577,7 +38224,7 @@
       <c r="G68" t="s">
         <v>358</v>
       </c>
-      <c r="X68" t="s">
+      <c r="Y68" t="s">
         <v>470</v>
       </c>
     </row>
@@ -37585,7 +38232,7 @@
       <c r="G69" t="s">
         <v>320</v>
       </c>
-      <c r="X69" t="s">
+      <c r="Y69" t="s">
         <v>84</v>
       </c>
     </row>
@@ -37593,7 +38240,7 @@
       <c r="G70" t="s">
         <v>415</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Y70" t="s">
         <v>85</v>
       </c>
     </row>
@@ -37601,7 +38248,7 @@
       <c r="G71" t="s">
         <v>310</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>86</v>
       </c>
     </row>
@@ -37609,7 +38256,7 @@
       <c r="G72" t="s">
         <v>416</v>
       </c>
-      <c r="X72" t="s">
+      <c r="Y72" t="s">
         <v>87</v>
       </c>
     </row>
@@ -37617,7 +38264,7 @@
       <c r="G73" t="s">
         <v>267</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>202</v>
       </c>
     </row>
@@ -37625,7 +38272,7 @@
       <c r="G74" t="s">
         <v>540</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Y74" t="s">
         <v>203</v>
       </c>
     </row>
@@ -37633,7 +38280,7 @@
       <c r="G75" t="s">
         <v>349</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>483</v>
       </c>
     </row>
@@ -37641,7 +38288,7 @@
       <c r="G76" t="s">
         <v>285</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Y76" t="s">
         <v>499</v>
       </c>
     </row>
@@ -37649,7 +38296,7 @@
       <c r="G77" t="s">
         <v>291</v>
       </c>
-      <c r="X77" t="s">
+      <c r="Y77" t="s">
         <v>88</v>
       </c>
     </row>
@@ -37657,7 +38304,7 @@
       <c r="G78" t="s">
         <v>296</v>
       </c>
-      <c r="X78" t="s">
+      <c r="Y78" t="s">
         <v>89</v>
       </c>
     </row>
@@ -37665,7 +38312,7 @@
       <c r="G79" t="s">
         <v>446</v>
       </c>
-      <c r="X79" t="s">
+      <c r="Y79" t="s">
         <v>90</v>
       </c>
     </row>
@@ -37673,7 +38320,7 @@
       <c r="G80" t="s">
         <v>337</v>
       </c>
-      <c r="X80" t="s">
+      <c r="Y80" t="s">
         <v>527</v>
       </c>
     </row>
@@ -37681,7 +38328,7 @@
       <c r="G81" t="s">
         <v>275</v>
       </c>
-      <c r="X81" t="s">
+      <c r="Y81" t="s">
         <v>91</v>
       </c>
     </row>
@@ -37689,7 +38336,7 @@
       <c r="G82" t="s">
         <v>286</v>
       </c>
-      <c r="X82" t="s">
+      <c r="Y82" t="s">
         <v>92</v>
       </c>
     </row>
@@ -37697,7 +38344,7 @@
       <c r="G83" t="s">
         <v>292</v>
       </c>
-      <c r="X83" t="s">
+      <c r="Y83" t="s">
         <v>204</v>
       </c>
     </row>
@@ -37705,7 +38352,7 @@
       <c r="G84" t="s">
         <v>281</v>
       </c>
-      <c r="X84" t="s">
+      <c r="Y84" t="s">
         <v>515</v>
       </c>
     </row>
@@ -37713,7 +38360,7 @@
       <c r="G85" t="s">
         <v>276</v>
       </c>
-      <c r="X85" t="s">
+      <c r="Y85" t="s">
         <v>205</v>
       </c>
     </row>
@@ -37721,7 +38368,7 @@
       <c r="G86" t="s">
         <v>293</v>
       </c>
-      <c r="X86" t="s">
+      <c r="Y86" t="s">
         <v>482</v>
       </c>
     </row>
@@ -37729,7 +38376,7 @@
       <c r="G87" t="s">
         <v>277</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Y87" t="s">
         <v>206</v>
       </c>
     </row>
@@ -37737,7 +38384,7 @@
       <c r="G88" t="s">
         <v>278</v>
       </c>
-      <c r="X88" t="s">
+      <c r="Y88" t="s">
         <v>207</v>
       </c>
     </row>
@@ -37745,7 +38392,7 @@
       <c r="G89" t="s">
         <v>311</v>
       </c>
-      <c r="X89" t="s">
+      <c r="Y89" t="s">
         <v>220</v>
       </c>
     </row>
@@ -37753,7 +38400,7 @@
       <c r="G90" t="s">
         <v>317</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Y90" t="s">
         <v>93</v>
       </c>
     </row>
@@ -37761,7 +38408,7 @@
       <c r="G91" t="s">
         <v>300</v>
       </c>
-      <c r="X91" t="s">
+      <c r="Y91" t="s">
         <v>208</v>
       </c>
     </row>
@@ -37769,7 +38416,7 @@
       <c r="G92" t="s">
         <v>345</v>
       </c>
-      <c r="X92" t="s">
+      <c r="Y92" t="s">
         <v>462</v>
       </c>
     </row>
@@ -37777,7 +38424,7 @@
       <c r="G93" t="s">
         <v>282</v>
       </c>
-      <c r="X93" t="s">
+      <c r="Y93" t="s">
         <v>464</v>
       </c>
     </row>
@@ -37785,172 +38432,172 @@
       <c r="G94" t="s">
         <v>283</v>
       </c>
-      <c r="X94" t="s">
+      <c r="Y94" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="95">
-      <c r="X95" t="s">
+      <c r="Y95" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="96">
-      <c r="X96" t="s">
+      <c r="Y96" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="97">
-      <c r="X97" t="s">
+      <c r="Y97" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="98">
-      <c r="X98" t="s">
+      <c r="Y98" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="99">
-      <c r="X99" t="s">
+      <c r="Y99" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="100">
-      <c r="X100" t="s">
+      <c r="Y100" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="101">
-      <c r="X101" t="s">
+      <c r="Y101" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="102">
-      <c r="X102" t="s">
+      <c r="Y102" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="103">
-      <c r="X103" t="s">
+      <c r="Y103" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="104">
-      <c r="X104" t="s">
+      <c r="Y104" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="105">
-      <c r="X105" t="s">
+      <c r="Y105" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="106">
-      <c r="X106" t="s">
+      <c r="Y106" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="107">
-      <c r="X107" t="s">
+      <c r="Y107" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="108">
-      <c r="X108" t="s">
+      <c r="Y108" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="109">
-      <c r="X109" t="s">
+      <c r="Y109" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="110">
-      <c r="X110" t="s">
+      <c r="Y110" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="111">
-      <c r="X111" t="s">
+      <c r="Y111" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="112">
-      <c r="X112" t="s">
+      <c r="Y112" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="113">
-      <c r="X113" t="s">
+      <c r="Y113" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="114">
-      <c r="X114" t="s">
+      <c r="Y114" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="115">
-      <c r="X115" t="s">
+      <c r="Y115" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="116">
-      <c r="X116" t="s">
+      <c r="Y116" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="117">
-      <c r="X117" t="s">
+      <c r="Y117" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="118">
-      <c r="X118" t="s">
+      <c r="Y118" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="119">
-      <c r="X119" t="s">
+      <c r="Y119" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="120">
-      <c r="X120" t="s">
+      <c r="Y120" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="121">
-      <c r="X121" t="s">
+      <c r="Y121" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="122">
-      <c r="X122" t="s">
+      <c r="Y122" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="123">
-      <c r="X123" t="s">
+      <c r="Y123" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="124">
-      <c r="X124" t="s">
+      <c r="Y124" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="125">
-      <c r="X125" t="s">
+      <c r="Y125" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="126">
-      <c r="X126" t="s">
+      <c r="Y126" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="127">
-      <c r="X127" t="s">
+      <c r="Y127" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/mail-showcase.xlsx
@@ -27,7 +27,7 @@
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$28</definedName>
+    <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
@@ -52,7 +52,7 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28863" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30989" uniqueCount="554">
   <si>
     <t>description</t>
   </si>
@@ -1717,6 +1717,18 @@
   </si>
   <si>
     <t>runSQLs(var,sqls)</t>
+  </si>
+  <si>
+    <t>exportJSON(sql,output,header)</t>
+  </si>
+  <si>
+    <t>exportXML(sql,output,root,row,cell)</t>
+  </si>
+  <si>
+    <t>importCSV(var,csv,table)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget)</t>
   </si>
 </sst>
 </file>
@@ -1724,7 +1736,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="932" x14ac:knownFonts="1">
+  <fonts count="996" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7597,8 +7609,412 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1615">
+  <fills count="1735">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -16746,8 +17162,688 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/